--- a/WWI modell.xlsx
+++ b/WWI modell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F91E4A-FBE3-5C4D-9685-E032A0A43683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94892623-9419-7244-8DFC-1092510E718F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22300" yWindow="760" windowWidth="28900" windowHeight="26500" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
+    <workbookView xWindow="24220" yWindow="500" windowWidth="27740" windowHeight="26740" activeTab="1" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="198">
   <si>
     <t>Kapitalstruktur</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Dividend received/sale of financial assets</t>
   </si>
   <si>
-    <t>Purchare of current financial investmetns</t>
-  </si>
-  <si>
     <t>Change in other investments</t>
   </si>
   <si>
@@ -483,12 +480,6 @@
     <t>Treasure ASA</t>
   </si>
   <si>
-    <t>Nr of shares (84,2%)</t>
-  </si>
-  <si>
-    <t>Reach (NOK7,00/share, 96,8m shares)</t>
-  </si>
-  <si>
     <t>Wilhelmsen maritime services</t>
   </si>
   <si>
@@ -646,6 +637,21 @@
   </si>
   <si>
     <t>02.06.25: WWI skal kjøpe tilbake 400 000 aksjer</t>
+  </si>
+  <si>
+    <t>Purchase of current financial investmetns</t>
+  </si>
+  <si>
+    <t>Nr of shares (100%)</t>
+  </si>
+  <si>
+    <t>Treasure har en 11% eierandel i Hyundai Glovis gjennom NAL</t>
+  </si>
+  <si>
+    <t>Reach subsea (NOK7,00/share, 96,8m shares 29,58%)</t>
+  </si>
+  <si>
+    <t>Kjøpte hele selskapet novemeber 25</t>
   </si>
 </sst>
 </file>
@@ -772,7 +778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -822,22 +828,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -859,7 +854,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -914,14 +908,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1790,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6FABC2-1253-924E-8CB2-F0C03750A097}">
   <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1802,67 +1808,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>169</v>
+      <c r="A2" s="58" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H4" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="H6" s="69" t="s">
-        <v>186</v>
+      <c r="H6" s="63" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="H7" s="69" t="s">
-        <v>187</v>
+      <c r="H7" s="63" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="H8" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H9" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H10" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H11" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>173</v>
+      <c r="A17" s="58" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
-        <v>174</v>
+      <c r="A26" s="58" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1873,13 +1879,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9D41D6-FA1C-5144-915F-9569A5873643}">
-  <dimension ref="A1:EL93"/>
+  <dimension ref="A1:EN93"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P45" sqref="P45"/>
+      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1898,16 +1904,18 @@
     <col min="13" max="13" width="11.1640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="4"/>
-    <col min="17" max="25" width="10.83203125" style="2"/>
-    <col min="26" max="26" width="10.83203125" style="4"/>
-    <col min="27" max="38" width="10.83203125" style="2"/>
-    <col min="39" max="39" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.83203125" style="2"/>
+    <col min="16" max="16" width="10.83203125" style="2"/>
+    <col min="17" max="17" width="10.83203125" style="68"/>
+    <col min="18" max="18" width="10.83203125" style="4"/>
+    <col min="19" max="28" width="10.83203125" style="2"/>
+    <col min="29" max="29" width="10.83203125" style="4"/>
+    <col min="30" max="40" width="10.83203125" style="2"/>
+    <col min="41" max="41" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -1920,9 +1928,9 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1965,99 +1973,101 @@
       <c r="O3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
       <c r="W3" s="7" t="s">
         <v>122</v>
       </c>
       <c r="X3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AB3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AC3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AK3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AM3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>415</v>
+        <v>660</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>232</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>239</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>236</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>237</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="27">
         <v>262</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="27">
         <v>261</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="27">
         <v>254</v>
       </c>
       <c r="K4" s="13">
@@ -2075,73 +2085,79 @@
       <c r="O4" s="13">
         <v>274</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="2">
         <v>297</v>
       </c>
-      <c r="U4" s="2">
+      <c r="Q4" s="68">
+        <v>316</v>
+      </c>
+      <c r="R4" s="4">
+        <v>311</v>
+      </c>
+      <c r="W4" s="2">
         <v>836</v>
       </c>
-      <c r="V4" s="2">
+      <c r="X4" s="2">
         <v>807</v>
       </c>
-      <c r="W4" s="2">
+      <c r="Y4" s="2">
         <v>873</v>
       </c>
-      <c r="X4" s="13">
+      <c r="Z4" s="13">
         <v>943</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="AA4" s="13">
         <v>1027</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="AB4" s="13">
         <v>1136</v>
       </c>
-      <c r="AA4" s="13">
-        <f>Z4*1.02</f>
-        <v>1158.72</v>
-      </c>
-      <c r="AB4" s="13">
-        <f>AA4*1.05</f>
-        <v>1216.6560000000002</v>
-      </c>
-      <c r="AC4" s="13">
-        <f>AB4*1.04</f>
-        <v>1265.3222400000002</v>
+      <c r="AC4" s="14">
+        <f>AB4*1.1</f>
+        <v>1249.6000000000001</v>
       </c>
       <c r="AD4" s="13">
-        <f t="shared" ref="AD4:AK4" si="0">AC4*1.04</f>
-        <v>1315.9351296000002</v>
+        <f>AC4*1.05</f>
+        <v>1312.0800000000002</v>
       </c>
       <c r="AE4" s="13">
-        <f t="shared" si="0"/>
-        <v>1368.5725347840003</v>
+        <f>AD4*1.04</f>
+        <v>1364.5632000000003</v>
       </c>
       <c r="AF4" s="13">
-        <f t="shared" si="0"/>
-        <v>1423.3154361753602</v>
+        <f t="shared" ref="AF4:AM4" si="0">AE4*1.04</f>
+        <v>1419.1457280000004</v>
       </c>
       <c r="AG4" s="13">
         <f t="shared" si="0"/>
-        <v>1480.2480536223748</v>
+        <v>1475.9115571200005</v>
       </c>
       <c r="AH4" s="13">
         <f t="shared" si="0"/>
-        <v>1539.4579757672698</v>
+        <v>1534.9480194048006</v>
       </c>
       <c r="AI4" s="13">
         <f t="shared" si="0"/>
-        <v>1601.0362947979606</v>
+        <v>1596.3459401809926</v>
       </c>
       <c r="AJ4" s="13">
         <f t="shared" si="0"/>
-        <v>1665.0777465898791</v>
+        <v>1660.1997777882323</v>
       </c>
       <c r="AK4" s="13">
         <f t="shared" si="0"/>
-        <v>1731.6808564534742</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+        <v>1726.6077688997616</v>
+      </c>
+      <c r="AL4" s="13">
+        <f t="shared" si="0"/>
+        <v>1795.6720796557522</v>
+      </c>
+      <c r="AM4" s="13">
+        <f t="shared" si="0"/>
+        <v>1867.4989628419823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2152,25 +2168,25 @@
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>9</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>-1</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>-2</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <v>9</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="27">
         <v>-1</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="27">
         <v>-2</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
         <v>-1</v>
       </c>
       <c r="K5" s="13">
@@ -2188,34 +2204,34 @@
       <c r="O5" s="13">
         <v>4</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="2">
         <v>-1</v>
       </c>
-      <c r="U5" s="2">
+      <c r="Q5" s="68">
+        <v>-2</v>
+      </c>
+      <c r="R5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W5" s="2">
         <v>14</v>
       </c>
-      <c r="V5" s="2">
+      <c r="X5" s="2">
         <v>5</v>
       </c>
-      <c r="W5" s="2">
+      <c r="Y5" s="2">
         <v>2</v>
       </c>
-      <c r="X5" s="13">
+      <c r="Z5" s="13">
         <v>15</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="AA5" s="13">
         <v>1</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="AB5" s="13">
         <v>2</v>
       </c>
-      <c r="AA5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="13">
+      <c r="AC5" s="14">
         <v>0</v>
       </c>
       <c r="AD5" s="13">
@@ -2242,168 +2258,188 @@
       <c r="AK5" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="5">
         <f>B4*B5</f>
-        <v>18500.7</v>
+        <v>29422.799999999999</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="19">
-        <f t="shared" ref="D6:P6" si="1">SUM(D4:D5)</f>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6:S6" si="1">SUM(D4:D5)</f>
         <v>241</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <f t="shared" si="1"/>
         <v>246</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <f t="shared" si="1"/>
         <v>261</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="18">
         <f t="shared" si="1"/>
         <v>253</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="18">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="18">
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="18">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="18">
         <f t="shared" si="1"/>
         <v>295</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="18">
         <f t="shared" si="1"/>
         <v>278</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="18">
         <f t="shared" si="1"/>
         <v>296</v>
       </c>
-      <c r="U6" s="19">
-        <f t="shared" ref="U6:X6" si="2">SUM(U4:U5)</f>
+      <c r="Q6" s="70">
+        <f t="shared" si="1"/>
+        <v>314</v>
+      </c>
+      <c r="R6" s="12">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="S6" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="W6" s="18">
+        <f t="shared" ref="W6:Z6" si="2">SUM(W4:W5)</f>
         <v>850</v>
       </c>
-      <c r="V6" s="19">
+      <c r="X6" s="18">
         <f t="shared" si="2"/>
         <v>812</v>
       </c>
-      <c r="W6" s="19">
+      <c r="Y6" s="18">
         <f t="shared" si="2"/>
         <v>875</v>
       </c>
-      <c r="X6" s="19">
+      <c r="Z6" s="18">
         <f t="shared" si="2"/>
         <v>958</v>
       </c>
-      <c r="Y6" s="19">
-        <f>SUM(Y4:Y5)</f>
+      <c r="AA6" s="18">
+        <f>SUM(AA4:AA5)</f>
         <v>1028</v>
       </c>
-      <c r="Z6" s="12">
-        <f>SUM(Z4:Z5)</f>
+      <c r="AB6" s="18">
+        <f>SUM(AB4:AB5)</f>
         <v>1138</v>
       </c>
-      <c r="AA6" s="19">
-        <f t="shared" ref="AA6:AK6" si="3">SUM(AA4:AA5)</f>
-        <v>1158.72</v>
-      </c>
-      <c r="AB6" s="19">
+      <c r="AC6" s="12">
+        <f t="shared" ref="AC6:AM6" si="3">SUM(AC4:AC5)</f>
+        <v>1249.6000000000001</v>
+      </c>
+      <c r="AD6" s="18">
         <f t="shared" si="3"/>
-        <v>1216.6560000000002</v>
-      </c>
-      <c r="AC6" s="19">
+        <v>1312.0800000000002</v>
+      </c>
+      <c r="AE6" s="18">
         <f t="shared" si="3"/>
-        <v>1265.3222400000002</v>
-      </c>
-      <c r="AD6" s="19">
+        <v>1364.5632000000003</v>
+      </c>
+      <c r="AF6" s="18">
         <f t="shared" si="3"/>
-        <v>1315.9351296000002</v>
-      </c>
-      <c r="AE6" s="19">
+        <v>1419.1457280000004</v>
+      </c>
+      <c r="AG6" s="18">
         <f t="shared" si="3"/>
-        <v>1368.5725347840003</v>
-      </c>
-      <c r="AF6" s="19">
+        <v>1475.9115571200005</v>
+      </c>
+      <c r="AH6" s="18">
         <f t="shared" si="3"/>
-        <v>1423.3154361753602</v>
-      </c>
-      <c r="AG6" s="19">
+        <v>1534.9480194048006</v>
+      </c>
+      <c r="AI6" s="18">
         <f t="shared" si="3"/>
-        <v>1480.2480536223748</v>
-      </c>
-      <c r="AH6" s="19">
+        <v>1596.3459401809926</v>
+      </c>
+      <c r="AJ6" s="18">
         <f t="shared" si="3"/>
-        <v>1539.4579757672698</v>
-      </c>
-      <c r="AI6" s="19">
+        <v>1660.1997777882323</v>
+      </c>
+      <c r="AK6" s="18">
         <f t="shared" si="3"/>
-        <v>1601.0362947979606</v>
-      </c>
-      <c r="AJ6" s="19">
+        <v>1726.6077688997616</v>
+      </c>
+      <c r="AL6" s="18">
         <f t="shared" si="3"/>
-        <v>1665.0777465898791</v>
-      </c>
-      <c r="AK6" s="19">
+        <v>1795.6720796557522</v>
+      </c>
+      <c r="AM6" s="18">
         <f t="shared" si="3"/>
-        <v>1731.6808564534742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+        <v>1867.4989628419823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="5">
-        <v>1791.4</v>
+        <v>3060.3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>-75</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>-76</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>-80</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <v>-82</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="27">
         <v>-90</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="27">
         <v>-87</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="27">
         <v>-83</v>
       </c>
       <c r="K7" s="13">
@@ -2421,101 +2457,107 @@
       <c r="O7" s="13">
         <v>-89</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="2">
         <v>-103</v>
       </c>
-      <c r="U7" s="2">
+      <c r="Q7" s="68">
+        <v>-113</v>
+      </c>
+      <c r="R7" s="4">
+        <v>-103</v>
+      </c>
+      <c r="W7" s="2">
         <v>-247</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>-243</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>-277</v>
       </c>
-      <c r="X7" s="13">
+      <c r="Z7" s="13">
         <v>-313</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="AA7" s="13">
         <v>-340</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="AB7" s="13">
         <v>-391</v>
       </c>
-      <c r="AA7" s="13">
-        <f>Z7*1.005</f>
-        <v>-392.95499999999998</v>
-      </c>
-      <c r="AB7" s="13">
-        <f>AA7*1.03</f>
-        <v>-404.74365</v>
-      </c>
-      <c r="AC7" s="13">
-        <f>AB7*1.04</f>
-        <v>-420.93339600000002</v>
+      <c r="AC7" s="14">
+        <f>AB7*1.09</f>
+        <v>-426.19000000000005</v>
       </c>
       <c r="AD7" s="13">
-        <f t="shared" ref="AD7:AK7" si="4">AC7*1.04</f>
-        <v>-437.77073184000005</v>
+        <f>AC7*1.05</f>
+        <v>-447.49950000000007</v>
       </c>
       <c r="AE7" s="13">
-        <f t="shared" si="4"/>
-        <v>-455.28156111360005</v>
+        <f>AD7*1.04</f>
+        <v>-465.3994800000001</v>
       </c>
       <c r="AF7" s="13">
-        <f t="shared" si="4"/>
-        <v>-473.49282355814404</v>
+        <f t="shared" ref="AF7:AM7" si="4">AE7*1.04</f>
+        <v>-484.01545920000012</v>
       </c>
       <c r="AG7" s="13">
         <f t="shared" si="4"/>
-        <v>-492.43253650046984</v>
+        <v>-503.37607756800014</v>
       </c>
       <c r="AH7" s="13">
         <f t="shared" si="4"/>
-        <v>-512.12983796048866</v>
+        <v>-523.51112067072017</v>
       </c>
       <c r="AI7" s="13">
         <f t="shared" si="4"/>
-        <v>-532.61503147890824</v>
+        <v>-544.45156549754904</v>
       </c>
       <c r="AJ7" s="13">
         <f t="shared" si="4"/>
-        <v>-553.91963273806459</v>
+        <v>-566.22962811745106</v>
       </c>
       <c r="AK7" s="13">
         <f t="shared" si="4"/>
-        <v>-576.07641804758714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+        <v>-588.87881324214914</v>
+      </c>
+      <c r="AL7" s="13">
+        <f t="shared" si="4"/>
+        <v>-612.43396577183512</v>
+      </c>
+      <c r="AM7" s="13">
+        <f t="shared" si="4"/>
+        <v>-636.93132440270858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="5">
-        <v>3551</v>
+        <v>2838.1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>-84</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <v>-83</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>-83</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>-92</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="27">
         <v>-94</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="27">
         <v>-94</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="27">
         <v>-99</v>
       </c>
       <c r="K8" s="13">
@@ -2533,102 +2575,108 @@
       <c r="O8" s="13">
         <v>-108</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="2">
         <v>-110</v>
       </c>
-      <c r="U8" s="2">
+      <c r="Q8" s="68">
+        <v>-112</v>
+      </c>
+      <c r="R8" s="4">
+        <v>-117</v>
+      </c>
+      <c r="W8" s="2">
         <v>-306</v>
       </c>
-      <c r="V8" s="2">
+      <c r="X8" s="2">
         <v>-299</v>
       </c>
-      <c r="W8" s="2">
+      <c r="Y8" s="2">
         <v>-321</v>
       </c>
-      <c r="X8" s="13">
+      <c r="Z8" s="13">
         <v>-341</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="AA8" s="13">
         <v>-387</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="AB8" s="13">
         <v>-423</v>
       </c>
-      <c r="AA8" s="13">
-        <f>Z8*1.005</f>
-        <v>-425.11499999999995</v>
-      </c>
-      <c r="AB8" s="13">
-        <f t="shared" ref="AB8:AB10" si="5">AA8*1.03</f>
-        <v>-437.86844999999994</v>
-      </c>
-      <c r="AC8" s="13">
-        <f t="shared" ref="AC8:AC10" si="6">AB8*1.04</f>
-        <v>-455.38318799999996</v>
+      <c r="AC8" s="14">
+        <f t="shared" ref="AC8:AC10" si="5">AB8*1.09</f>
+        <v>-461.07000000000005</v>
       </c>
       <c r="AD8" s="13">
-        <f t="shared" ref="AD8:AK8" si="7">AC8*1.04</f>
-        <v>-473.59851551999998</v>
+        <f t="shared" ref="AD8:AD10" si="6">AC8*1.05</f>
+        <v>-484.12350000000009</v>
       </c>
       <c r="AE8" s="13">
-        <f t="shared" si="7"/>
-        <v>-492.54245614079997</v>
+        <f t="shared" ref="AE8:AE10" si="7">AD8*1.04</f>
+        <v>-503.48844000000014</v>
       </c>
       <c r="AF8" s="13">
-        <f t="shared" si="7"/>
-        <v>-512.244154386432</v>
+        <f t="shared" ref="AF8:AM8" si="8">AE8*1.04</f>
+        <v>-523.62797760000012</v>
       </c>
       <c r="AG8" s="13">
-        <f t="shared" si="7"/>
-        <v>-532.73392056188925</v>
+        <f t="shared" si="8"/>
+        <v>-544.57309670400014</v>
       </c>
       <c r="AH8" s="13">
-        <f t="shared" si="7"/>
-        <v>-554.04327738436484</v>
+        <f t="shared" si="8"/>
+        <v>-566.35602057216011</v>
       </c>
       <c r="AI8" s="13">
-        <f t="shared" si="7"/>
-        <v>-576.20500847973949</v>
+        <f t="shared" si="8"/>
+        <v>-589.01026139504654</v>
       </c>
       <c r="AJ8" s="13">
-        <f t="shared" si="7"/>
-        <v>-599.25320881892912</v>
+        <f t="shared" si="8"/>
+        <v>-612.57067185084838</v>
       </c>
       <c r="AK8" s="13">
-        <f t="shared" si="7"/>
-        <v>-623.22333717168635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>-637.07349872488237</v>
+      </c>
+      <c r="AL8" s="13">
+        <f t="shared" si="8"/>
+        <v>-662.55643867387766</v>
+      </c>
+      <c r="AM8" s="13">
+        <f t="shared" si="8"/>
+        <v>-689.05869622083276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="6">
         <f>B6-B7+B8</f>
-        <v>20260.3</v>
+        <v>29200.6</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>-38</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <v>-40</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>-34</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>-39</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="27">
         <v>-38</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <v>-39</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="27">
         <v>-35</v>
       </c>
       <c r="K9" s="13">
@@ -2646,95 +2694,101 @@
       <c r="O9" s="13">
         <v>-44</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="2">
         <v>-38</v>
       </c>
-      <c r="U9" s="2">
+      <c r="Q9" s="68">
+        <v>-41</v>
+      </c>
+      <c r="R9" s="4">
+        <v>-48</v>
+      </c>
+      <c r="W9" s="2">
         <v>-148</v>
       </c>
-      <c r="V9" s="2">
+      <c r="X9" s="2">
         <v>-131</v>
       </c>
-      <c r="W9" s="2">
+      <c r="Y9" s="2">
         <v>-136</v>
       </c>
-      <c r="X9" s="13">
+      <c r="Z9" s="13">
         <v>-151</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="AA9" s="13">
         <v>-153</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="AB9" s="13">
         <v>-166</v>
       </c>
-      <c r="AA9" s="13">
-        <f>Z9*1.005</f>
-        <v>-166.82999999999998</v>
-      </c>
-      <c r="AB9" s="13">
+      <c r="AC9" s="14">
         <f t="shared" si="5"/>
-        <v>-171.83489999999998</v>
-      </c>
-      <c r="AC9" s="13">
+        <v>-180.94000000000003</v>
+      </c>
+      <c r="AD9" s="13">
         <f t="shared" si="6"/>
-        <v>-178.70829599999999</v>
-      </c>
-      <c r="AD9" s="13">
-        <f t="shared" ref="AD9:AK9" si="8">AC9*1.04</f>
-        <v>-185.85662783999999</v>
+        <v>-189.98700000000002</v>
       </c>
       <c r="AE9" s="13">
-        <f t="shared" si="8"/>
-        <v>-193.29089295360001</v>
+        <f t="shared" si="7"/>
+        <v>-197.58648000000002</v>
       </c>
       <c r="AF9" s="13">
-        <f t="shared" si="8"/>
-        <v>-201.02252867174403</v>
+        <f t="shared" ref="AF9:AM9" si="9">AE9*1.04</f>
+        <v>-205.48993920000004</v>
       </c>
       <c r="AG9" s="13">
-        <f t="shared" si="8"/>
-        <v>-209.0634298186138</v>
+        <f t="shared" si="9"/>
+        <v>-213.70953676800005</v>
       </c>
       <c r="AH9" s="13">
-        <f t="shared" si="8"/>
-        <v>-217.42596701135835</v>
+        <f t="shared" si="9"/>
+        <v>-222.25791823872007</v>
       </c>
       <c r="AI9" s="13">
-        <f t="shared" si="8"/>
-        <v>-226.12300569181269</v>
+        <f t="shared" si="9"/>
+        <v>-231.14823496826887</v>
       </c>
       <c r="AJ9" s="13">
-        <f t="shared" si="8"/>
-        <v>-235.16792591948521</v>
+        <f t="shared" si="9"/>
+        <v>-240.39416436699963</v>
       </c>
       <c r="AK9" s="13">
-        <f t="shared" si="8"/>
-        <v>-244.57464295626463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>-250.00993094167961</v>
+      </c>
+      <c r="AL9" s="13">
+        <f t="shared" si="9"/>
+        <v>-260.0103281793468</v>
+      </c>
+      <c r="AM9" s="13">
+        <f t="shared" si="9"/>
+        <v>-270.41074130652066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>-17</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>-12</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>-13</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>-27</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <v>-14</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <v>-14</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="27">
         <v>-15</v>
       </c>
       <c r="K10" s="13">
@@ -2752,226 +2806,246 @@
       <c r="O10" s="13">
         <v>-26</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="2">
         <v>-14</v>
       </c>
-      <c r="U10" s="2">
+      <c r="Q10" s="68">
+        <v>-20</v>
+      </c>
+      <c r="R10" s="4">
+        <v>-22</v>
+      </c>
+      <c r="W10" s="2">
         <v>-71</v>
       </c>
-      <c r="V10" s="2">
+      <c r="X10" s="2">
         <v>-78</v>
       </c>
-      <c r="W10" s="2">
+      <c r="Y10" s="2">
         <v>-68</v>
       </c>
-      <c r="X10" s="13">
+      <c r="Z10" s="13">
         <v>-69</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="AA10" s="13">
         <v>-59</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="AB10" s="13">
         <v>-74</v>
       </c>
-      <c r="AA10" s="13">
-        <f>Z10*1.01</f>
-        <v>-74.739999999999995</v>
-      </c>
-      <c r="AB10" s="13">
+      <c r="AC10" s="14">
         <f t="shared" si="5"/>
-        <v>-76.982199999999992</v>
-      </c>
-      <c r="AC10" s="13">
+        <v>-80.660000000000011</v>
+      </c>
+      <c r="AD10" s="13">
         <f t="shared" si="6"/>
-        <v>-80.061487999999997</v>
-      </c>
-      <c r="AD10" s="13">
-        <f t="shared" ref="AD10:AK10" si="9">AC10*1.04</f>
-        <v>-83.263947520000002</v>
+        <v>-84.693000000000012</v>
       </c>
       <c r="AE10" s="13">
-        <f t="shared" si="9"/>
-        <v>-86.594505420800004</v>
+        <f t="shared" si="7"/>
+        <v>-88.080720000000014</v>
       </c>
       <c r="AF10" s="13">
-        <f t="shared" si="9"/>
-        <v>-90.058285637632011</v>
+        <f t="shared" ref="AF10:AM10" si="10">AE10*1.04</f>
+        <v>-91.603948800000012</v>
       </c>
       <c r="AG10" s="13">
-        <f t="shared" si="9"/>
-        <v>-93.660617063137295</v>
+        <f t="shared" si="10"/>
+        <v>-95.268106752000023</v>
       </c>
       <c r="AH10" s="13">
-        <f t="shared" si="9"/>
-        <v>-97.407041745662795</v>
+        <f t="shared" si="10"/>
+        <v>-99.078831022080024</v>
       </c>
       <c r="AI10" s="13">
-        <f t="shared" si="9"/>
-        <v>-101.30332341548932</v>
+        <f t="shared" si="10"/>
+        <v>-103.04198426296323</v>
       </c>
       <c r="AJ10" s="13">
-        <f t="shared" si="9"/>
-        <v>-105.35545635210889</v>
+        <f t="shared" si="10"/>
+        <v>-107.16366363348176</v>
       </c>
       <c r="AK10" s="13">
-        <f t="shared" si="9"/>
-        <v>-109.56967460619325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-111.45021017882104</v>
+      </c>
+      <c r="AL10" s="13">
+        <f t="shared" si="10"/>
+        <v>-115.90821858597388</v>
+      </c>
+      <c r="AM10" s="13">
+        <f t="shared" si="10"/>
+        <v>-120.54454732941285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="4">
-        <v>10.6</v>
+        <v>10.1</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="19">
-        <f t="shared" ref="D11:J11" si="10">SUM(D6:D10)</f>
+      <c r="D11" s="18">
+        <f t="shared" ref="D11:J11" si="11">SUM(D6:D10)</f>
         <v>27</v>
       </c>
-      <c r="E11" s="19">
-        <f t="shared" si="10"/>
+      <c r="E11" s="18">
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="F11" s="19">
-        <f t="shared" si="10"/>
+      <c r="F11" s="18">
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="G11" s="19">
-        <f t="shared" si="10"/>
+      <c r="G11" s="18">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="H11" s="19">
-        <f t="shared" si="10"/>
+      <c r="H11" s="18">
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="I11" s="19">
-        <f t="shared" si="10"/>
+      <c r="I11" s="18">
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="J11" s="19">
-        <f t="shared" si="10"/>
+      <c r="J11" s="18">
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="K11" s="19">
-        <f t="shared" ref="K11:P11" si="11">SUM(K6:K10)</f>
+      <c r="K11" s="18">
+        <f t="shared" ref="K11:S11" si="12">SUM(K6:K10)</f>
         <v>16</v>
       </c>
-      <c r="L11" s="19">
-        <f t="shared" si="11"/>
+      <c r="L11" s="18">
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
-      <c r="M11" s="19">
-        <f t="shared" si="11"/>
+      <c r="M11" s="18">
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="N11" s="19">
-        <f t="shared" si="11"/>
+      <c r="N11" s="18">
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
-      <c r="O11" s="19">
-        <f t="shared" si="11"/>
+      <c r="O11" s="18">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="P11" s="19">
-        <f t="shared" si="11"/>
+      <c r="P11" s="18">
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
-      <c r="U11" s="19">
-        <f t="shared" ref="U11:X11" si="12">SUM(U6:U10)</f>
+      <c r="Q11" s="70">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="R11" s="12">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="S11" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="W11" s="18">
+        <f t="shared" ref="W11:Z11" si="13">SUM(W6:W10)</f>
         <v>78</v>
       </c>
-      <c r="V11" s="19">
-        <f t="shared" si="12"/>
+      <c r="X11" s="18">
+        <f t="shared" si="13"/>
         <v>61</v>
       </c>
-      <c r="W11" s="19">
-        <f t="shared" si="12"/>
+      <c r="Y11" s="18">
+        <f t="shared" si="13"/>
         <v>73</v>
       </c>
-      <c r="X11" s="19">
-        <f t="shared" si="12"/>
+      <c r="Z11" s="18">
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
-      <c r="Y11" s="19">
-        <f>SUM(Y6:Y10)</f>
+      <c r="AA11" s="18">
+        <f>SUM(AA6:AA10)</f>
         <v>89</v>
       </c>
-      <c r="Z11" s="12">
-        <f>SUM(Z6:Z10)</f>
+      <c r="AB11" s="18">
+        <f>SUM(AB6:AB10)</f>
         <v>84</v>
       </c>
-      <c r="AA11" s="19">
-        <f t="shared" ref="AA11:AK11" si="13">SUM(AA6:AA10)</f>
-        <v>99.080000000000169</v>
-      </c>
-      <c r="AB11" s="19">
-        <f t="shared" si="13"/>
-        <v>125.22680000000027</v>
-      </c>
-      <c r="AC11" s="19">
-        <f t="shared" si="13"/>
-        <v>130.23587200000023</v>
-      </c>
-      <c r="AD11" s="19">
-        <f t="shared" si="13"/>
-        <v>135.4453068800002</v>
-      </c>
-      <c r="AE11" s="19">
-        <f t="shared" si="13"/>
-        <v>140.86311915520028</v>
-      </c>
-      <c r="AF11" s="19">
-        <f t="shared" si="13"/>
-        <v>146.49764392140821</v>
-      </c>
-      <c r="AG11" s="19">
-        <f t="shared" si="13"/>
-        <v>152.35754967826458</v>
-      </c>
-      <c r="AH11" s="19">
-        <f t="shared" si="13"/>
-        <v>158.45185166539511</v>
-      </c>
-      <c r="AI11" s="19">
-        <f t="shared" si="13"/>
-        <v>164.78992573201077</v>
-      </c>
-      <c r="AJ11" s="19">
-        <f t="shared" si="13"/>
-        <v>171.38152276129125</v>
-      </c>
-      <c r="AK11" s="19">
-        <f t="shared" si="13"/>
-        <v>178.2367836717429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AC11" s="12">
+        <f t="shared" ref="AC11:AM11" si="14">SUM(AC6:AC10)</f>
+        <v>100.74</v>
+      </c>
+      <c r="AD11" s="18">
+        <f t="shared" si="14"/>
+        <v>105.7769999999999</v>
+      </c>
+      <c r="AE11" s="18">
+        <f t="shared" si="14"/>
+        <v>110.00808000000006</v>
+      </c>
+      <c r="AF11" s="18">
+        <f t="shared" si="14"/>
+        <v>114.40840320000012</v>
+      </c>
+      <c r="AG11" s="18">
+        <f t="shared" si="14"/>
+        <v>118.9847393280001</v>
+      </c>
+      <c r="AH11" s="18">
+        <f t="shared" si="14"/>
+        <v>123.74412890112019</v>
+      </c>
+      <c r="AI11" s="18">
+        <f t="shared" si="14"/>
+        <v>128.69389405716475</v>
+      </c>
+      <c r="AJ11" s="18">
+        <f t="shared" si="14"/>
+        <v>133.84164981945145</v>
+      </c>
+      <c r="AK11" s="18">
+        <f t="shared" si="14"/>
+        <v>139.19531581222944</v>
+      </c>
+      <c r="AL11" s="18">
+        <f t="shared" si="14"/>
+        <v>144.76312844471875</v>
+      </c>
+      <c r="AM11" s="18">
+        <f t="shared" si="14"/>
+        <v>150.55365358250737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>64</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>45</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>87</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>100</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="27">
         <v>83</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="27">
         <v>141</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="27">
         <v>138</v>
       </c>
       <c r="K12" s="13">
@@ -2989,96 +3063,102 @@
       <c r="O12" s="13">
         <v>116</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="2">
         <v>121</v>
       </c>
-      <c r="U12" s="2">
+      <c r="Q12" s="68">
+        <v>208</v>
+      </c>
+      <c r="R12" s="4">
+        <v>133</v>
+      </c>
+      <c r="W12" s="2">
         <v>49</v>
       </c>
-      <c r="V12" s="2">
+      <c r="X12" s="2">
         <v>-50</v>
       </c>
-      <c r="W12" s="2">
+      <c r="Y12" s="2">
         <v>101</v>
       </c>
-      <c r="X12" s="13">
+      <c r="Z12" s="13">
         <v>296</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="AA12" s="13">
         <v>431</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="AB12" s="13">
         <v>472</v>
       </c>
-      <c r="AA12" s="13">
-        <f>Z12*1.04</f>
+      <c r="AC12" s="14">
+        <f>AB12*1.04</f>
         <v>490.88</v>
       </c>
-      <c r="AB12" s="13">
-        <f>AA12*0.95</f>
+      <c r="AD12" s="13">
+        <f>AC12*0.95</f>
         <v>466.33599999999996</v>
       </c>
-      <c r="AC12" s="13">
-        <f t="shared" ref="AC12:AE12" si="14">AB12*0.95</f>
+      <c r="AE12" s="13">
+        <f t="shared" ref="AE12:AG12" si="15">AD12*0.95</f>
         <v>443.01919999999996</v>
       </c>
-      <c r="AD12" s="13">
-        <f t="shared" si="14"/>
+      <c r="AF12" s="13">
+        <f t="shared" si="15"/>
         <v>420.86823999999996</v>
-      </c>
-      <c r="AE12" s="13">
-        <f t="shared" si="14"/>
-        <v>399.82482799999997</v>
-      </c>
-      <c r="AF12" s="13">
-        <f t="shared" ref="AF12:AK12" si="15">AE12*1.01</f>
-        <v>403.82307627999995</v>
       </c>
       <c r="AG12" s="13">
         <f t="shared" si="15"/>
+        <v>399.82482799999997</v>
+      </c>
+      <c r="AH12" s="13">
+        <f t="shared" ref="AH12:AM12" si="16">AG12*1.01</f>
+        <v>403.82307627999995</v>
+      </c>
+      <c r="AI12" s="13">
+        <f t="shared" si="16"/>
         <v>407.86130704279998</v>
       </c>
-      <c r="AH12" s="13">
-        <f t="shared" si="15"/>
+      <c r="AJ12" s="13">
+        <f t="shared" si="16"/>
         <v>411.93992011322797</v>
       </c>
-      <c r="AI12" s="13">
-        <f t="shared" si="15"/>
+      <c r="AK12" s="13">
+        <f t="shared" si="16"/>
         <v>416.05931931436027</v>
       </c>
-      <c r="AJ12" s="13">
-        <f t="shared" si="15"/>
+      <c r="AL12" s="13">
+        <f t="shared" si="16"/>
         <v>420.21991250750386</v>
       </c>
-      <c r="AK12" s="13">
-        <f t="shared" si="15"/>
+      <c r="AM12" s="13">
+        <f t="shared" si="16"/>
         <v>424.42211163257889</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="27">
         <v>70</v>
       </c>
-      <c r="E13" s="28">
-        <v>0</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="E13" s="27">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
         <v>-106</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>105</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>1</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="27">
         <v>1</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="27">
         <v>4</v>
       </c>
       <c r="K13" s="13">
@@ -3096,34 +3176,34 @@
       <c r="O13" s="13">
         <v>1</v>
       </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="68">
+        <v>7</v>
+      </c>
+      <c r="R13" s="4">
+        <v>-3</v>
+      </c>
+      <c r="W13" s="2">
         <v>34</v>
       </c>
-      <c r="V13" s="2">
+      <c r="X13" s="2">
         <v>192</v>
       </c>
-      <c r="W13" s="2">
+      <c r="Y13" s="2">
         <v>-107</v>
       </c>
-      <c r="X13" s="13">
+      <c r="Z13" s="13">
         <v>-50</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="AA13" s="13">
         <v>11</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="AB13" s="13">
         <v>27</v>
       </c>
-      <c r="AA13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="13">
+      <c r="AC13" s="14">
         <v>0</v>
       </c>
       <c r="AD13" s="13">
@@ -3150,30 +3230,36 @@
       <c r="AK13" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>4</v>
       </c>
-      <c r="E14" s="28">
-        <v>0</v>
-      </c>
-      <c r="F14" s="28">
-        <v>0</v>
-      </c>
-      <c r="G14" s="28">
-        <v>0</v>
-      </c>
-      <c r="H14" s="28">
-        <v>0</v>
-      </c>
-      <c r="I14" s="28">
-        <v>0</v>
-      </c>
-      <c r="J14" s="28">
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
         <v>0</v>
       </c>
       <c r="K14" s="13">
@@ -3191,34 +3277,34 @@
       <c r="O14" s="13">
         <v>0</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="2">
         <v>-7</v>
       </c>
-      <c r="U14" s="2">
+      <c r="Q14" s="68">
+        <v>23</v>
+      </c>
+      <c r="R14" s="4">
+        <v>2</v>
+      </c>
+      <c r="W14" s="2">
         <v>33</v>
       </c>
-      <c r="V14" s="2">
+      <c r="X14" s="2">
         <v>46</v>
       </c>
-      <c r="W14" s="2">
+      <c r="Y14" s="2">
         <v>42</v>
       </c>
-      <c r="X14" s="13">
+      <c r="Z14" s="13">
         <v>30</v>
       </c>
-      <c r="Y14" s="13">
+      <c r="AA14" s="13">
         <v>39</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="AB14" s="13">
         <v>25</v>
       </c>
-      <c r="AA14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="13">
+      <c r="AC14" s="14">
         <v>0</v>
       </c>
       <c r="AD14" s="13">
@@ -3245,30 +3331,36 @@
       <c r="AK14" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="28">
-        <v>0</v>
-      </c>
-      <c r="E15" s="28">
+      <c r="D15" s="27">
+        <v>0</v>
+      </c>
+      <c r="E15" s="27">
         <v>-117</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="27">
         <v>-29</v>
       </c>
-      <c r="G15" s="28">
-        <v>0</v>
-      </c>
-      <c r="H15" s="28">
+      <c r="G15" s="27">
+        <v>0</v>
+      </c>
+      <c r="H15" s="27">
         <v>-2</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="27">
         <v>-3</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="27">
         <v>-6</v>
       </c>
       <c r="K15" s="13">
@@ -3286,34 +3378,34 @@
       <c r="O15" s="13">
         <v>-28</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="2">
         <v>4</v>
       </c>
-      <c r="U15" s="2">
+      <c r="Q15" s="68">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
         <v>-49</v>
       </c>
-      <c r="V15" s="2">
+      <c r="X15" s="2">
         <v>-44</v>
       </c>
-      <c r="W15" s="2">
+      <c r="Y15" s="2">
         <v>-43</v>
       </c>
-      <c r="X15" s="13">
+      <c r="Z15" s="13">
         <v>-55</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="AA15" s="13">
         <v>-54</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="AB15" s="13">
         <v>-71</v>
       </c>
-      <c r="AA15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="13">
+      <c r="AC15" s="14">
         <v>0</v>
       </c>
       <c r="AD15" s="13">
@@ -3340,924 +3432,978 @@
       <c r="AK15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="28">
-        <f t="shared" ref="D16:O16" si="16">SUM(D11:D15)</f>
+      <c r="D16" s="27">
+        <f t="shared" ref="D16:O16" si="17">SUM(D11:D15)</f>
         <v>165</v>
       </c>
-      <c r="E16" s="28">
-        <f t="shared" si="16"/>
+      <c r="E16" s="27">
+        <f t="shared" si="17"/>
         <v>-45</v>
       </c>
-      <c r="F16" s="28">
-        <f t="shared" si="16"/>
+      <c r="F16" s="27">
+        <f t="shared" si="17"/>
         <v>-24</v>
       </c>
-      <c r="G16" s="28">
-        <f t="shared" si="16"/>
+      <c r="G16" s="27">
+        <f t="shared" si="17"/>
         <v>211</v>
       </c>
-      <c r="H16" s="28">
-        <f t="shared" si="16"/>
+      <c r="H16" s="27">
+        <f t="shared" si="17"/>
         <v>107</v>
       </c>
-      <c r="I16" s="28">
-        <f t="shared" si="16"/>
+      <c r="I16" s="27">
+        <f t="shared" si="17"/>
         <v>164</v>
       </c>
-      <c r="J16" s="28">
-        <f t="shared" si="16"/>
+      <c r="J16" s="27">
+        <f t="shared" si="17"/>
         <v>157</v>
       </c>
       <c r="K16" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>90</v>
       </c>
       <c r="L16" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>116</v>
       </c>
       <c r="M16" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>179</v>
       </c>
       <c r="N16" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>144</v>
       </c>
       <c r="O16" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="P16" s="13">
         <f>SUM(P11:P15)</f>
         <v>149</v>
       </c>
-      <c r="U16" s="13">
-        <f t="shared" ref="U16:W16" si="17">SUM(U11:U15)</f>
+      <c r="Q16" s="71">
+        <f t="shared" ref="Q16:S16" si="18">SUM(Q11:Q15)</f>
+        <v>266</v>
+      </c>
+      <c r="R16" s="14">
+        <f t="shared" si="18"/>
+        <v>152</v>
+      </c>
+      <c r="S16" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="W16" s="13">
+        <f t="shared" ref="W16:Y16" si="19">SUM(W11:W15)</f>
         <v>145</v>
       </c>
-      <c r="V16" s="13">
-        <f t="shared" si="17"/>
+      <c r="X16" s="13">
+        <f t="shared" si="19"/>
         <v>205</v>
       </c>
-      <c r="W16" s="13">
-        <f t="shared" si="17"/>
+      <c r="Y16" s="13">
+        <f t="shared" si="19"/>
         <v>66</v>
       </c>
-      <c r="X16" s="13">
-        <f>SUM(X11:X15)</f>
+      <c r="Z16" s="13">
+        <f>SUM(Z11:Z15)</f>
         <v>305</v>
       </c>
-      <c r="Y16" s="13">
-        <f>SUM(Y11:Y15)</f>
+      <c r="AA16" s="13">
+        <f>SUM(AA11:AA15)</f>
         <v>516</v>
       </c>
-      <c r="Z16" s="14">
-        <f>SUM(Z11:Z15)</f>
+      <c r="AB16" s="13">
+        <f>SUM(AB11:AB15)</f>
         <v>537</v>
       </c>
-      <c r="AA16" s="13">
-        <f t="shared" ref="AA16:AK16" si="18">SUM(AA11:AA15)</f>
-        <v>589.96000000000015</v>
-      </c>
-      <c r="AB16" s="13">
-        <f t="shared" si="18"/>
-        <v>591.56280000000027</v>
-      </c>
-      <c r="AC16" s="13">
-        <f t="shared" si="18"/>
-        <v>573.25507200000015</v>
+      <c r="AC16" s="14">
+        <f t="shared" ref="AC16:AM16" si="20">SUM(AC11:AC15)</f>
+        <v>591.62</v>
       </c>
       <c r="AD16" s="13">
-        <f t="shared" si="18"/>
-        <v>556.3135468800001</v>
+        <f t="shared" si="20"/>
+        <v>572.11299999999983</v>
       </c>
       <c r="AE16" s="13">
-        <f t="shared" si="18"/>
-        <v>540.68794715520028</v>
+        <f t="shared" si="20"/>
+        <v>553.02728000000002</v>
       </c>
       <c r="AF16" s="13">
-        <f t="shared" si="18"/>
-        <v>550.32072020140822</v>
+        <f t="shared" si="20"/>
+        <v>535.27664320000008</v>
       </c>
       <c r="AG16" s="13">
-        <f t="shared" si="18"/>
-        <v>560.21885672106453</v>
+        <f t="shared" si="20"/>
+        <v>518.80956732800007</v>
       </c>
       <c r="AH16" s="13">
-        <f t="shared" si="18"/>
-        <v>570.39177177862302</v>
+        <f t="shared" si="20"/>
+        <v>527.56720518112013</v>
       </c>
       <c r="AI16" s="13">
-        <f t="shared" si="18"/>
-        <v>580.84924504637104</v>
+        <f t="shared" si="20"/>
+        <v>536.55520109996473</v>
       </c>
       <c r="AJ16" s="13">
-        <f t="shared" si="18"/>
-        <v>591.60143526879506</v>
+        <f t="shared" si="20"/>
+        <v>545.78156993267942</v>
       </c>
       <c r="AK16" s="13">
-        <f t="shared" si="18"/>
-        <v>602.65889530432173</v>
-      </c>
-    </row>
-    <row r="17" spans="3:142" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>555.25463512658973</v>
+      </c>
+      <c r="AL16" s="13">
+        <f t="shared" si="20"/>
+        <v>564.98304095222261</v>
+      </c>
+      <c r="AM16" s="13">
+        <f t="shared" si="20"/>
+        <v>574.97576521508631</v>
+      </c>
+    </row>
+    <row r="17" spans="3:144" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>-5</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>6</v>
       </c>
-      <c r="F17" s="29">
-        <v>0</v>
-      </c>
-      <c r="G17" s="29">
+      <c r="F17" s="28">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28">
         <v>-14</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="28">
         <v>-6</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <v>-6</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="28">
         <v>-5</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="20">
         <v>-11</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="20">
         <v>-2</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="20">
         <v>-7</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="20">
         <v>-7</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="20">
         <v>-4</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="2">
         <v>-12</v>
       </c>
-      <c r="U17" s="2">
+      <c r="Q17" s="68">
+        <v>-8</v>
+      </c>
+      <c r="R17" s="4">
+        <v>-3</v>
+      </c>
+      <c r="W17" s="2">
         <v>-15</v>
       </c>
-      <c r="V17" s="2">
+      <c r="X17" s="2">
         <v>-27</v>
       </c>
-      <c r="W17" s="2">
+      <c r="Y17" s="2">
         <v>-13</v>
       </c>
-      <c r="X17" s="13">
+      <c r="Z17" s="13">
         <v>-13</v>
       </c>
-      <c r="Y17" s="13">
+      <c r="AA17" s="13">
         <v>-27</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="AB17" s="13">
         <v>-20</v>
       </c>
-      <c r="AA17" s="21">
-        <f>AA16*-0.05</f>
-        <v>-29.498000000000008</v>
-      </c>
-      <c r="AB17" s="21">
-        <f t="shared" ref="AB17:AK17" si="19">AB16*-0.05</f>
-        <v>-29.578140000000015</v>
-      </c>
-      <c r="AC17" s="21">
-        <f t="shared" si="19"/>
-        <v>-28.662753600000009</v>
-      </c>
-      <c r="AD17" s="21">
-        <f t="shared" si="19"/>
-        <v>-27.815677344000008</v>
-      </c>
-      <c r="AE17" s="21">
-        <f t="shared" si="19"/>
-        <v>-27.034397357760014</v>
-      </c>
-      <c r="AF17" s="21">
-        <f t="shared" si="19"/>
-        <v>-27.516036010070412</v>
-      </c>
-      <c r="AG17" s="21">
-        <f t="shared" si="19"/>
-        <v>-28.010942836053228</v>
-      </c>
-      <c r="AH17" s="21">
-        <f t="shared" si="19"/>
-        <v>-28.519588588931153</v>
-      </c>
-      <c r="AI17" s="21">
-        <f t="shared" si="19"/>
-        <v>-29.042462252318554</v>
-      </c>
-      <c r="AJ17" s="21">
-        <f t="shared" si="19"/>
-        <v>-29.580071763439754</v>
-      </c>
-      <c r="AK17" s="21">
-        <f t="shared" si="19"/>
-        <v>-30.132944765216088</v>
-      </c>
-    </row>
-    <row r="18" spans="3:142" x14ac:dyDescent="0.25">
+      <c r="AC17" s="64">
+        <f>AC16*-0.05</f>
+        <v>-29.581000000000003</v>
+      </c>
+      <c r="AD17" s="20">
+        <f t="shared" ref="AD17:AM17" si="21">AD16*-0.05</f>
+        <v>-28.605649999999994</v>
+      </c>
+      <c r="AE17" s="20">
+        <f t="shared" si="21"/>
+        <v>-27.651364000000001</v>
+      </c>
+      <c r="AF17" s="20">
+        <f t="shared" si="21"/>
+        <v>-26.763832160000007</v>
+      </c>
+      <c r="AG17" s="20">
+        <f t="shared" si="21"/>
+        <v>-25.940478366400004</v>
+      </c>
+      <c r="AH17" s="20">
+        <f t="shared" si="21"/>
+        <v>-26.378360259056009</v>
+      </c>
+      <c r="AI17" s="20">
+        <f t="shared" si="21"/>
+        <v>-26.827760054998237</v>
+      </c>
+      <c r="AJ17" s="20">
+        <f t="shared" si="21"/>
+        <v>-27.289078496633973</v>
+      </c>
+      <c r="AK17" s="20">
+        <f t="shared" si="21"/>
+        <v>-27.762731756329487</v>
+      </c>
+      <c r="AL17" s="20">
+        <f t="shared" si="21"/>
+        <v>-28.249152047611133</v>
+      </c>
+      <c r="AM17" s="20">
+        <f t="shared" si="21"/>
+        <v>-28.748788260754317</v>
+      </c>
+    </row>
+    <row r="18" spans="3:144" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="30">
-        <f t="shared" ref="D18:P18" si="20">SUM(D16:D17)</f>
+      <c r="D18" s="29">
+        <f t="shared" ref="D18:S18" si="22">SUM(D16:D17)</f>
         <v>160</v>
       </c>
-      <c r="E18" s="30">
-        <f t="shared" si="20"/>
+      <c r="E18" s="29">
+        <f t="shared" si="22"/>
         <v>-39</v>
       </c>
-      <c r="F18" s="30">
-        <f t="shared" si="20"/>
+      <c r="F18" s="29">
+        <f t="shared" si="22"/>
         <v>-24</v>
       </c>
-      <c r="G18" s="30">
-        <f t="shared" si="20"/>
+      <c r="G18" s="29">
+        <f t="shared" si="22"/>
         <v>197</v>
       </c>
-      <c r="H18" s="30">
-        <f t="shared" si="20"/>
+      <c r="H18" s="29">
+        <f t="shared" si="22"/>
         <v>101</v>
       </c>
-      <c r="I18" s="30">
-        <f t="shared" si="20"/>
+      <c r="I18" s="29">
+        <f t="shared" si="22"/>
         <v>158</v>
       </c>
-      <c r="J18" s="30">
-        <f t="shared" si="20"/>
+      <c r="J18" s="29">
+        <f t="shared" si="22"/>
         <v>152</v>
       </c>
-      <c r="K18" s="22">
-        <f t="shared" si="20"/>
+      <c r="K18" s="21">
+        <f t="shared" si="22"/>
         <v>79</v>
       </c>
-      <c r="L18" s="22">
-        <f t="shared" si="20"/>
+      <c r="L18" s="21">
+        <f t="shared" si="22"/>
         <v>114</v>
       </c>
-      <c r="M18" s="22">
-        <f t="shared" si="20"/>
+      <c r="M18" s="21">
+        <f t="shared" si="22"/>
         <v>172</v>
       </c>
-      <c r="N18" s="22">
-        <f t="shared" si="20"/>
+      <c r="N18" s="21">
+        <f t="shared" si="22"/>
         <v>137</v>
       </c>
-      <c r="O18" s="22">
-        <f t="shared" si="20"/>
+      <c r="O18" s="21">
+        <f t="shared" si="22"/>
         <v>96</v>
       </c>
-      <c r="P18" s="22">
-        <f t="shared" si="20"/>
+      <c r="P18" s="21">
+        <f t="shared" si="22"/>
         <v>137</v>
       </c>
-      <c r="U18" s="19">
-        <f t="shared" ref="U18:X18" si="21">SUM(U16:U17)</f>
+      <c r="Q18" s="72">
+        <f t="shared" si="22"/>
+        <v>258</v>
+      </c>
+      <c r="R18" s="65">
+        <f t="shared" si="22"/>
+        <v>149</v>
+      </c>
+      <c r="S18" s="21">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="W18" s="18">
+        <f t="shared" ref="W18:Z18" si="23">SUM(W16:W17)</f>
         <v>130</v>
       </c>
-      <c r="V18" s="19">
-        <f t="shared" si="21"/>
+      <c r="X18" s="18">
+        <f t="shared" si="23"/>
         <v>178</v>
       </c>
-      <c r="W18" s="19">
-        <f t="shared" si="21"/>
+      <c r="Y18" s="18">
+        <f t="shared" si="23"/>
         <v>53</v>
       </c>
-      <c r="X18" s="19">
-        <f t="shared" si="21"/>
+      <c r="Z18" s="18">
+        <f t="shared" si="23"/>
         <v>292</v>
       </c>
-      <c r="Y18" s="19">
-        <f>SUM(Y16:Y17)</f>
+      <c r="AA18" s="18">
+        <f>SUM(AA16:AA17)</f>
         <v>489</v>
       </c>
-      <c r="Z18" s="12">
-        <f>SUM(Z16:Z17)</f>
+      <c r="AB18" s="18">
+        <f>SUM(AB16:AB17)</f>
         <v>517</v>
       </c>
-      <c r="AA18" s="19">
-        <f t="shared" ref="AA18:AK18" si="22">SUM(AA16:AA17)</f>
-        <v>560.4620000000001</v>
-      </c>
-      <c r="AB18" s="19">
-        <f t="shared" si="22"/>
-        <v>561.9846600000003</v>
-      </c>
-      <c r="AC18" s="19">
-        <f t="shared" si="22"/>
-        <v>544.59231840000018</v>
-      </c>
-      <c r="AD18" s="19">
-        <f t="shared" si="22"/>
-        <v>528.49786953600005</v>
-      </c>
-      <c r="AE18" s="19">
-        <f t="shared" si="22"/>
-        <v>513.65354979744029</v>
-      </c>
-      <c r="AF18" s="19">
-        <f t="shared" si="22"/>
-        <v>522.80468419133786</v>
-      </c>
-      <c r="AG18" s="19">
-        <f t="shared" si="22"/>
-        <v>532.20791388501129</v>
-      </c>
-      <c r="AH18" s="19">
-        <f t="shared" si="22"/>
-        <v>541.8721831896919</v>
-      </c>
-      <c r="AI18" s="19">
-        <f t="shared" si="22"/>
-        <v>551.80678279405254</v>
-      </c>
-      <c r="AJ18" s="19">
-        <f t="shared" si="22"/>
-        <v>562.02136350535534</v>
-      </c>
-      <c r="AK18" s="19">
-        <f t="shared" si="22"/>
-        <v>572.52595053910568</v>
-      </c>
-      <c r="AL18" s="22">
-        <f>AK18*(1+$AN$21)</f>
-        <v>566.80069103371466</v>
-      </c>
-      <c r="AM18" s="22">
-        <f t="shared" ref="AM18:CX18" si="23">AL18*(1+$AN$21)</f>
-        <v>561.13268412337754</v>
-      </c>
-      <c r="AN18" s="22">
-        <f t="shared" si="23"/>
-        <v>555.52135728214375</v>
-      </c>
-      <c r="AO18" s="22">
-        <f t="shared" si="23"/>
-        <v>549.9661437093223</v>
-      </c>
-      <c r="AP18" s="22">
-        <f t="shared" si="23"/>
-        <v>544.46648227222909</v>
-      </c>
-      <c r="AQ18" s="22">
-        <f t="shared" si="23"/>
-        <v>539.02181744950678</v>
-      </c>
-      <c r="AR18" s="22">
-        <f t="shared" si="23"/>
-        <v>533.63159927501169</v>
-      </c>
-      <c r="AS18" s="22">
-        <f t="shared" si="23"/>
-        <v>528.29528328226161</v>
-      </c>
-      <c r="AT18" s="22">
-        <f t="shared" si="23"/>
-        <v>523.01233044943899</v>
-      </c>
-      <c r="AU18" s="22">
-        <f t="shared" si="23"/>
-        <v>517.78220714494455</v>
-      </c>
-      <c r="AV18" s="22">
-        <f t="shared" si="23"/>
-        <v>512.60438507349511</v>
-      </c>
-      <c r="AW18" s="22">
-        <f t="shared" si="23"/>
-        <v>507.47834122276015</v>
-      </c>
-      <c r="AX18" s="22">
-        <f t="shared" si="23"/>
-        <v>502.40355781053256</v>
-      </c>
-      <c r="AY18" s="22">
-        <f t="shared" si="23"/>
-        <v>497.37952223242723</v>
-      </c>
-      <c r="AZ18" s="22">
-        <f t="shared" si="23"/>
-        <v>492.40572701010296</v>
-      </c>
-      <c r="BA18" s="22">
-        <f t="shared" si="23"/>
-        <v>487.48166974000191</v>
-      </c>
-      <c r="BB18" s="22">
-        <f t="shared" si="23"/>
-        <v>482.60685304260187</v>
-      </c>
-      <c r="BC18" s="22">
-        <f t="shared" si="23"/>
-        <v>477.78078451217584</v>
-      </c>
-      <c r="BD18" s="22">
-        <f t="shared" si="23"/>
-        <v>473.0029766670541</v>
-      </c>
-      <c r="BE18" s="22">
-        <f t="shared" si="23"/>
-        <v>468.27294690038354</v>
-      </c>
-      <c r="BF18" s="22">
-        <f t="shared" si="23"/>
-        <v>463.5902174313797</v>
-      </c>
-      <c r="BG18" s="22">
-        <f t="shared" si="23"/>
-        <v>458.9543152570659</v>
-      </c>
-      <c r="BH18" s="22">
-        <f t="shared" si="23"/>
-        <v>454.36477210449522</v>
-      </c>
-      <c r="BI18" s="22">
-        <f t="shared" si="23"/>
-        <v>449.82112438345024</v>
-      </c>
-      <c r="BJ18" s="22">
-        <f t="shared" si="23"/>
-        <v>445.32291313961571</v>
-      </c>
-      <c r="BK18" s="22">
-        <f t="shared" si="23"/>
-        <v>440.86968400821956</v>
-      </c>
-      <c r="BL18" s="22">
-        <f t="shared" si="23"/>
-        <v>436.46098716813736</v>
-      </c>
-      <c r="BM18" s="22">
-        <f t="shared" si="23"/>
-        <v>432.09637729645601</v>
-      </c>
-      <c r="BN18" s="22">
-        <f t="shared" si="23"/>
-        <v>427.77541352349147</v>
-      </c>
-      <c r="BO18" s="22">
-        <f t="shared" si="23"/>
-        <v>423.49765938825652</v>
-      </c>
-      <c r="BP18" s="22">
-        <f t="shared" si="23"/>
-        <v>419.26268279437397</v>
-      </c>
-      <c r="BQ18" s="22">
-        <f t="shared" si="23"/>
-        <v>415.07005596643023</v>
-      </c>
-      <c r="BR18" s="22">
-        <f t="shared" si="23"/>
-        <v>410.91935540676593</v>
-      </c>
-      <c r="BS18" s="22">
-        <f t="shared" si="23"/>
-        <v>406.81016185269829</v>
-      </c>
-      <c r="BT18" s="22">
-        <f t="shared" si="23"/>
-        <v>402.74206023417128</v>
-      </c>
-      <c r="BU18" s="22">
-        <f t="shared" si="23"/>
-        <v>398.71463963182958</v>
-      </c>
-      <c r="BV18" s="22">
-        <f t="shared" si="23"/>
-        <v>394.7274932355113</v>
-      </c>
-      <c r="BW18" s="22">
-        <f t="shared" si="23"/>
-        <v>390.78021830315618</v>
-      </c>
-      <c r="BX18" s="22">
-        <f t="shared" si="23"/>
-        <v>386.87241612012463</v>
-      </c>
-      <c r="BY18" s="22">
-        <f t="shared" si="23"/>
-        <v>383.00369195892335</v>
-      </c>
-      <c r="BZ18" s="22">
-        <f t="shared" si="23"/>
-        <v>379.17365503933411</v>
-      </c>
-      <c r="CA18" s="22">
-        <f t="shared" si="23"/>
-        <v>375.38191848894076</v>
-      </c>
-      <c r="CB18" s="22">
-        <f t="shared" si="23"/>
-        <v>371.62809930405132</v>
-      </c>
-      <c r="CC18" s="22">
-        <f t="shared" si="23"/>
-        <v>367.91181831101079</v>
-      </c>
-      <c r="CD18" s="22">
-        <f t="shared" si="23"/>
-        <v>364.23270012790067</v>
-      </c>
-      <c r="CE18" s="22">
-        <f t="shared" si="23"/>
-        <v>360.59037312662167</v>
-      </c>
-      <c r="CF18" s="22">
-        <f t="shared" si="23"/>
-        <v>356.98446939535546</v>
-      </c>
-      <c r="CG18" s="22">
-        <f t="shared" si="23"/>
-        <v>353.41462470140192</v>
-      </c>
-      <c r="CH18" s="22">
-        <f t="shared" si="23"/>
-        <v>349.88047845438791</v>
-      </c>
-      <c r="CI18" s="22">
-        <f t="shared" si="23"/>
-        <v>346.38167366984402</v>
-      </c>
-      <c r="CJ18" s="22">
-        <f t="shared" si="23"/>
-        <v>342.91785693314557</v>
-      </c>
-      <c r="CK18" s="22">
-        <f t="shared" si="23"/>
-        <v>339.48867836381413</v>
-      </c>
-      <c r="CL18" s="22">
-        <f t="shared" si="23"/>
-        <v>336.093791580176</v>
-      </c>
-      <c r="CM18" s="22">
-        <f t="shared" si="23"/>
-        <v>332.73285366437426</v>
-      </c>
-      <c r="CN18" s="22">
-        <f t="shared" si="23"/>
-        <v>329.40552512773053</v>
-      </c>
-      <c r="CO18" s="22">
-        <f t="shared" si="23"/>
-        <v>326.11146987645321</v>
-      </c>
-      <c r="CP18" s="22">
-        <f t="shared" si="23"/>
-        <v>322.8503551776887</v>
-      </c>
-      <c r="CQ18" s="22">
-        <f t="shared" si="23"/>
-        <v>319.6218516259118</v>
-      </c>
-      <c r="CR18" s="22">
-        <f t="shared" si="23"/>
-        <v>316.42563310965267</v>
-      </c>
-      <c r="CS18" s="22">
-        <f t="shared" si="23"/>
-        <v>313.26137677855615</v>
-      </c>
-      <c r="CT18" s="22">
-        <f t="shared" si="23"/>
-        <v>310.12876301077057</v>
-      </c>
-      <c r="CU18" s="22">
-        <f t="shared" si="23"/>
-        <v>307.02747538066285</v>
-      </c>
-      <c r="CV18" s="22">
-        <f t="shared" si="23"/>
-        <v>303.95720062685621</v>
-      </c>
-      <c r="CW18" s="22">
-        <f t="shared" si="23"/>
-        <v>300.91762862058766</v>
-      </c>
-      <c r="CX18" s="22">
-        <f t="shared" si="23"/>
-        <v>297.90845233438176</v>
-      </c>
-      <c r="CY18" s="22">
-        <f t="shared" ref="CY18:EL18" si="24">CX18*(1+$AN$21)</f>
-        <v>294.92936781103793</v>
-      </c>
-      <c r="CZ18" s="22">
+      <c r="AC18" s="12">
+        <f t="shared" ref="AC18:AM18" si="24">SUM(AC16:AC17)</f>
+        <v>562.03899999999999</v>
+      </c>
+      <c r="AD18" s="18">
         <f t="shared" si="24"/>
-        <v>291.98007413292754</v>
-      </c>
-      <c r="DA18" s="22">
+        <v>543.50734999999986</v>
+      </c>
+      <c r="AE18" s="18">
         <f t="shared" si="24"/>
-        <v>289.06027339159829</v>
-      </c>
-      <c r="DB18" s="22">
+        <v>525.37591599999996</v>
+      </c>
+      <c r="AF18" s="18">
         <f t="shared" si="24"/>
-        <v>286.16967065768227</v>
-      </c>
-      <c r="DC18" s="22">
+        <v>508.51281104000009</v>
+      </c>
+      <c r="AG18" s="18">
         <f t="shared" si="24"/>
-        <v>283.30797395110545</v>
-      </c>
-      <c r="DD18" s="22">
+        <v>492.86908896160008</v>
+      </c>
+      <c r="AH18" s="18">
         <f t="shared" si="24"/>
-        <v>280.4748942115944</v>
-      </c>
-      <c r="DE18" s="22">
+        <v>501.18884492206411</v>
+      </c>
+      <c r="AI18" s="18">
         <f t="shared" si="24"/>
-        <v>277.67014526947844</v>
-      </c>
-      <c r="DF18" s="22">
+        <v>509.7274410449665</v>
+      </c>
+      <c r="AJ18" s="18">
         <f t="shared" si="24"/>
-        <v>274.89344381678364</v>
-      </c>
-      <c r="DG18" s="22">
+        <v>518.4924914360455</v>
+      </c>
+      <c r="AK18" s="18">
         <f t="shared" si="24"/>
-        <v>272.14450937861579</v>
-      </c>
-      <c r="DH18" s="22">
+        <v>527.49190337026027</v>
+      </c>
+      <c r="AL18" s="18">
         <f t="shared" si="24"/>
-        <v>269.42306428482965</v>
-      </c>
-      <c r="DI18" s="22">
+        <v>536.73388890461149</v>
+      </c>
+      <c r="AM18" s="18">
         <f t="shared" si="24"/>
-        <v>266.72883364198134</v>
-      </c>
-      <c r="DJ18" s="22">
-        <f t="shared" si="24"/>
-        <v>264.06154530556154</v>
-      </c>
-      <c r="DK18" s="22">
-        <f t="shared" si="24"/>
-        <v>261.42092985250594</v>
-      </c>
-      <c r="DL18" s="22">
-        <f t="shared" si="24"/>
-        <v>258.80672055398088</v>
-      </c>
-      <c r="DM18" s="22">
-        <f t="shared" si="24"/>
-        <v>256.21865334844108</v>
-      </c>
-      <c r="DN18" s="22">
-        <f t="shared" si="24"/>
-        <v>253.65646681495667</v>
-      </c>
-      <c r="DO18" s="22">
-        <f t="shared" si="24"/>
-        <v>251.11990214680711</v>
-      </c>
-      <c r="DP18" s="22">
-        <f t="shared" si="24"/>
-        <v>248.60870312533902</v>
-      </c>
-      <c r="DQ18" s="22">
-        <f t="shared" si="24"/>
-        <v>246.12261609408563</v>
-      </c>
-      <c r="DR18" s="22">
-        <f t="shared" si="24"/>
-        <v>243.66138993314476</v>
-      </c>
-      <c r="DS18" s="22">
-        <f t="shared" si="24"/>
-        <v>241.2247760338133</v>
-      </c>
-      <c r="DT18" s="22">
-        <f t="shared" si="24"/>
-        <v>238.81252827347515</v>
-      </c>
-      <c r="DU18" s="22">
-        <f t="shared" si="24"/>
-        <v>236.42440299074039</v>
-      </c>
-      <c r="DV18" s="22">
-        <f t="shared" si="24"/>
-        <v>234.06015896083298</v>
-      </c>
-      <c r="DW18" s="22">
-        <f t="shared" si="24"/>
-        <v>231.71955737122465</v>
-      </c>
-      <c r="DX18" s="22">
-        <f t="shared" si="24"/>
-        <v>229.40236179751241</v>
-      </c>
-      <c r="DY18" s="22">
-        <f t="shared" si="24"/>
-        <v>227.1083381795373</v>
-      </c>
-      <c r="DZ18" s="22">
-        <f t="shared" si="24"/>
-        <v>224.83725479774193</v>
-      </c>
-      <c r="EA18" s="22">
-        <f t="shared" si="24"/>
-        <v>222.58888224976451</v>
-      </c>
-      <c r="EB18" s="22">
-        <f t="shared" si="24"/>
-        <v>220.36299342726687</v>
-      </c>
-      <c r="EC18" s="22">
-        <f t="shared" si="24"/>
-        <v>218.1593634929942</v>
-      </c>
-      <c r="ED18" s="22">
-        <f t="shared" si="24"/>
-        <v>215.97776985806425</v>
-      </c>
-      <c r="EE18" s="22">
-        <f t="shared" si="24"/>
-        <v>213.81799215948359</v>
-      </c>
-      <c r="EF18" s="22">
-        <f t="shared" si="24"/>
-        <v>211.67981223788877</v>
-      </c>
-      <c r="EG18" s="22">
-        <f t="shared" si="24"/>
-        <v>209.56301411550987</v>
-      </c>
-      <c r="EH18" s="22">
-        <f t="shared" si="24"/>
-        <v>207.46738397435476</v>
-      </c>
-      <c r="EI18" s="22">
-        <f t="shared" si="24"/>
-        <v>205.39271013461121</v>
-      </c>
-      <c r="EJ18" s="22">
-        <f t="shared" si="24"/>
-        <v>203.33878303326509</v>
-      </c>
-      <c r="EK18" s="22">
-        <f t="shared" si="24"/>
-        <v>201.30539520293243</v>
-      </c>
-      <c r="EL18" s="22">
-        <f t="shared" si="24"/>
-        <v>199.29234125090309</v>
-      </c>
-    </row>
-    <row r="19" spans="3:142" x14ac:dyDescent="0.25">
+        <v>546.22697695433203</v>
+      </c>
+      <c r="AN18" s="21">
+        <f>AM18*(1+$AP$21)</f>
+        <v>540.76470718478868</v>
+      </c>
+      <c r="AO18" s="21">
+        <f t="shared" ref="AO18:CZ18" si="25">AN18*(1+$AP$21)</f>
+        <v>535.35706011294076</v>
+      </c>
+      <c r="AP18" s="21">
+        <f t="shared" si="25"/>
+        <v>530.00348951181138</v>
+      </c>
+      <c r="AQ18" s="21">
+        <f t="shared" si="25"/>
+        <v>524.70345461669331</v>
+      </c>
+      <c r="AR18" s="21">
+        <f t="shared" si="25"/>
+        <v>519.45642007052641</v>
+      </c>
+      <c r="AS18" s="21">
+        <f t="shared" si="25"/>
+        <v>514.26185586982115</v>
+      </c>
+      <c r="AT18" s="21">
+        <f t="shared" si="25"/>
+        <v>509.11923731112296</v>
+      </c>
+      <c r="AU18" s="21">
+        <f t="shared" si="25"/>
+        <v>504.0280449380117</v>
+      </c>
+      <c r="AV18" s="21">
+        <f t="shared" si="25"/>
+        <v>498.98776448863157</v>
+      </c>
+      <c r="AW18" s="21">
+        <f t="shared" si="25"/>
+        <v>493.99788684374528</v>
+      </c>
+      <c r="AX18" s="21">
+        <f t="shared" si="25"/>
+        <v>489.05790797530784</v>
+      </c>
+      <c r="AY18" s="21">
+        <f t="shared" si="25"/>
+        <v>484.16732889555476</v>
+      </c>
+      <c r="AZ18" s="21">
+        <f t="shared" si="25"/>
+        <v>479.32565560659918</v>
+      </c>
+      <c r="BA18" s="21">
+        <f t="shared" si="25"/>
+        <v>474.53239905053317</v>
+      </c>
+      <c r="BB18" s="21">
+        <f t="shared" si="25"/>
+        <v>469.78707506002786</v>
+      </c>
+      <c r="BC18" s="21">
+        <f t="shared" si="25"/>
+        <v>465.0892043094276</v>
+      </c>
+      <c r="BD18" s="21">
+        <f t="shared" si="25"/>
+        <v>460.4383122663333</v>
+      </c>
+      <c r="BE18" s="21">
+        <f t="shared" si="25"/>
+        <v>455.83392914366993</v>
+      </c>
+      <c r="BF18" s="21">
+        <f t="shared" si="25"/>
+        <v>451.27558985223322</v>
+      </c>
+      <c r="BG18" s="21">
+        <f t="shared" si="25"/>
+        <v>446.76283395371087</v>
+      </c>
+      <c r="BH18" s="21">
+        <f t="shared" si="25"/>
+        <v>442.29520561417377</v>
+      </c>
+      <c r="BI18" s="21">
+        <f t="shared" si="25"/>
+        <v>437.87225355803201</v>
+      </c>
+      <c r="BJ18" s="21">
+        <f t="shared" si="25"/>
+        <v>433.49353102245169</v>
+      </c>
+      <c r="BK18" s="21">
+        <f t="shared" si="25"/>
+        <v>429.15859571222717</v>
+      </c>
+      <c r="BL18" s="21">
+        <f t="shared" si="25"/>
+        <v>424.8670097551049</v>
+      </c>
+      <c r="BM18" s="21">
+        <f t="shared" si="25"/>
+        <v>420.61833965755386</v>
+      </c>
+      <c r="BN18" s="21">
+        <f t="shared" si="25"/>
+        <v>416.41215626097829</v>
+      </c>
+      <c r="BO18" s="21">
+        <f t="shared" si="25"/>
+        <v>412.24803469836849</v>
+      </c>
+      <c r="BP18" s="21">
+        <f t="shared" si="25"/>
+        <v>408.12555435138478</v>
+      </c>
+      <c r="BQ18" s="21">
+        <f t="shared" si="25"/>
+        <v>404.04429880787092</v>
+      </c>
+      <c r="BR18" s="21">
+        <f t="shared" si="25"/>
+        <v>400.00385581979219</v>
+      </c>
+      <c r="BS18" s="21">
+        <f t="shared" si="25"/>
+        <v>396.00381726159429</v>
+      </c>
+      <c r="BT18" s="21">
+        <f t="shared" si="25"/>
+        <v>392.04377908897834</v>
+      </c>
+      <c r="BU18" s="21">
+        <f t="shared" si="25"/>
+        <v>388.12334129808858</v>
+      </c>
+      <c r="BV18" s="21">
+        <f t="shared" si="25"/>
+        <v>384.24210788510771</v>
+      </c>
+      <c r="BW18" s="21">
+        <f t="shared" si="25"/>
+        <v>380.39968680625663</v>
+      </c>
+      <c r="BX18" s="21">
+        <f t="shared" si="25"/>
+        <v>376.59568993819403</v>
+      </c>
+      <c r="BY18" s="21">
+        <f t="shared" si="25"/>
+        <v>372.82973303881209</v>
+      </c>
+      <c r="BZ18" s="21">
+        <f t="shared" si="25"/>
+        <v>369.10143570842399</v>
+      </c>
+      <c r="CA18" s="21">
+        <f t="shared" si="25"/>
+        <v>365.41042135133972</v>
+      </c>
+      <c r="CB18" s="21">
+        <f t="shared" si="25"/>
+        <v>361.75631713782633</v>
+      </c>
+      <c r="CC18" s="21">
+        <f t="shared" si="25"/>
+        <v>358.13875396644806</v>
+      </c>
+      <c r="CD18" s="21">
+        <f t="shared" si="25"/>
+        <v>354.55736642678357</v>
+      </c>
+      <c r="CE18" s="21">
+        <f t="shared" si="25"/>
+        <v>351.01179276251571</v>
+      </c>
+      <c r="CF18" s="21">
+        <f t="shared" si="25"/>
+        <v>347.50167483489054</v>
+      </c>
+      <c r="CG18" s="21">
+        <f t="shared" si="25"/>
+        <v>344.0266580865416</v>
+      </c>
+      <c r="CH18" s="21">
+        <f t="shared" si="25"/>
+        <v>340.5863915056762</v>
+      </c>
+      <c r="CI18" s="21">
+        <f t="shared" si="25"/>
+        <v>337.18052759061942</v>
+      </c>
+      <c r="CJ18" s="21">
+        <f t="shared" si="25"/>
+        <v>333.80872231471324</v>
+      </c>
+      <c r="CK18" s="21">
+        <f t="shared" si="25"/>
+        <v>330.47063509156612</v>
+      </c>
+      <c r="CL18" s="21">
+        <f t="shared" si="25"/>
+        <v>327.16592874065049</v>
+      </c>
+      <c r="CM18" s="21">
+        <f t="shared" si="25"/>
+        <v>323.89426945324396</v>
+      </c>
+      <c r="CN18" s="21">
+        <f t="shared" si="25"/>
+        <v>320.65532675871151</v>
+      </c>
+      <c r="CO18" s="21">
+        <f t="shared" si="25"/>
+        <v>317.44877349112437</v>
+      </c>
+      <c r="CP18" s="21">
+        <f t="shared" si="25"/>
+        <v>314.27428575621315</v>
+      </c>
+      <c r="CQ18" s="21">
+        <f t="shared" si="25"/>
+        <v>311.13154289865099</v>
+      </c>
+      <c r="CR18" s="21">
+        <f t="shared" si="25"/>
+        <v>308.02022746966446</v>
+      </c>
+      <c r="CS18" s="21">
+        <f t="shared" si="25"/>
+        <v>304.9400251949678</v>
+      </c>
+      <c r="CT18" s="21">
+        <f t="shared" si="25"/>
+        <v>301.89062494301811</v>
+      </c>
+      <c r="CU18" s="21">
+        <f t="shared" si="25"/>
+        <v>298.87171869358792</v>
+      </c>
+      <c r="CV18" s="21">
+        <f t="shared" si="25"/>
+        <v>295.88300150665202</v>
+      </c>
+      <c r="CW18" s="21">
+        <f t="shared" si="25"/>
+        <v>292.92417149158553</v>
+      </c>
+      <c r="CX18" s="21">
+        <f t="shared" si="25"/>
+        <v>289.99492977666966</v>
+      </c>
+      <c r="CY18" s="21">
+        <f t="shared" si="25"/>
+        <v>287.09498047890298</v>
+      </c>
+      <c r="CZ18" s="21">
+        <f t="shared" si="25"/>
+        <v>284.22403067411398</v>
+      </c>
+      <c r="DA18" s="21">
+        <f t="shared" ref="DA18:EN18" si="26">CZ18*(1+$AP$21)</f>
+        <v>281.38179036737284</v>
+      </c>
+      <c r="DB18" s="21">
+        <f t="shared" si="26"/>
+        <v>278.56797246369911</v>
+      </c>
+      <c r="DC18" s="21">
+        <f t="shared" si="26"/>
+        <v>275.78229273906209</v>
+      </c>
+      <c r="DD18" s="21">
+        <f t="shared" si="26"/>
+        <v>273.02446981167145</v>
+      </c>
+      <c r="DE18" s="21">
+        <f t="shared" si="26"/>
+        <v>270.29422511355472</v>
+      </c>
+      <c r="DF18" s="21">
+        <f t="shared" si="26"/>
+        <v>267.59128286241918</v>
+      </c>
+      <c r="DG18" s="21">
+        <f t="shared" si="26"/>
+        <v>264.915370033795</v>
+      </c>
+      <c r="DH18" s="21">
+        <f t="shared" si="26"/>
+        <v>262.26621633345707</v>
+      </c>
+      <c r="DI18" s="21">
+        <f t="shared" si="26"/>
+        <v>259.64355417012251</v>
+      </c>
+      <c r="DJ18" s="21">
+        <f t="shared" si="26"/>
+        <v>257.04711862842129</v>
+      </c>
+      <c r="DK18" s="21">
+        <f t="shared" si="26"/>
+        <v>254.47664744213708</v>
+      </c>
+      <c r="DL18" s="21">
+        <f t="shared" si="26"/>
+        <v>251.9318809677157</v>
+      </c>
+      <c r="DM18" s="21">
+        <f t="shared" si="26"/>
+        <v>249.41256215803855</v>
+      </c>
+      <c r="DN18" s="21">
+        <f t="shared" si="26"/>
+        <v>246.91843653645816</v>
+      </c>
+      <c r="DO18" s="21">
+        <f t="shared" si="26"/>
+        <v>244.44925217109358</v>
+      </c>
+      <c r="DP18" s="21">
+        <f t="shared" si="26"/>
+        <v>242.00475964938263</v>
+      </c>
+      <c r="DQ18" s="21">
+        <f t="shared" si="26"/>
+        <v>239.58471205288882</v>
+      </c>
+      <c r="DR18" s="21">
+        <f t="shared" si="26"/>
+        <v>237.18886493235993</v>
+      </c>
+      <c r="DS18" s="21">
+        <f t="shared" si="26"/>
+        <v>234.81697628303633</v>
+      </c>
+      <c r="DT18" s="21">
+        <f t="shared" si="26"/>
+        <v>232.46880652020596</v>
+      </c>
+      <c r="DU18" s="21">
+        <f t="shared" si="26"/>
+        <v>230.14411845500391</v>
+      </c>
+      <c r="DV18" s="21">
+        <f t="shared" si="26"/>
+        <v>227.84267727045386</v>
+      </c>
+      <c r="DW18" s="21">
+        <f t="shared" si="26"/>
+        <v>225.56425049774933</v>
+      </c>
+      <c r="DX18" s="21">
+        <f t="shared" si="26"/>
+        <v>223.30860799277184</v>
+      </c>
+      <c r="DY18" s="21">
+        <f t="shared" si="26"/>
+        <v>221.07552191284412</v>
+      </c>
+      <c r="DZ18" s="21">
+        <f t="shared" si="26"/>
+        <v>218.86476669371569</v>
+      </c>
+      <c r="EA18" s="21">
+        <f t="shared" si="26"/>
+        <v>216.67611902677854</v>
+      </c>
+      <c r="EB18" s="21">
+        <f t="shared" si="26"/>
+        <v>214.50935783651076</v>
+      </c>
+      <c r="EC18" s="21">
+        <f t="shared" si="26"/>
+        <v>212.36426425814565</v>
+      </c>
+      <c r="ED18" s="21">
+        <f t="shared" si="26"/>
+        <v>210.24062161556421</v>
+      </c>
+      <c r="EE18" s="21">
+        <f t="shared" si="26"/>
+        <v>208.13821539940855</v>
+      </c>
+      <c r="EF18" s="21">
+        <f t="shared" si="26"/>
+        <v>206.05683324541445</v>
+      </c>
+      <c r="EG18" s="21">
+        <f t="shared" si="26"/>
+        <v>203.9962649129603</v>
+      </c>
+      <c r="EH18" s="21">
+        <f t="shared" si="26"/>
+        <v>201.95630226383071</v>
+      </c>
+      <c r="EI18" s="21">
+        <f t="shared" si="26"/>
+        <v>199.93673924119238</v>
+      </c>
+      <c r="EJ18" s="21">
+        <f t="shared" si="26"/>
+        <v>197.93737184878046</v>
+      </c>
+      <c r="EK18" s="21">
+        <f t="shared" si="26"/>
+        <v>195.95799813029265</v>
+      </c>
+      <c r="EL18" s="21">
+        <f t="shared" si="26"/>
+        <v>193.99841814898971</v>
+      </c>
+      <c r="EM18" s="21">
+        <f t="shared" si="26"/>
+        <v>192.05843396749981</v>
+      </c>
+      <c r="EN18" s="21">
+        <f t="shared" si="26"/>
+        <v>190.13784962782481</v>
+      </c>
+    </row>
+    <row r="19" spans="3:144" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="31">
+        <v>86</v>
+      </c>
+      <c r="D19" s="30">
         <v>19.07</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <v>19.07</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="30">
         <v>19.07</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="30">
         <v>19.07</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="30">
         <v>19.07</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="30">
         <v>19.07</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="30">
         <v>19.07</v>
       </c>
-      <c r="K19" s="23">
-        <f t="shared" ref="K19:P19" si="25">(K18/K20)*$B$11</f>
-        <v>18.784208165096459</v>
-      </c>
-      <c r="L19" s="23">
-        <f t="shared" si="25"/>
-        <v>27.106325706594887</v>
-      </c>
-      <c r="M19" s="23">
-        <f t="shared" si="25"/>
-        <v>40.897263346792286</v>
-      </c>
-      <c r="N19" s="23">
-        <f t="shared" si="25"/>
-        <v>32.575145805293857</v>
-      </c>
-      <c r="O19" s="23">
-        <f t="shared" si="25"/>
-        <v>22.826379542395692</v>
-      </c>
-      <c r="P19" s="18">
-        <f t="shared" si="25"/>
-        <v>32.575145805293857</v>
-      </c>
-      <c r="U19" s="20">
-        <f t="shared" ref="U19:V19" si="26">(U18*$B$11)/U20</f>
-        <v>30.91072229699417</v>
-      </c>
-      <c r="V19" s="20">
-        <f t="shared" si="26"/>
-        <v>42.323912068192016</v>
-      </c>
-      <c r="W19" s="20">
-        <f>(W18*$B$11)/W20</f>
-        <v>12.602063705697622</v>
-      </c>
-      <c r="X19" s="20">
-        <f>(X18*$B$11)/X20</f>
-        <v>69.430237774786903</v>
-      </c>
-      <c r="Y19" s="20">
+      <c r="K19" s="22">
+        <f t="shared" ref="K19:P19" si="27">(K18/K20)*$B$11</f>
+        <v>17.898160610139076</v>
+      </c>
+      <c r="L19" s="22">
+        <f t="shared" si="27"/>
+        <v>25.827725437415882</v>
+      </c>
+      <c r="M19" s="22">
+        <f t="shared" si="27"/>
+        <v>38.968147151188873</v>
+      </c>
+      <c r="N19" s="22">
+        <f t="shared" si="27"/>
+        <v>31.03858232391207</v>
+      </c>
+      <c r="O19" s="22">
+        <f t="shared" si="27"/>
+        <v>21.749663526244955</v>
+      </c>
+      <c r="P19" s="22">
+        <f t="shared" si="27"/>
+        <v>31.03858232391207</v>
+      </c>
+      <c r="Q19" s="73">
+        <f t="shared" ref="Q19:S19" si="28">(Q18/Q20)*$B$11</f>
+        <v>58.452220726783317</v>
+      </c>
+      <c r="R19" s="17">
+        <f t="shared" si="28"/>
+        <v>33.757290264692692</v>
+      </c>
+      <c r="S19" s="22">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="W19" s="19">
+        <f t="shared" ref="W19:X19" si="29">(W18*$B$11)/W20</f>
+        <v>29.45266935845671</v>
+      </c>
+      <c r="X19" s="19">
+        <f t="shared" si="29"/>
+        <v>40.327501121579182</v>
+      </c>
+      <c r="Y19" s="19">
         <f>(Y18*$B$11)/Y20</f>
-        <v>116.27187079407805</v>
-      </c>
-      <c r="Z19" s="9">
+        <v>12.007626738447733</v>
+      </c>
+      <c r="Z19" s="19">
         <f>(Z18*$B$11)/Z20</f>
-        <v>122.92956482727681</v>
-      </c>
-      <c r="AA19" s="20">
-        <f t="shared" ref="AA19:AK19" si="27">(AA18*$B$11)/AA20</f>
-        <v>133.26373261552268</v>
-      </c>
-      <c r="AB19" s="20">
-        <f t="shared" si="27"/>
-        <v>133.62578277254383</v>
-      </c>
-      <c r="AC19" s="20">
-        <f t="shared" si="27"/>
-        <v>129.49032245491256</v>
-      </c>
-      <c r="AD19" s="20">
-        <f t="shared" si="27"/>
-        <v>125.6634683060027</v>
-      </c>
-      <c r="AE19" s="20">
-        <f t="shared" si="27"/>
-        <v>122.13386334349187</v>
-      </c>
-      <c r="AF19" s="20">
-        <f t="shared" si="27"/>
-        <v>124.30977237389371</v>
-      </c>
-      <c r="AG19" s="20">
-        <f t="shared" si="27"/>
-        <v>126.54562331047825</v>
-      </c>
-      <c r="AH19" s="20">
-        <f t="shared" si="27"/>
-        <v>128.84354288494245</v>
-      </c>
-      <c r="AI19" s="20">
-        <f t="shared" si="27"/>
-        <v>131.20574018880566</v>
-      </c>
-      <c r="AJ19" s="20">
-        <f t="shared" si="27"/>
-        <v>133.63450994070809</v>
-      </c>
-      <c r="AK19" s="20">
-        <f t="shared" si="27"/>
-        <v>136.13223588413013</v>
-      </c>
-    </row>
-    <row r="20" spans="3:142" x14ac:dyDescent="0.25">
+        <v>66.155226558995068</v>
+      </c>
+      <c r="AA19" s="19">
+        <f>(AA18*$B$11)/AA20</f>
+        <v>110.78734858681023</v>
+      </c>
+      <c r="AB19" s="19">
+        <f>(AB18*$B$11)/AB20</f>
+        <v>117.13100044863167</v>
+      </c>
+      <c r="AC19" s="9">
+        <f t="shared" ref="AC19:AM19" si="30">(AC18*$B$11)/AC20</f>
+        <v>127.33499102736653</v>
+      </c>
+      <c r="AD19" s="19">
+        <f t="shared" si="30"/>
+        <v>123.13647902646925</v>
+      </c>
+      <c r="AE19" s="19">
+        <f t="shared" si="30"/>
+        <v>119.02863956034093</v>
+      </c>
+      <c r="AF19" s="19">
+        <f t="shared" si="30"/>
+        <v>115.20815144692689</v>
+      </c>
+      <c r="AG19" s="19">
+        <f t="shared" si="30"/>
+        <v>111.66392549376764</v>
+      </c>
+      <c r="AH19" s="19">
+        <f t="shared" si="30"/>
+        <v>113.54884104335682</v>
+      </c>
+      <c r="AI19" s="19">
+        <f t="shared" si="30"/>
+        <v>115.48333680022793</v>
+      </c>
+      <c r="AJ19" s="19">
+        <f t="shared" si="30"/>
+        <v>117.46913780852533</v>
+      </c>
+      <c r="AK19" s="19">
+        <f t="shared" si="30"/>
+        <v>119.50803553251747</v>
+      </c>
+      <c r="AL19" s="19">
+        <f t="shared" si="30"/>
+        <v>121.60189048758582</v>
+      </c>
+      <c r="AM19" s="19">
+        <f t="shared" si="30"/>
+        <v>123.75263497619456</v>
+      </c>
+    </row>
+    <row r="20" spans="3:144" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="31">
         <v>44.58</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="31">
         <v>44.58</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="31">
         <v>44.58</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="31">
         <v>44.58</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="31">
         <v>44.58</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="31">
         <v>44.58</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="31">
         <v>44.58</v>
       </c>
       <c r="K20" s="2">
@@ -4280,126 +4426,137 @@
         <f>34+10.58</f>
         <v>44.58</v>
       </c>
-      <c r="P20" s="66">
+      <c r="P20" s="31">
         <v>44.58</v>
       </c>
-      <c r="U20" s="2">
-        <f t="shared" ref="U20:V20" si="28">34+10.58</f>
+      <c r="Q20" s="74">
         <v>44.58</v>
       </c>
-      <c r="V20" s="2">
-        <f t="shared" si="28"/>
+      <c r="R20" s="61">
         <v>44.58</v>
       </c>
+      <c r="S20" s="31">
+        <v>44.58</v>
+      </c>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
       <c r="W20" s="2">
-        <f>34+10.58</f>
+        <f t="shared" ref="W20:X20" si="31">34+10.58</f>
         <v>44.58</v>
       </c>
       <c r="X20" s="2">
-        <f>34+10.58</f>
+        <f t="shared" si="31"/>
         <v>44.58</v>
       </c>
       <c r="Y20" s="2">
         <f>34+10.58</f>
         <v>44.58</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="Z20" s="2">
         <f>34+10.58</f>
         <v>44.58</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" ref="AA20:AK20" si="29">34+10.58</f>
+        <f>34+10.58</f>
         <v>44.58</v>
       </c>
       <c r="AB20" s="2">
-        <f t="shared" si="29"/>
+        <f>34+10.58</f>
         <v>44.58</v>
       </c>
-      <c r="AC20" s="2">
-        <f t="shared" si="29"/>
+      <c r="AC20" s="4">
+        <f t="shared" ref="AC20:AM20" si="32">34+10.58</f>
         <v>44.58</v>
       </c>
       <c r="AD20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>44.58</v>
       </c>
       <c r="AE20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>44.58</v>
       </c>
       <c r="AF20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>44.58</v>
       </c>
       <c r="AG20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>44.58</v>
       </c>
       <c r="AH20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>44.58</v>
       </c>
       <c r="AI20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>44.58</v>
       </c>
       <c r="AJ20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>44.58</v>
       </c>
       <c r="AK20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>44.58</v>
       </c>
-      <c r="AM20" s="2" t="s">
+      <c r="AL20" s="2">
+        <f t="shared" si="32"/>
+        <v>44.58</v>
+      </c>
+      <c r="AM20" s="2">
+        <f t="shared" si="32"/>
+        <v>44.58</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP20" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:144" x14ac:dyDescent="0.25">
+      <c r="AO21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AN20" s="37">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:142" x14ac:dyDescent="0.25">
-      <c r="AM21" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN21" s="37">
+      <c r="AP21" s="36">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="22" spans="3:142" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:144" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="H22" s="27">
-        <f t="shared" ref="H22:N22" si="30">(H6-D6)/D6</f>
+      <c r="H22" s="26">
+        <f t="shared" ref="H22:N22" si="33">(H6-D6)/D6</f>
         <v>8.2987551867219914E-2</v>
       </c>
-      <c r="I22" s="27">
-        <f t="shared" si="30"/>
+      <c r="I22" s="26">
+        <f t="shared" si="33"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="J22" s="27">
-        <f t="shared" si="30"/>
+      <c r="J22" s="26">
+        <f t="shared" si="33"/>
         <v>8.11965811965812E-2</v>
       </c>
-      <c r="K22" s="27">
-        <f t="shared" si="30"/>
+      <c r="K22" s="26">
+        <f t="shared" si="33"/>
         <v>3.6585365853658534E-2</v>
       </c>
-      <c r="L22" s="27">
-        <f t="shared" si="30"/>
+      <c r="L22" s="26">
+        <f t="shared" si="33"/>
         <v>1.1494252873563218E-2</v>
       </c>
-      <c r="M22" s="27">
-        <f t="shared" si="30"/>
+      <c r="M22" s="26">
+        <f t="shared" si="33"/>
         <v>0.16216216216216217</v>
       </c>
-      <c r="N22" s="27">
-        <f t="shared" si="30"/>
+      <c r="N22" s="26">
+        <f t="shared" si="33"/>
         <v>0.16600790513833993</v>
       </c>
-      <c r="O22" s="27">
+      <c r="O22" s="26">
         <f>(O6-K6)/K6</f>
         <v>9.0196078431372548E-2</v>
       </c>
@@ -4407,222 +4564,250 @@
         <f>(P6-L6)/L6</f>
         <v>0.12121212121212122</v>
       </c>
-      <c r="V22" s="27">
-        <f t="shared" ref="V22:Y22" si="31">(V6-U6)/U6</f>
+      <c r="Q22" s="75">
+        <f t="shared" ref="Q22:S22" si="34">(Q6-M6)/M6</f>
+        <v>4.3189368770764118E-2</v>
+      </c>
+      <c r="R22" s="25">
+        <f t="shared" si="34"/>
+        <v>5.0847457627118647E-2</v>
+      </c>
+      <c r="S22" s="26">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="X22" s="26">
+        <f t="shared" ref="X22:AA22" si="35">(X6-W6)/W6</f>
         <v>-4.4705882352941179E-2</v>
       </c>
-      <c r="W22" s="27">
-        <f t="shared" si="31"/>
+      <c r="Y22" s="26">
+        <f t="shared" si="35"/>
         <v>7.7586206896551727E-2</v>
       </c>
-      <c r="X22" s="27">
-        <f t="shared" si="31"/>
+      <c r="Z22" s="26">
+        <f t="shared" si="35"/>
         <v>9.4857142857142862E-2</v>
       </c>
-      <c r="Y22" s="27">
-        <f t="shared" si="31"/>
+      <c r="AA22" s="26">
+        <f t="shared" si="35"/>
         <v>7.3068893528183715E-2</v>
       </c>
-      <c r="Z22" s="26">
-        <f>(Z6-Y6)/Y6</f>
+      <c r="AB22" s="26">
+        <f>(AB6-AA6)/AA6</f>
         <v>0.10700389105058365</v>
       </c>
-      <c r="AA22" s="27">
-        <f t="shared" ref="AA22:AK22" si="32">(AA6-Z6)/Z6</f>
-        <v>1.8207381370826035E-2</v>
-      </c>
-      <c r="AB22" s="27">
-        <f t="shared" si="32"/>
-        <v>5.0000000000000128E-2</v>
-      </c>
-      <c r="AC22" s="27">
-        <f t="shared" si="32"/>
+      <c r="AC22" s="25">
+        <f t="shared" ref="AC22:AM22" si="36">(AC6-AB6)/AB6</f>
+        <v>9.8066783831283075E-2</v>
+      </c>
+      <c r="AD22" s="26">
+        <f t="shared" si="36"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="AE22" s="26">
+        <f t="shared" si="36"/>
+        <v>4.0000000000000091E-2</v>
+      </c>
+      <c r="AF22" s="26">
+        <f t="shared" si="36"/>
+        <v>4.0000000000000091E-2</v>
+      </c>
+      <c r="AG22" s="26">
+        <f t="shared" si="36"/>
+        <v>4.0000000000000015E-2</v>
+      </c>
+      <c r="AH22" s="26">
+        <f t="shared" si="36"/>
+        <v>4.0000000000000063E-2</v>
+      </c>
+      <c r="AI22" s="26">
+        <f t="shared" si="36"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="AJ22" s="26">
+        <f t="shared" si="36"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="AD22" s="27">
-        <f t="shared" si="32"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="AE22" s="27">
-        <f t="shared" si="32"/>
+      <c r="AK22" s="26">
+        <f t="shared" si="36"/>
+        <v>4.0000000000000022E-2</v>
+      </c>
+      <c r="AL22" s="26">
+        <f t="shared" si="36"/>
+        <v>4.0000000000000091E-2</v>
+      </c>
+      <c r="AM22" s="26">
+        <f t="shared" si="36"/>
         <v>4.0000000000000029E-2</v>
       </c>
-      <c r="AF22" s="27">
-        <f t="shared" si="32"/>
-        <v>3.9999999999999966E-2</v>
-      </c>
-      <c r="AG22" s="27">
-        <f t="shared" si="32"/>
-        <v>4.0000000000000091E-2</v>
-      </c>
-      <c r="AH22" s="27">
-        <f t="shared" si="32"/>
-        <v>4.0000000000000022E-2</v>
-      </c>
-      <c r="AI22" s="27">
-        <f t="shared" si="32"/>
-        <v>4.0000000000000049E-2</v>
-      </c>
-      <c r="AJ22" s="27">
-        <f t="shared" si="32"/>
-        <v>4.0000000000000022E-2</v>
-      </c>
-      <c r="AK22" s="27">
-        <f t="shared" si="32"/>
-        <v>3.9999999999999987E-2</v>
-      </c>
-      <c r="AM22" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN22" s="39">
-        <f>NPV(AN20,AA18:EL18)*B11</f>
-        <v>56618.611238187237</v>
-      </c>
-    </row>
-    <row r="23" spans="3:142" x14ac:dyDescent="0.25">
+      <c r="AO22" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP22" s="38">
+        <f>NPV(AP20,AC18:EN18)*B11</f>
+        <v>51910.643724355235</v>
+      </c>
+    </row>
+    <row r="23" spans="3:144" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="24">
-        <f t="shared" ref="D23:G23" si="33">D11/D6</f>
+      <c r="D23" s="23">
+        <f t="shared" ref="D23:G23" si="37">D11/D6</f>
         <v>0.11203319502074689</v>
       </c>
-      <c r="E23" s="24">
-        <f t="shared" si="33"/>
+      <c r="E23" s="23">
+        <f t="shared" si="37"/>
         <v>0.1134453781512605</v>
       </c>
-      <c r="F23" s="24">
-        <f t="shared" si="33"/>
+      <c r="F23" s="23">
+        <f t="shared" si="37"/>
         <v>0.10256410256410256</v>
       </c>
-      <c r="G23" s="24">
-        <f t="shared" si="33"/>
+      <c r="G23" s="23">
+        <f t="shared" si="37"/>
         <v>2.4390243902439025E-2</v>
       </c>
-      <c r="H23" s="24">
-        <f t="shared" ref="H23:N23" si="34">H11/H6</f>
+      <c r="H23" s="23">
+        <f t="shared" ref="H23:N23" si="38">H11/H6</f>
         <v>9.5785440613026823E-2</v>
       </c>
-      <c r="I23" s="24">
-        <f t="shared" si="34"/>
+      <c r="I23" s="23">
+        <f t="shared" si="38"/>
         <v>9.6525096525096526E-2</v>
       </c>
-      <c r="J23" s="24">
-        <f t="shared" si="34"/>
+      <c r="J23" s="23">
+        <f t="shared" si="38"/>
         <v>8.3003952569169967E-2</v>
       </c>
-      <c r="K23" s="24">
-        <f t="shared" si="34"/>
+      <c r="K23" s="23">
+        <f t="shared" si="38"/>
         <v>6.2745098039215685E-2</v>
       </c>
-      <c r="L23" s="24">
-        <f t="shared" si="34"/>
+      <c r="L23" s="23">
+        <f t="shared" si="38"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="M23" s="24">
-        <f t="shared" si="34"/>
+      <c r="M23" s="23">
+        <f t="shared" si="38"/>
         <v>9.9667774086378738E-2</v>
       </c>
-      <c r="N23" s="24">
-        <f t="shared" si="34"/>
+      <c r="N23" s="23">
+        <f t="shared" si="38"/>
         <v>7.4576271186440682E-2</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23" s="23">
         <f>O11/O6</f>
         <v>3.9568345323741004E-2</v>
       </c>
-      <c r="P23" s="25">
+      <c r="P23" s="23">
         <f>P11/P6</f>
         <v>0.10472972972972973</v>
       </c>
-      <c r="U23" s="24">
-        <f t="shared" ref="U23:W23" si="35">U11/U6</f>
+      <c r="Q23" s="76">
+        <f t="shared" ref="Q23:S23" si="39">Q11/Q6</f>
+        <v>8.9171974522292988E-2</v>
+      </c>
+      <c r="R23" s="24">
+        <f t="shared" si="39"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="S23" s="23" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="W23" s="23">
+        <f t="shared" ref="W23:Y23" si="40">W11/W6</f>
         <v>9.1764705882352943E-2</v>
       </c>
-      <c r="V23" s="24">
-        <f t="shared" si="35"/>
+      <c r="X23" s="23">
+        <f t="shared" si="40"/>
         <v>7.5123152709359611E-2</v>
       </c>
-      <c r="W23" s="24">
-        <f t="shared" si="35"/>
+      <c r="Y23" s="23">
+        <f t="shared" si="40"/>
         <v>8.3428571428571435E-2</v>
       </c>
-      <c r="X23" s="24">
-        <f t="shared" ref="X23:Y23" si="36">X11/X6</f>
+      <c r="Z23" s="23">
+        <f t="shared" ref="Z23:AA23" si="41">Z11/Z6</f>
         <v>8.7682672233820466E-2</v>
       </c>
-      <c r="Y23" s="24">
-        <f t="shared" si="36"/>
+      <c r="AA23" s="23">
+        <f t="shared" si="41"/>
         <v>8.6575875486381321E-2</v>
       </c>
-      <c r="Z23" s="25">
-        <f>Z11/Z6</f>
+      <c r="AB23" s="23">
+        <f>AB11/AB6</f>
         <v>7.3813708260105443E-2</v>
       </c>
-      <c r="AA23" s="24">
-        <f t="shared" ref="AA23:AK23" si="37">AA11/AA6</f>
-        <v>8.5508146920740269E-2</v>
-      </c>
-      <c r="AB23" s="24">
-        <f t="shared" si="37"/>
-        <v>0.10292703936034528</v>
-      </c>
       <c r="AC23" s="24">
-        <f t="shared" si="37"/>
-        <v>0.10292703936034524</v>
-      </c>
-      <c r="AD23" s="24">
-        <f t="shared" si="37"/>
-        <v>0.10292703936034521</v>
-      </c>
-      <c r="AE23" s="24">
-        <f t="shared" si="37"/>
-        <v>0.10292703936034527</v>
-      </c>
-      <c r="AF23" s="24">
-        <f t="shared" si="37"/>
-        <v>0.10292703936034521</v>
-      </c>
-      <c r="AG23" s="24">
-        <f t="shared" si="37"/>
-        <v>0.10292703936034522</v>
-      </c>
-      <c r="AH23" s="24">
-        <f t="shared" si="37"/>
-        <v>0.1029270393603452</v>
-      </c>
-      <c r="AI23" s="24">
-        <f t="shared" si="37"/>
-        <v>0.1029270393603451</v>
-      </c>
-      <c r="AJ23" s="24">
-        <f t="shared" si="37"/>
-        <v>0.10292703936034513</v>
-      </c>
-      <c r="AK23" s="24">
-        <f t="shared" si="37"/>
-        <v>0.10292703936034513</v>
-      </c>
-      <c r="AM23" s="2" t="s">
+        <f t="shared" ref="AC23:AM23" si="42">AC11/AC6</f>
+        <v>8.0617797695262478E-2</v>
+      </c>
+      <c r="AD23" s="23">
+        <f t="shared" si="42"/>
+        <v>8.0617797695262394E-2</v>
+      </c>
+      <c r="AE23" s="23">
+        <f t="shared" si="42"/>
+        <v>8.0617797695262519E-2</v>
+      </c>
+      <c r="AF23" s="23">
+        <f t="shared" si="42"/>
+        <v>8.0617797695262547E-2</v>
+      </c>
+      <c r="AG23" s="23">
+        <f t="shared" si="42"/>
+        <v>8.0617797695262533E-2</v>
+      </c>
+      <c r="AH23" s="23">
+        <f t="shared" si="42"/>
+        <v>8.0617797695262575E-2</v>
+      </c>
+      <c r="AI23" s="23">
+        <f t="shared" si="42"/>
+        <v>8.0617797695262422E-2</v>
+      </c>
+      <c r="AJ23" s="23">
+        <f t="shared" si="42"/>
+        <v>8.0617797695262491E-2</v>
+      </c>
+      <c r="AK23" s="23">
+        <f t="shared" si="42"/>
+        <v>8.061779769526245E-2</v>
+      </c>
+      <c r="AL23" s="23">
+        <f t="shared" si="42"/>
+        <v>8.0617797695262519E-2</v>
+      </c>
+      <c r="AM23" s="23">
+        <f t="shared" si="42"/>
+        <v>8.0617797695262436E-2</v>
+      </c>
+      <c r="AO23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AN23" s="2">
+      <c r="AP23" s="2">
         <f>34+10.58</f>
         <v>44.58</v>
       </c>
     </row>
-    <row r="24" spans="3:142" x14ac:dyDescent="0.25">
-      <c r="AM24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN24" s="40">
-        <f>AN22/AN23</f>
-        <v>1270.045115257677</v>
-      </c>
-    </row>
-    <row r="25" spans="3:142" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:144" x14ac:dyDescent="0.25">
+      <c r="AO24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP24" s="39">
+        <f>AP22/AP23</f>
+        <v>1164.4379480564207</v>
+      </c>
+    </row>
+    <row r="25" spans="3:144" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -4635,25 +4820,27 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="16"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="AM25" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN25" s="42">
-        <f>(AN24-B4)/B4</f>
-        <v>2.0603496753197037</v>
-      </c>
-    </row>
-    <row r="26" spans="3:142" x14ac:dyDescent="0.25">
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="AO25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP25" s="41">
+        <f>(AP24-B4)/B4</f>
+        <v>0.76429992129760715</v>
+      </c>
+    </row>
+    <row r="26" spans="3:144" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="13">
         <v>58</v>
@@ -4691,13 +4878,19 @@
       <c r="O26" s="13">
         <v>52</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="13">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="3:142" x14ac:dyDescent="0.25">
+      <c r="Q26" s="68">
+        <v>43</v>
+      </c>
+      <c r="R26" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="3:144" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="13">
         <v>137</v>
@@ -4735,13 +4928,20 @@
       <c r="O27" s="13">
         <v>125</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="13">
         <v>126</v>
       </c>
-    </row>
-    <row r="28" spans="3:142" x14ac:dyDescent="0.25">
+      <c r="Q27" s="68">
+        <v>129</v>
+      </c>
+      <c r="R27" s="4">
+        <f>96+32</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="3:144" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="13">
         <v>684</v>
@@ -4779,13 +4979,19 @@
       <c r="O28" s="13">
         <v>571</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="13">
         <v>602</v>
       </c>
-    </row>
-    <row r="29" spans="3:142" x14ac:dyDescent="0.25">
+      <c r="Q28" s="68">
+        <v>635</v>
+      </c>
+      <c r="R28" s="4">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="29" spans="3:144" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="13">
         <v>146</v>
@@ -4823,13 +5029,19 @@
       <c r="O29" s="13">
         <v>121</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="13">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="3:142" x14ac:dyDescent="0.25">
+      <c r="Q29" s="68">
+        <v>135</v>
+      </c>
+      <c r="R29" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="3:144" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D30" s="13">
         <v>1154</v>
@@ -4867,13 +5079,19 @@
       <c r="O30" s="13">
         <v>2001</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="13">
         <v>1965</v>
       </c>
-    </row>
-    <row r="31" spans="3:142" x14ac:dyDescent="0.25">
+      <c r="Q30" s="68">
+        <v>2233</v>
+      </c>
+      <c r="R30" s="4">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="31" spans="3:144" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="13">
         <v>761</v>
@@ -4911,13 +5129,19 @@
       <c r="O31" s="13">
         <v>86</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="13">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="3:142" x14ac:dyDescent="0.25">
+      <c r="Q31" s="68">
+        <v>97</v>
+      </c>
+      <c r="R31" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="3:144" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="13">
         <v>30</v>
@@ -4955,13 +5179,19 @@
       <c r="O32" s="13">
         <v>39</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="13">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="68">
+        <v>45</v>
+      </c>
+      <c r="R32" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="13">
         <v>94</v>
@@ -4999,13 +5229,19 @@
       <c r="O33" s="13">
         <v>119</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q33" s="68">
+        <v>128</v>
+      </c>
+      <c r="R33" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="13">
         <v>110</v>
@@ -5043,13 +5279,19 @@
       <c r="O34" s="13">
         <v>121</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="13">
         <v>132</v>
       </c>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q34" s="68">
+        <v>221</v>
+      </c>
+      <c r="R34" s="4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="13">
         <v>344</v>
@@ -5087,13 +5329,19 @@
       <c r="O35" s="13">
         <v>368</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="13">
         <v>599</v>
       </c>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q35" s="68">
+        <v>419</v>
+      </c>
+      <c r="R35" s="4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="13">
         <v>183</v>
@@ -5131,70 +5379,90 @@
       <c r="O36" s="13">
         <v>155</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="13">
         <v>169</v>
       </c>
-    </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q36" s="68">
+        <v>209</v>
+      </c>
+      <c r="R36" s="4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="18">
+        <f t="shared" ref="D37:S37" si="43">SUM(D26:D36)</f>
+        <v>3701</v>
+      </c>
+      <c r="E37" s="18">
+        <f t="shared" si="43"/>
+        <v>3392</v>
+      </c>
+      <c r="F37" s="18">
+        <f t="shared" si="43"/>
+        <v>3271</v>
+      </c>
+      <c r="G37" s="18">
+        <f t="shared" si="43"/>
+        <v>3628</v>
+      </c>
+      <c r="H37" s="18">
+        <f t="shared" si="43"/>
+        <v>3795</v>
+      </c>
+      <c r="I37" s="18">
+        <f t="shared" si="43"/>
+        <v>3556</v>
+      </c>
+      <c r="J37" s="18">
+        <f t="shared" si="43"/>
+        <v>3641</v>
+      </c>
+      <c r="K37" s="18">
+        <f t="shared" si="43"/>
+        <v>3735</v>
+      </c>
+      <c r="L37" s="18">
+        <f t="shared" si="43"/>
+        <v>4113</v>
+      </c>
+      <c r="M37" s="18">
+        <f t="shared" si="43"/>
+        <v>3814</v>
+      </c>
+      <c r="N37" s="18">
+        <f t="shared" si="43"/>
+        <v>3967</v>
+      </c>
+      <c r="O37" s="18">
+        <f t="shared" si="43"/>
+        <v>3758</v>
+      </c>
+      <c r="P37" s="18">
+        <f t="shared" si="43"/>
+        <v>4022</v>
+      </c>
+      <c r="Q37" s="70">
+        <f t="shared" si="43"/>
+        <v>4294</v>
+      </c>
+      <c r="R37" s="12">
+        <f t="shared" si="43"/>
+        <v>4443</v>
+      </c>
+      <c r="S37" s="18">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D37" s="19">
-        <f t="shared" ref="D37:P37" si="38">SUM(D26:D36)</f>
-        <v>3701</v>
-      </c>
-      <c r="E37" s="19">
-        <f t="shared" si="38"/>
-        <v>3392</v>
-      </c>
-      <c r="F37" s="19">
-        <f t="shared" si="38"/>
-        <v>3271</v>
-      </c>
-      <c r="G37" s="19">
-        <f t="shared" si="38"/>
-        <v>3628</v>
-      </c>
-      <c r="H37" s="19">
-        <f t="shared" si="38"/>
-        <v>3795</v>
-      </c>
-      <c r="I37" s="19">
-        <f t="shared" si="38"/>
-        <v>3556</v>
-      </c>
-      <c r="J37" s="19">
-        <f t="shared" si="38"/>
-        <v>3641</v>
-      </c>
-      <c r="K37" s="19">
-        <f t="shared" si="38"/>
-        <v>3735</v>
-      </c>
-      <c r="L37" s="19">
-        <f t="shared" si="38"/>
-        <v>4113</v>
-      </c>
-      <c r="M37" s="19">
-        <f t="shared" si="38"/>
-        <v>3814</v>
-      </c>
-      <c r="N37" s="19">
-        <f t="shared" si="38"/>
-        <v>3967</v>
-      </c>
-      <c r="O37" s="19">
-        <f t="shared" si="38"/>
-        <v>3758</v>
-      </c>
-      <c r="P37" s="12">
-        <f t="shared" si="38"/>
-        <v>4022</v>
-      </c>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C38" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D38" s="13">
         <v>118</v>
@@ -5232,13 +5500,19 @@
       <c r="O38" s="13">
         <v>118</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38" s="13">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q38" s="68">
+        <v>118</v>
+      </c>
+      <c r="R38" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" s="13">
         <v>0</v>
@@ -5276,13 +5550,19 @@
       <c r="O39" s="13">
         <v>-3</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="13">
         <v>-4</v>
       </c>
-    </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q39" s="68">
+        <v>-5</v>
+      </c>
+      <c r="R39" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" s="13">
         <v>2033</v>
@@ -5320,13 +5600,19 @@
       <c r="O40" s="13">
         <v>2465</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P40" s="13">
         <v>2654</v>
       </c>
-    </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q40" s="68">
+        <v>2939</v>
+      </c>
+      <c r="R40" s="4">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="13">
         <v>243</v>
@@ -5364,70 +5650,90 @@
       <c r="O41" s="13">
         <v>115</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P41" s="13">
         <v>123</v>
       </c>
-    </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q41" s="68">
+        <v>138</v>
+      </c>
+      <c r="R41" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C42" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="15">
+        <f t="shared" ref="D42:S42" si="44">SUM(D38:D41)</f>
+        <v>2394</v>
+      </c>
+      <c r="E42" s="15">
+        <f t="shared" si="44"/>
+        <v>2187</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="44"/>
+        <v>2093</v>
+      </c>
+      <c r="G42" s="15">
+        <f t="shared" si="44"/>
+        <v>2356</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" si="44"/>
+        <v>2495</v>
+      </c>
+      <c r="I42" s="15">
+        <f t="shared" si="44"/>
+        <v>2347</v>
+      </c>
+      <c r="J42" s="15">
+        <f t="shared" si="44"/>
+        <v>2457</v>
+      </c>
+      <c r="K42" s="15">
+        <f t="shared" si="44"/>
+        <v>2487</v>
+      </c>
+      <c r="L42" s="15">
+        <f t="shared" si="44"/>
+        <v>2890</v>
+      </c>
+      <c r="M42" s="15">
+        <f t="shared" si="44"/>
+        <v>2654</v>
+      </c>
+      <c r="N42" s="15">
+        <f t="shared" si="44"/>
+        <v>2807</v>
+      </c>
+      <c r="O42" s="15">
+        <f t="shared" si="44"/>
+        <v>2695</v>
+      </c>
+      <c r="P42" s="15">
+        <f t="shared" si="44"/>
+        <v>2891</v>
+      </c>
+      <c r="Q42" s="78">
+        <f t="shared" si="44"/>
+        <v>3190</v>
+      </c>
+      <c r="R42" s="62">
+        <f t="shared" si="44"/>
+        <v>3335</v>
+      </c>
+      <c r="S42" s="15">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D42" s="15">
-        <f t="shared" ref="D42:P42" si="39">SUM(D38:D41)</f>
-        <v>2394</v>
-      </c>
-      <c r="E42" s="15">
-        <f t="shared" si="39"/>
-        <v>2187</v>
-      </c>
-      <c r="F42" s="15">
-        <f t="shared" si="39"/>
-        <v>2093</v>
-      </c>
-      <c r="G42" s="15">
-        <f t="shared" si="39"/>
-        <v>2356</v>
-      </c>
-      <c r="H42" s="15">
-        <f t="shared" si="39"/>
-        <v>2495</v>
-      </c>
-      <c r="I42" s="15">
-        <f t="shared" si="39"/>
-        <v>2347</v>
-      </c>
-      <c r="J42" s="15">
-        <f t="shared" si="39"/>
-        <v>2457</v>
-      </c>
-      <c r="K42" s="15">
-        <f t="shared" si="39"/>
-        <v>2487</v>
-      </c>
-      <c r="L42" s="15">
-        <f t="shared" si="39"/>
-        <v>2890</v>
-      </c>
-      <c r="M42" s="15">
-        <f t="shared" si="39"/>
-        <v>2654</v>
-      </c>
-      <c r="N42" s="15">
-        <f t="shared" si="39"/>
-        <v>2807</v>
-      </c>
-      <c r="O42" s="15">
-        <f t="shared" si="39"/>
-        <v>2695</v>
-      </c>
-      <c r="P42" s="67">
-        <f t="shared" si="39"/>
-        <v>2891</v>
-      </c>
-    </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C43" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D43" s="15">
         <v>26</v>
@@ -5465,13 +5771,19 @@
       <c r="O43" s="13">
         <v>21</v>
       </c>
-      <c r="P43" s="14">
+      <c r="P43" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q43" s="68">
+        <v>23</v>
+      </c>
+      <c r="R43" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" s="13">
         <v>11</v>
@@ -5509,13 +5821,19 @@
       <c r="O44" s="13">
         <v>12</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P44" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q44" s="68">
+        <v>11</v>
+      </c>
+      <c r="R44" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" s="13">
         <v>302</v>
@@ -5553,13 +5871,19 @@
       <c r="O45" s="13">
         <v>277</v>
       </c>
-      <c r="P45" s="14">
+      <c r="P45" s="13">
         <v>287</v>
       </c>
-    </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q45" s="68">
+        <v>279</v>
+      </c>
+      <c r="R45" s="4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" s="13">
         <v>131</v>
@@ -5597,13 +5921,19 @@
       <c r="O46" s="13">
         <v>108</v>
       </c>
-      <c r="P46" s="14">
+      <c r="P46" s="13">
         <v>116</v>
       </c>
-    </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q46" s="68">
+        <v>116</v>
+      </c>
+      <c r="R46" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47" s="13">
         <v>17</v>
@@ -5641,13 +5971,19 @@
       <c r="O47" s="13">
         <v>8</v>
       </c>
-      <c r="P47" s="14">
+      <c r="P47" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q47" s="68">
+        <v>8</v>
+      </c>
+      <c r="R47" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" s="13">
         <v>13</v>
@@ -5685,13 +6021,19 @@
       <c r="O48" s="13">
         <v>12</v>
       </c>
-      <c r="P48" s="14">
+      <c r="P48" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Q48" s="68">
+        <v>6</v>
+      </c>
+      <c r="R48" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49" s="13">
         <v>11</v>
@@ -5729,13 +6071,19 @@
       <c r="O49" s="13">
         <v>17</v>
       </c>
-      <c r="P49" s="14">
+      <c r="P49" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Q49" s="68">
+        <v>16</v>
+      </c>
+      <c r="R49" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" s="13">
         <v>263</v>
@@ -5773,13 +6121,19 @@
       <c r="O50" s="13">
         <v>23</v>
       </c>
-      <c r="P50" s="14">
+      <c r="P50" s="13">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Q50" s="68">
+        <v>30</v>
+      </c>
+      <c r="R50" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" s="13">
         <v>29</v>
@@ -5817,13 +6171,19 @@
       <c r="O51" s="13">
         <v>26</v>
       </c>
-      <c r="P51" s="14">
+      <c r="P51" s="13">
         <v>29</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Q51" s="68">
+        <v>29</v>
+      </c>
+      <c r="R51" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D52" s="13">
         <v>506</v>
@@ -5861,125 +6221,159 @@
       <c r="O52" s="13">
         <v>559</v>
       </c>
-      <c r="P52" s="14">
+      <c r="P52" s="13">
         <v>582</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Q52" s="68">
+        <v>587</v>
+      </c>
+      <c r="R52" s="4">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C53" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="15">
+        <f t="shared" ref="D53:P53" si="45">SUM(D43:D52)</f>
+        <v>1309</v>
+      </c>
+      <c r="E53" s="15">
+        <f t="shared" si="45"/>
+        <v>1206</v>
+      </c>
+      <c r="F53" s="15">
+        <f t="shared" si="45"/>
+        <v>1179</v>
+      </c>
+      <c r="G53" s="15">
+        <f t="shared" si="45"/>
+        <v>1273</v>
+      </c>
+      <c r="H53" s="15">
+        <f t="shared" si="45"/>
+        <v>1299</v>
+      </c>
+      <c r="I53" s="15">
+        <f t="shared" si="45"/>
+        <v>1210</v>
+      </c>
+      <c r="J53" s="15">
+        <f t="shared" si="45"/>
+        <v>1185</v>
+      </c>
+      <c r="K53" s="15">
+        <f t="shared" si="45"/>
+        <v>1249</v>
+      </c>
+      <c r="L53" s="15">
+        <f t="shared" si="45"/>
+        <v>1224</v>
+      </c>
+      <c r="M53" s="15">
+        <f t="shared" si="45"/>
+        <v>1161</v>
+      </c>
+      <c r="N53" s="15">
+        <f t="shared" si="45"/>
+        <v>1162</v>
+      </c>
+      <c r="O53" s="15">
+        <f t="shared" si="45"/>
+        <v>1063</v>
+      </c>
+      <c r="P53" s="15">
+        <f t="shared" si="45"/>
+        <v>1131</v>
+      </c>
+      <c r="Q53" s="78">
+        <f t="shared" ref="Q53:S53" si="46">SUM(Q43:Q52)</f>
+        <v>1105</v>
+      </c>
+      <c r="R53" s="62">
+        <f t="shared" si="46"/>
+        <v>1105</v>
+      </c>
+      <c r="S53" s="15">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="15">
-        <f t="shared" ref="D53:P53" si="40">SUM(D43:D52)</f>
-        <v>1309</v>
-      </c>
-      <c r="E53" s="15">
-        <f t="shared" si="40"/>
-        <v>1206</v>
-      </c>
-      <c r="F53" s="15">
-        <f t="shared" si="40"/>
-        <v>1179</v>
-      </c>
-      <c r="G53" s="15">
-        <f t="shared" si="40"/>
-        <v>1273</v>
-      </c>
-      <c r="H53" s="15">
-        <f t="shared" si="40"/>
-        <v>1299</v>
-      </c>
-      <c r="I53" s="15">
-        <f t="shared" si="40"/>
-        <v>1210</v>
-      </c>
-      <c r="J53" s="15">
-        <f t="shared" si="40"/>
-        <v>1185</v>
-      </c>
-      <c r="K53" s="15">
-        <f t="shared" si="40"/>
-        <v>1249</v>
-      </c>
-      <c r="L53" s="15">
-        <f t="shared" si="40"/>
-        <v>1224</v>
-      </c>
-      <c r="M53" s="15">
-        <f t="shared" si="40"/>
-        <v>1161</v>
-      </c>
-      <c r="N53" s="15">
-        <f t="shared" si="40"/>
-        <v>1162</v>
-      </c>
-      <c r="O53" s="15">
-        <f t="shared" si="40"/>
-        <v>1063</v>
-      </c>
-      <c r="P53" s="67">
-        <f t="shared" si="40"/>
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="19">
-        <f t="shared" ref="D54:P54" si="41">D42+D53</f>
+      <c r="D54" s="18">
+        <f t="shared" ref="D54:P54" si="47">D42+D53</f>
         <v>3703</v>
       </c>
-      <c r="E54" s="19">
-        <f t="shared" si="41"/>
+      <c r="E54" s="18">
+        <f t="shared" si="47"/>
         <v>3393</v>
       </c>
-      <c r="F54" s="19">
-        <f t="shared" si="41"/>
+      <c r="F54" s="18">
+        <f t="shared" si="47"/>
         <v>3272</v>
       </c>
-      <c r="G54" s="19">
-        <f t="shared" si="41"/>
+      <c r="G54" s="18">
+        <f t="shared" si="47"/>
         <v>3629</v>
       </c>
-      <c r="H54" s="19">
-        <f t="shared" si="41"/>
+      <c r="H54" s="18">
+        <f t="shared" si="47"/>
         <v>3794</v>
       </c>
-      <c r="I54" s="19">
-        <f t="shared" si="41"/>
+      <c r="I54" s="18">
+        <f t="shared" si="47"/>
         <v>3557</v>
       </c>
-      <c r="J54" s="19">
-        <f t="shared" si="41"/>
+      <c r="J54" s="18">
+        <f t="shared" si="47"/>
         <v>3642</v>
       </c>
-      <c r="K54" s="19">
-        <f t="shared" si="41"/>
+      <c r="K54" s="18">
+        <f t="shared" si="47"/>
         <v>3736</v>
       </c>
-      <c r="L54" s="19">
-        <f t="shared" si="41"/>
+      <c r="L54" s="18">
+        <f t="shared" si="47"/>
         <v>4114</v>
       </c>
-      <c r="M54" s="19">
-        <f t="shared" si="41"/>
+      <c r="M54" s="18">
+        <f t="shared" si="47"/>
         <v>3815</v>
       </c>
-      <c r="N54" s="19">
-        <f t="shared" si="41"/>
+      <c r="N54" s="18">
+        <f t="shared" si="47"/>
         <v>3969</v>
       </c>
-      <c r="O54" s="19">
-        <f t="shared" si="41"/>
+      <c r="O54" s="18">
+        <f t="shared" si="47"/>
         <v>3758</v>
       </c>
-      <c r="P54" s="12">
-        <f t="shared" si="41"/>
+      <c r="P54" s="18">
+        <f t="shared" si="47"/>
         <v>4022</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Q54" s="70">
+        <f t="shared" ref="Q54:S54" si="48">Q42+Q53</f>
+        <v>4295</v>
+      </c>
+      <c r="R54" s="12">
+        <f t="shared" si="48"/>
+        <v>4440</v>
+      </c>
+      <c r="S54" s="18">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D55" s="13"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
@@ -5993,9 +6387,9 @@
       <c r="N55" s="15"/>
       <c r="O55" s="11"/>
     </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -6009,91 +6403,103 @@
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
     </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="13">
-        <f t="shared" ref="D57:N57" si="42">D16</f>
+        <f t="shared" ref="D57:N57" si="49">D16</f>
         <v>165</v>
       </c>
       <c r="E57" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>-45</v>
       </c>
       <c r="F57" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>-24</v>
       </c>
       <c r="G57" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>211</v>
       </c>
       <c r="H57" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>107</v>
       </c>
       <c r="I57" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>164</v>
       </c>
       <c r="J57" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>157</v>
       </c>
       <c r="K57" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>90</v>
       </c>
       <c r="L57" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>116</v>
       </c>
       <c r="M57" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>179</v>
       </c>
       <c r="N57" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>144</v>
       </c>
       <c r="O57" s="13">
         <f>O16</f>
         <v>100</v>
       </c>
-      <c r="P57" s="14">
+      <c r="P57" s="13">
         <f>P16</f>
         <v>149</v>
       </c>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
+      <c r="Q57" s="71">
+        <f t="shared" ref="Q57:S57" si="50">Q16</f>
+        <v>266</v>
+      </c>
+      <c r="R57" s="14">
+        <f t="shared" si="50"/>
+        <v>152</v>
+      </c>
+      <c r="S57" s="13">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="T57" s="13"/>
-      <c r="U57" s="13">
-        <f t="shared" ref="U57:V57" si="43">U16</f>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13">
+        <f t="shared" ref="W57:X57" si="51">W16</f>
         <v>145</v>
       </c>
-      <c r="V57" s="13">
-        <f t="shared" si="43"/>
+      <c r="X57" s="13">
+        <f t="shared" si="51"/>
         <v>205</v>
-      </c>
-      <c r="W57" s="13">
-        <f>W16</f>
-        <v>66</v>
-      </c>
-      <c r="X57" s="13">
-        <f>X16</f>
-        <v>305</v>
       </c>
       <c r="Y57" s="13">
         <f>Y16</f>
+        <v>66</v>
+      </c>
+      <c r="Z57" s="13">
+        <f>Z16</f>
+        <v>305</v>
+      </c>
+      <c r="AA57" s="13">
+        <f>AA16</f>
         <v>516</v>
       </c>
-      <c r="Z57" s="14">
-        <f>Z16</f>
+      <c r="AB57" s="13">
+        <f>AB16</f>
         <v>537</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>59</v>
       </c>
@@ -6133,29 +6539,35 @@
       <c r="O58" s="2">
         <v>98</v>
       </c>
-      <c r="P58" s="4">
+      <c r="P58" s="2">
         <v>150</v>
       </c>
-      <c r="U58" s="2">
+      <c r="Q58" s="68">
+        <v>266</v>
+      </c>
+      <c r="R58" s="4">
+        <v>151</v>
+      </c>
+      <c r="W58" s="2">
         <v>144</v>
       </c>
-      <c r="V58" s="2">
+      <c r="X58" s="2">
         <v>205</v>
       </c>
-      <c r="W58" s="2">
+      <c r="Y58" s="2">
         <v>66</v>
       </c>
-      <c r="X58" s="2">
+      <c r="Z58" s="2">
         <v>306</v>
       </c>
-      <c r="Y58" s="2">
+      <c r="AA58" s="2">
         <v>515</v>
       </c>
-      <c r="Z58" s="4">
+      <c r="AB58" s="2">
         <v>538</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
         <v>60</v>
       </c>
@@ -6195,29 +6607,35 @@
       <c r="O59" s="2">
         <v>-116</v>
       </c>
-      <c r="P59" s="4">
+      <c r="P59" s="2">
         <v>-121</v>
       </c>
-      <c r="U59" s="2">
+      <c r="Q59" s="68">
+        <v>-208</v>
+      </c>
+      <c r="R59" s="4">
+        <v>-133</v>
+      </c>
+      <c r="W59" s="2">
         <v>-49</v>
       </c>
-      <c r="V59" s="2">
+      <c r="X59" s="2">
         <v>50</v>
       </c>
-      <c r="W59" s="2">
+      <c r="Y59" s="2">
         <v>-101</v>
       </c>
-      <c r="X59" s="2">
+      <c r="Z59" s="2">
         <v>-296</v>
       </c>
-      <c r="Y59" s="2">
+      <c r="AA59" s="2">
         <v>-431</v>
       </c>
-      <c r="Z59" s="4">
+      <c r="AB59" s="2">
         <v>-472</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C60" s="2" t="s">
         <v>61</v>
       </c>
@@ -6257,29 +6675,35 @@
       <c r="O60" s="2">
         <v>-1</v>
       </c>
-      <c r="P60" s="4">
+      <c r="P60" s="2">
         <v>7</v>
       </c>
-      <c r="U60" s="2">
+      <c r="Q60" s="68">
+        <v>-7</v>
+      </c>
+      <c r="R60" s="4">
+        <v>3</v>
+      </c>
+      <c r="W60" s="2">
         <v>-34</v>
       </c>
-      <c r="V60" s="2">
+      <c r="X60" s="2">
         <v>-192</v>
       </c>
-      <c r="W60" s="2">
+      <c r="Y60" s="2">
         <v>107</v>
       </c>
-      <c r="X60" s="2">
+      <c r="Z60" s="2">
         <v>50</v>
       </c>
-      <c r="Y60" s="2">
+      <c r="AA60" s="2">
         <v>-11</v>
       </c>
-      <c r="Z60" s="4">
+      <c r="AB60" s="2">
         <v>-27</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C61" s="2" t="s">
         <v>62</v>
       </c>
@@ -6319,29 +6743,35 @@
       <c r="O61" s="2">
         <v>29</v>
       </c>
-      <c r="P61" s="4">
+      <c r="P61" s="2">
         <v>-4</v>
       </c>
-      <c r="U61" s="2">
+      <c r="Q61" s="68">
+        <v>-23</v>
+      </c>
+      <c r="R61" s="4">
+        <v>-2</v>
+      </c>
+      <c r="W61" s="2">
         <v>17</v>
       </c>
-      <c r="V61" s="2">
+      <c r="X61" s="2">
         <v>-2</v>
       </c>
-      <c r="W61" s="2">
+      <c r="Y61" s="2">
         <v>1</v>
       </c>
-      <c r="X61" s="2">
+      <c r="Z61" s="2">
         <v>23</v>
       </c>
-      <c r="Y61" s="2">
+      <c r="AA61" s="2">
         <v>15</v>
       </c>
-      <c r="Z61" s="4">
+      <c r="AB61" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C62" s="2" t="s">
         <v>47</v>
       </c>
@@ -6381,29 +6811,35 @@
       <c r="O62" s="2">
         <v>26</v>
       </c>
-      <c r="P62" s="4">
+      <c r="P62" s="2">
         <v>14</v>
       </c>
-      <c r="U62" s="2">
+      <c r="Q62" s="68">
+        <v>20</v>
+      </c>
+      <c r="R62" s="4">
+        <v>22</v>
+      </c>
+      <c r="W62" s="2">
         <v>71</v>
       </c>
-      <c r="V62" s="2">
+      <c r="X62" s="2">
         <v>78</v>
       </c>
-      <c r="W62" s="2">
+      <c r="Y62" s="2">
         <v>68</v>
       </c>
-      <c r="X62" s="2">
+      <c r="Z62" s="2">
         <v>69</v>
       </c>
-      <c r="Y62" s="2">
+      <c r="AA62" s="2">
         <v>59</v>
       </c>
-      <c r="Z62" s="4">
+      <c r="AB62" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
         <v>63</v>
       </c>
@@ -6443,29 +6879,35 @@
       <c r="O63" s="2">
         <v>-4</v>
       </c>
-      <c r="P63" s="4">
+      <c r="P63" s="2">
         <v>1</v>
       </c>
-      <c r="U63" s="2">
+      <c r="Q63" s="68">
+        <v>2</v>
+      </c>
+      <c r="R63" s="4">
+        <v>1</v>
+      </c>
+      <c r="W63" s="2">
         <v>-8</v>
       </c>
-      <c r="V63" s="2">
+      <c r="X63" s="2">
         <v>-5</v>
       </c>
-      <c r="W63" s="2">
+      <c r="Y63" s="2">
         <v>-2</v>
       </c>
-      <c r="X63" s="2">
+      <c r="Z63" s="2">
         <v>-17</v>
       </c>
-      <c r="Y63" s="2">
+      <c r="AA63" s="2">
         <v>-1</v>
       </c>
-      <c r="Z63" s="4">
+      <c r="AB63" s="2">
         <v>-2</v>
       </c>
     </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
         <v>64</v>
       </c>
@@ -6517,36 +6959,43 @@
         <f>-10-14</f>
         <v>-24</v>
       </c>
-      <c r="P64" s="4">
+      <c r="P64" s="2">
         <f>2-7</f>
         <v>-5</v>
       </c>
-      <c r="U64" s="2">
+      <c r="Q64" s="68">
+        <v>0</v>
+      </c>
+      <c r="R64" s="4">
+        <f>-3+19</f>
+        <v>16</v>
+      </c>
+      <c r="W64" s="2">
         <f>-6-9-19</f>
         <v>-34</v>
       </c>
-      <c r="V64" s="2">
+      <c r="X64" s="2">
         <f>1+70</f>
         <v>71</v>
       </c>
-      <c r="W64" s="2">
+      <c r="Y64" s="2">
         <f>1-13+8</f>
         <v>-4</v>
       </c>
-      <c r="X64" s="2">
+      <c r="Z64" s="2">
         <f>-2-21-31</f>
         <v>-54</v>
       </c>
-      <c r="Y64" s="2">
+      <c r="AA64" s="2">
         <f>1-7+75</f>
         <v>69</v>
       </c>
-      <c r="Z64" s="4">
+      <c r="AB64" s="2">
         <f>1-7-33</f>
         <v>-39</v>
       </c>
     </row>
-    <row r="65" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C65" s="2" t="s">
         <v>65</v>
       </c>
@@ -6586,113 +7035,131 @@
       <c r="O65" s="2">
         <v>-6</v>
       </c>
-      <c r="P65" s="4">
+      <c r="P65" s="2">
         <v>-5</v>
       </c>
-      <c r="U65" s="2">
+      <c r="Q65" s="68">
         <v>-8</v>
       </c>
-      <c r="V65" s="2">
+      <c r="R65" s="4">
+        <v>-4</v>
+      </c>
+      <c r="W65" s="2">
+        <v>-8</v>
+      </c>
+      <c r="X65" s="2">
         <v>-9</v>
       </c>
-      <c r="W65" s="2">
+      <c r="Y65" s="2">
         <v>-14</v>
       </c>
-      <c r="X65" s="2">
+      <c r="Z65" s="2">
         <v>-17</v>
       </c>
-      <c r="Y65" s="2">
+      <c r="AA65" s="2">
         <v>-21</v>
       </c>
-      <c r="Z65" s="4">
+      <c r="AB65" s="2">
         <v>-22</v>
       </c>
     </row>
-    <row r="66" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" ref="D66:N66" si="44">SUM(D58:D65)</f>
+        <f t="shared" ref="D66:N66" si="52">SUM(D58:D65)</f>
         <v>3</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>6</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>28</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>28</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>42</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>18</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>70</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>64</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>34</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>14</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>44</v>
       </c>
       <c r="O66" s="1">
         <f>SUM(O58:O65)</f>
         <v>2</v>
       </c>
-      <c r="P66" s="16">
+      <c r="P66" s="1">
         <f>SUM(P58:P65)</f>
         <v>37</v>
       </c>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
+      <c r="Q66" s="77">
+        <f t="shared" ref="Q66:S66" si="53">SUM(Q58:Q65)</f>
+        <v>42</v>
+      </c>
+      <c r="R66" s="16">
+        <f t="shared" si="53"/>
+        <v>54</v>
+      </c>
+      <c r="S66" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
       <c r="T66" s="1"/>
-      <c r="U66" s="1">
-        <f t="shared" ref="U66:V66" si="45">SUM(U58:U65)</f>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1">
+        <f t="shared" ref="W66:X66" si="54">SUM(W58:W65)</f>
         <v>99</v>
       </c>
-      <c r="V66" s="1">
-        <f t="shared" si="45"/>
+      <c r="X66" s="1">
+        <f t="shared" si="54"/>
         <v>196</v>
       </c>
-      <c r="W66" s="1">
-        <f>SUM(W58:W65)</f>
+      <c r="Y66" s="1">
+        <f>SUM(Y58:Y65)</f>
         <v>121</v>
       </c>
-      <c r="X66" s="1">
-        <f t="shared" ref="X66:Y66" si="46">SUM(X58:X65)</f>
+      <c r="Z66" s="1">
+        <f t="shared" ref="Z66:AA66" si="55">SUM(Z58:Z65)</f>
         <v>64</v>
       </c>
-      <c r="Y66" s="1">
-        <f t="shared" si="46"/>
+      <c r="AA66" s="1">
+        <f t="shared" si="55"/>
         <v>194</v>
       </c>
-      <c r="Z66" s="16">
-        <f>SUM(Z58:Z65)</f>
+      <c r="AB66" s="1">
+        <f>SUM(AB58:AB65)</f>
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C68" s="2" t="s">
         <v>66</v>
       </c>
@@ -6732,29 +7199,35 @@
       <c r="O68" s="2">
         <v>175</v>
       </c>
-      <c r="P68" s="4">
+      <c r="P68" s="2">
         <v>3</v>
       </c>
-      <c r="U68" s="2">
+      <c r="Q68" s="68">
+        <v>229</v>
+      </c>
+      <c r="R68" s="4">
+        <v>177</v>
+      </c>
+      <c r="W68" s="2">
         <v>33</v>
       </c>
-      <c r="V68" s="2">
+      <c r="X68" s="2">
         <v>21</v>
       </c>
-      <c r="W68" s="2">
+      <c r="Y68" s="2">
         <v>13</v>
       </c>
-      <c r="X68" s="2">
+      <c r="Z68" s="2">
         <v>37</v>
       </c>
-      <c r="Y68" s="2">
+      <c r="AA68" s="2">
         <v>170</v>
       </c>
-      <c r="Z68" s="4">
+      <c r="AB68" s="2">
         <v>311</v>
       </c>
     </row>
-    <row r="69" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C69" s="2" t="s">
         <v>67</v>
       </c>
@@ -6794,29 +7267,35 @@
       <c r="O69" s="2">
         <v>0</v>
       </c>
-      <c r="P69" s="4">
-        <v>0</v>
-      </c>
-      <c r="U69" s="2">
+      <c r="P69" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="68">
+        <v>0</v>
+      </c>
+      <c r="R69" s="4">
+        <v>0</v>
+      </c>
+      <c r="W69" s="2">
         <v>17</v>
       </c>
-      <c r="V69" s="2">
+      <c r="X69" s="2">
         <v>7</v>
       </c>
-      <c r="W69" s="2">
+      <c r="Y69" s="2">
         <v>26</v>
       </c>
-      <c r="X69" s="2">
+      <c r="Z69" s="2">
         <v>27</v>
       </c>
-      <c r="Y69" s="2">
+      <c r="AA69" s="2">
         <v>2</v>
       </c>
-      <c r="Z69" s="4">
+      <c r="AB69" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C70" s="2" t="s">
         <v>68</v>
       </c>
@@ -6856,29 +7335,35 @@
       <c r="O70" s="2">
         <v>-9</v>
       </c>
-      <c r="P70" s="4">
+      <c r="P70" s="2">
         <v>-10</v>
       </c>
-      <c r="U70" s="2">
+      <c r="Q70" s="68">
+        <v>-15</v>
+      </c>
+      <c r="R70" s="4">
+        <v>-20</v>
+      </c>
+      <c r="W70" s="2">
         <v>-40</v>
       </c>
-      <c r="V70" s="2">
+      <c r="X70" s="2">
         <v>-37</v>
       </c>
-      <c r="W70" s="2">
+      <c r="Y70" s="2">
         <v>-45</v>
       </c>
-      <c r="X70" s="2">
+      <c r="Z70" s="2">
         <v>-49</v>
       </c>
-      <c r="Y70" s="2">
+      <c r="AA70" s="2">
         <v>-43</v>
       </c>
-      <c r="Z70" s="4">
+      <c r="AB70" s="2">
         <v>-40</v>
       </c>
     </row>
-    <row r="71" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C71" s="2" t="s">
         <v>69</v>
       </c>
@@ -6915,29 +7400,35 @@
       <c r="O71" s="2">
         <v>7</v>
       </c>
-      <c r="P71" s="4">
-        <v>0</v>
-      </c>
-      <c r="U71" s="2">
+      <c r="P71" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="68">
+        <v>0</v>
+      </c>
+      <c r="R71" s="4">
+        <v>0</v>
+      </c>
+      <c r="W71" s="2">
         <v>3</v>
       </c>
-      <c r="V71" s="2">
-        <v>0</v>
-      </c>
-      <c r="W71" s="2">
-        <v>0</v>
-      </c>
       <c r="X71" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="2">
         <v>-37</v>
       </c>
-      <c r="Y71" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="4">
+      <c r="AA71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C72" s="2" t="s">
         <v>70</v>
       </c>
@@ -6977,29 +7468,35 @@
       <c r="O72" s="2">
         <v>-3</v>
       </c>
-      <c r="P72" s="4">
+      <c r="P72" s="2">
         <v>-16</v>
       </c>
-      <c r="U72" s="2">
+      <c r="Q72" s="68">
+        <v>-30</v>
+      </c>
+      <c r="R72" s="4">
+        <v>5</v>
+      </c>
+      <c r="W72" s="2">
         <v>34</v>
       </c>
-      <c r="V72" s="2">
-        <v>0</v>
-      </c>
-      <c r="W72" s="2">
+      <c r="X72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="2">
         <v>-36</v>
       </c>
-      <c r="X72" s="2">
+      <c r="Z72" s="2">
         <v>-18</v>
       </c>
-      <c r="Y72" s="2">
+      <c r="AA72" s="2">
         <v>-50</v>
       </c>
-      <c r="Z72" s="4">
+      <c r="AB72" s="2">
         <v>-55</v>
       </c>
     </row>
-    <row r="73" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C73" s="2" t="s">
         <v>71</v>
       </c>
@@ -7039,29 +7536,35 @@
       <c r="O73" s="2">
         <v>1</v>
       </c>
-      <c r="P73" s="4">
-        <v>0</v>
-      </c>
-      <c r="U73" s="2">
+      <c r="P73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="68">
+        <v>0</v>
+      </c>
+      <c r="R73" s="4">
+        <v>0</v>
+      </c>
+      <c r="W73" s="2">
         <v>-3</v>
       </c>
-      <c r="V73" s="2">
+      <c r="X73" s="2">
         <v>-34</v>
       </c>
-      <c r="W73" s="2">
+      <c r="Y73" s="2">
         <v>-16</v>
       </c>
-      <c r="X73" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="4">
+      <c r="Z73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C74" s="2" t="s">
         <v>72</v>
       </c>
@@ -7101,29 +7604,35 @@
       <c r="O74" s="2">
         <v>0</v>
       </c>
-      <c r="P74" s="4">
+      <c r="P74" s="2">
         <v>-1</v>
       </c>
-      <c r="U74" s="2">
+      <c r="Q74" s="68">
+        <v>0</v>
+      </c>
+      <c r="R74" s="4">
+        <v>0</v>
+      </c>
+      <c r="W74" s="2">
         <v>6</v>
       </c>
-      <c r="V74" s="2">
-        <v>0</v>
-      </c>
-      <c r="W74" s="2">
+      <c r="X74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="2">
         <v>2</v>
       </c>
-      <c r="X74" s="2">
+      <c r="Z74" s="2">
         <v>-2</v>
       </c>
-      <c r="Y74" s="2">
+      <c r="AA74" s="2">
         <v>-11</v>
       </c>
-      <c r="Z74" s="4">
+      <c r="AB74" s="2">
         <v>-2</v>
       </c>
     </row>
-    <row r="75" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C75" s="2" t="s">
         <v>73</v>
       </c>
@@ -7163,31 +7672,37 @@
       <c r="O75" s="2">
         <v>3</v>
       </c>
-      <c r="P75" s="4">
+      <c r="P75" s="2">
         <v>8</v>
       </c>
-      <c r="U75" s="2">
+      <c r="Q75" s="68">
+        <v>14</v>
+      </c>
+      <c r="R75" s="4">
+        <v>-2</v>
+      </c>
+      <c r="W75" s="2">
         <v>65</v>
       </c>
-      <c r="V75" s="2">
+      <c r="X75" s="2">
         <v>146</v>
       </c>
-      <c r="W75" s="2">
+      <c r="Y75" s="2">
         <v>62</v>
       </c>
-      <c r="X75" s="2">
+      <c r="Z75" s="2">
         <v>66</v>
       </c>
-      <c r="Y75" s="2">
+      <c r="AA75" s="2">
         <v>41</v>
       </c>
-      <c r="Z75" s="4">
+      <c r="AB75" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C76" s="2" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="D76" s="2">
         <v>0</v>
@@ -7225,31 +7740,37 @@
       <c r="O76" s="2">
         <v>-4</v>
       </c>
-      <c r="P76" s="4">
+      <c r="P76" s="2">
         <v>-12</v>
       </c>
-      <c r="U76" s="2">
+      <c r="Q76" s="68">
+        <v>-101</v>
+      </c>
+      <c r="R76" s="4">
+        <v>-86</v>
+      </c>
+      <c r="W76" s="2">
         <v>-38</v>
       </c>
-      <c r="V76" s="2">
+      <c r="X76" s="2">
         <v>-62</v>
       </c>
-      <c r="W76" s="2">
+      <c r="Y76" s="2">
         <v>-54</v>
       </c>
-      <c r="X76" s="2">
+      <c r="Z76" s="2">
         <v>-22</v>
       </c>
-      <c r="Y76" s="2">
+      <c r="AA76" s="2">
         <v>-53</v>
       </c>
-      <c r="Z76" s="4">
+      <c r="AB76" s="2">
         <v>-47</v>
       </c>
     </row>
-    <row r="77" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C77" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D77" s="2">
         <v>-2</v>
@@ -7287,31 +7808,37 @@
       <c r="O77" s="2">
         <v>3</v>
       </c>
-      <c r="P77" s="4">
+      <c r="P77" s="2">
         <v>1</v>
       </c>
-      <c r="U77" s="2">
+      <c r="Q77" s="68">
+        <v>1</v>
+      </c>
+      <c r="R77" s="4">
+        <v>2</v>
+      </c>
+      <c r="W77" s="2">
         <v>4</v>
       </c>
-      <c r="V77" s="2">
+      <c r="X77" s="2">
         <v>1</v>
       </c>
-      <c r="W77" s="2">
+      <c r="Y77" s="2">
         <v>1</v>
       </c>
-      <c r="X77" s="2">
+      <c r="Z77" s="2">
         <v>4</v>
       </c>
-      <c r="Y77" s="2">
+      <c r="AA77" s="2">
         <v>8</v>
       </c>
-      <c r="Z77" s="4">
+      <c r="AB77" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C78" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D78" s="2">
         <v>0</v>
@@ -7349,115 +7876,133 @@
       <c r="O78" s="2">
         <v>2</v>
       </c>
-      <c r="P78" s="4">
-        <v>0</v>
-      </c>
-      <c r="U78" s="2">
-        <v>0</v>
-      </c>
-      <c r="V78" s="2">
+      <c r="P78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="68">
+        <v>0</v>
+      </c>
+      <c r="R78" s="4">
         <v>0</v>
       </c>
       <c r="W78" s="2">
+        <v>0</v>
+      </c>
+      <c r="X78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="2">
         <v>-6</v>
       </c>
-      <c r="X78" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z78" s="4">
+      <c r="Z78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" ref="D79:N79" si="47">SUM(D68:D78)</f>
+        <f t="shared" ref="D79:N79" si="56">SUM(D68:D78)</f>
         <v>-43</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>56</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>-13</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>-50</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>95</v>
       </c>
       <c r="J79" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>-13</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>31</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>-31</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>96</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>-21</v>
       </c>
       <c r="O79" s="1">
         <f>SUM(O68:O78)</f>
         <v>175</v>
       </c>
-      <c r="P79" s="16">
+      <c r="P79" s="1">
         <f>SUM(P68:P78)</f>
         <v>-27</v>
       </c>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
+      <c r="Q79" s="77">
+        <f t="shared" ref="Q79:S79" si="57">SUM(Q68:Q78)</f>
+        <v>98</v>
+      </c>
+      <c r="R79" s="16">
+        <f t="shared" si="57"/>
+        <v>76</v>
+      </c>
+      <c r="S79" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
       <c r="T79" s="1"/>
-      <c r="U79" s="1">
-        <f t="shared" ref="U79:Y79" si="48">SUM(U68:U78)</f>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1">
+        <f t="shared" ref="W79:AA79" si="58">SUM(W68:W78)</f>
         <v>81</v>
       </c>
-      <c r="V79" s="1">
-        <f t="shared" si="48"/>
+      <c r="X79" s="1">
+        <f t="shared" si="58"/>
         <v>42</v>
       </c>
-      <c r="W79" s="1">
-        <f t="shared" si="48"/>
+      <c r="Y79" s="1">
+        <f t="shared" si="58"/>
         <v>-53</v>
       </c>
-      <c r="X79" s="1">
-        <f t="shared" si="48"/>
+      <c r="Z79" s="1">
+        <f t="shared" si="58"/>
         <v>6</v>
       </c>
-      <c r="Y79" s="1">
-        <f t="shared" si="48"/>
+      <c r="AA79" s="1">
+        <f t="shared" si="58"/>
         <v>64</v>
       </c>
-      <c r="Z79" s="16">
-        <f>SUM(Z68:Z78)</f>
+      <c r="AB79" s="1">
+        <f>SUM(AB68:AB78)</f>
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C81" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D81" s="2">
         <v>48</v>
@@ -7495,31 +8040,37 @@
       <c r="O81" s="2">
         <v>16</v>
       </c>
-      <c r="P81" s="4">
+      <c r="P81" s="2">
         <v>24</v>
       </c>
-      <c r="U81" s="2">
+      <c r="Q81" s="68">
+        <v>22</v>
+      </c>
+      <c r="R81" s="4">
+        <v>0</v>
+      </c>
+      <c r="W81" s="2">
         <v>93</v>
       </c>
-      <c r="V81" s="2">
+      <c r="X81" s="2">
         <v>19</v>
       </c>
-      <c r="W81" s="2">
+      <c r="Y81" s="2">
         <v>70</v>
       </c>
-      <c r="X81" s="2">
+      <c r="Z81" s="2">
         <v>310</v>
       </c>
-      <c r="Y81" s="2">
+      <c r="AA81" s="2">
         <v>84</v>
       </c>
-      <c r="Z81" s="4">
+      <c r="AB81" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C82" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D82" s="2">
         <v>-32</v>
@@ -7557,31 +8108,37 @@
       <c r="O82" s="2">
         <v>-118</v>
       </c>
-      <c r="P82" s="4">
+      <c r="P82" s="2">
         <v>-1</v>
       </c>
-      <c r="U82" s="2">
+      <c r="Q82" s="68">
+        <v>-64</v>
+      </c>
+      <c r="R82" s="4">
+        <v>-22</v>
+      </c>
+      <c r="W82" s="2">
         <v>-136</v>
       </c>
-      <c r="V82" s="2">
+      <c r="X82" s="2">
         <v>-60</v>
       </c>
-      <c r="W82" s="2">
+      <c r="Y82" s="2">
         <v>-71</v>
       </c>
-      <c r="X82" s="2">
+      <c r="Z82" s="2">
         <v>-292</v>
       </c>
-      <c r="Y82" s="2">
+      <c r="AA82" s="2">
         <v>-157</v>
       </c>
-      <c r="Z82" s="4">
+      <c r="AB82" s="2">
         <v>-246</v>
       </c>
     </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C83" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D83" s="2">
         <v>-11</v>
@@ -7619,31 +8176,37 @@
       <c r="O83" s="2">
         <v>-7</v>
       </c>
-      <c r="P83" s="4">
+      <c r="P83" s="2">
         <v>-9</v>
       </c>
-      <c r="U83" s="2">
+      <c r="Q83" s="68">
+        <v>-10</v>
+      </c>
+      <c r="R83" s="4">
+        <v>-10</v>
+      </c>
+      <c r="W83" s="2">
         <v>-24</v>
       </c>
-      <c r="V83" s="2">
+      <c r="X83" s="2">
         <v>-19</v>
       </c>
-      <c r="W83" s="2">
+      <c r="Y83" s="2">
         <v>-30</v>
       </c>
-      <c r="X83" s="2">
+      <c r="Z83" s="2">
         <v>-28</v>
       </c>
-      <c r="Y83" s="2">
+      <c r="AA83" s="2">
         <v>-28</v>
       </c>
-      <c r="Z83" s="4">
+      <c r="AB83" s="2">
         <v>-33</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C84" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D84" s="2">
         <v>-4</v>
@@ -7681,31 +8244,37 @@
       <c r="O84" s="2">
         <v>-6</v>
       </c>
-      <c r="P84" s="4">
+      <c r="P84" s="2">
         <v>-5</v>
       </c>
-      <c r="U84" s="2">
+      <c r="Q84" s="68">
+        <v>-5</v>
+      </c>
+      <c r="R84" s="4">
+        <v>-4</v>
+      </c>
+      <c r="W84" s="2">
         <v>-25</v>
       </c>
-      <c r="V84" s="2">
+      <c r="X84" s="2">
         <v>-18</v>
       </c>
-      <c r="W84" s="2">
+      <c r="Y84" s="2">
         <v>-15</v>
       </c>
-      <c r="X84" s="2">
+      <c r="Z84" s="2">
         <v>-22</v>
       </c>
-      <c r="Y84" s="2">
+      <c r="AA84" s="2">
         <v>-33</v>
       </c>
-      <c r="Z84" s="4">
+      <c r="AB84" s="2">
         <v>-29</v>
       </c>
     </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C85" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2">
         <v>-1</v>
@@ -7740,31 +8309,37 @@
       <c r="O85" s="2">
         <v>-3</v>
       </c>
-      <c r="P85" s="4">
+      <c r="P85" s="2">
         <v>6</v>
       </c>
-      <c r="U85" s="2">
+      <c r="Q85" s="68">
+        <v>5</v>
+      </c>
+      <c r="R85" s="4">
+        <v>0</v>
+      </c>
+      <c r="W85" s="2">
         <v>-11</v>
       </c>
-      <c r="V85" s="2">
+      <c r="X85" s="2">
         <v>-10</v>
       </c>
-      <c r="W85" s="2">
+      <c r="Y85" s="2">
         <v>-9</v>
       </c>
-      <c r="X85" s="2">
+      <c r="Z85" s="2">
         <v>-6</v>
       </c>
-      <c r="Y85" s="2">
+      <c r="AA85" s="2">
         <v>-4</v>
       </c>
-      <c r="Z85" s="4">
+      <c r="AB85" s="2">
         <v>-3</v>
       </c>
     </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C86" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D86" s="2">
         <v>-2</v>
@@ -7802,31 +8377,37 @@
       <c r="O86" s="2">
         <v>-30</v>
       </c>
-      <c r="P86" s="4">
-        <v>0</v>
-      </c>
-      <c r="U86" s="2">
-        <v>0</v>
-      </c>
-      <c r="V86" s="2">
+      <c r="P86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="68">
+        <v>0</v>
+      </c>
+      <c r="R86" s="4">
+        <v>0</v>
+      </c>
+      <c r="W86" s="2">
+        <v>0</v>
+      </c>
+      <c r="X86" s="2">
         <v>-14</v>
       </c>
-      <c r="W86" s="2">
+      <c r="Y86" s="2">
         <v>7</v>
       </c>
-      <c r="X86" s="2">
+      <c r="Z86" s="2">
         <v>-3</v>
       </c>
-      <c r="Y86" s="2">
+      <c r="AA86" s="2">
         <v>-2</v>
       </c>
-      <c r="Z86" s="4">
+      <c r="AB86" s="2">
         <v>-32</v>
       </c>
     </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C87" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D87" s="2">
         <v>0</v>
@@ -7864,28 +8445,34 @@
       <c r="O87" s="2">
         <v>1</v>
       </c>
-      <c r="P87" s="4">
+      <c r="P87" s="2">
         <v>-22</v>
       </c>
-      <c r="U87" s="2">
-        <v>0</v>
+      <c r="Q87" s="68">
+        <v>-14</v>
+      </c>
+      <c r="R87" s="4">
+        <v>2</v>
       </c>
       <c r="W87" s="2">
         <v>0</v>
       </c>
-      <c r="X87" s="2">
+      <c r="Y87" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="2">
         <v>-53</v>
       </c>
-      <c r="Y87" s="2">
+      <c r="AA87" s="2">
         <v>-11</v>
       </c>
-      <c r="Z87" s="4">
+      <c r="AB87" s="2">
         <v>-47</v>
       </c>
     </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C88" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D88" s="2">
         <v>-5</v>
@@ -7923,38 +8510,44 @@
       <c r="O88" s="2">
         <v>-28</v>
       </c>
-      <c r="P88" s="4">
-        <v>0</v>
-      </c>
-      <c r="U88" s="2">
+      <c r="P88" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="68">
+        <v>-52</v>
+      </c>
+      <c r="R88" s="4">
+        <v>0</v>
+      </c>
+      <c r="W88" s="2">
         <v>-62</v>
       </c>
-      <c r="V88" s="2">
+      <c r="X88" s="2">
         <v>-18</v>
       </c>
-      <c r="W88" s="2">
+      <c r="Y88" s="2">
         <v>-58</v>
       </c>
-      <c r="X88" s="2">
+      <c r="Z88" s="2">
         <v>-46</v>
       </c>
-      <c r="Y88" s="2">
+      <c r="AA88" s="2">
         <v>-46</v>
       </c>
-      <c r="Z88" s="4">
+      <c r="AB88" s="2">
         <v>-72</v>
       </c>
     </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" ref="D89:N89" si="49">SUM(D81:D88)</f>
+        <f t="shared" ref="D89:N89" si="59">SUM(D81:D88)</f>
         <v>-7</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>-83</v>
       </c>
       <c r="F89" s="1">
@@ -7962,172 +8555,196 @@
         <v>-21</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>-29</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>-41</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>-97</v>
       </c>
       <c r="J89" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>-49</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>-57</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>-41</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>-119</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>-47</v>
       </c>
       <c r="O89" s="1">
         <f>SUM(O81:O88)</f>
         <v>-175</v>
       </c>
-      <c r="P89" s="16">
+      <c r="P89" s="1">
         <f>SUM(P81:P88)</f>
         <v>-7</v>
       </c>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
+      <c r="Q89" s="77">
+        <f t="shared" ref="Q89:S89" si="60">SUM(Q81:Q88)</f>
+        <v>-118</v>
+      </c>
+      <c r="R89" s="16">
+        <f t="shared" si="60"/>
+        <v>-34</v>
+      </c>
+      <c r="S89" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
       <c r="T89" s="1"/>
-      <c r="U89" s="1">
-        <f t="shared" ref="U89" si="50">SUM(U81:U88)</f>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1">
+        <f t="shared" ref="W89" si="61">SUM(W81:W88)</f>
         <v>-165</v>
       </c>
-      <c r="V89" s="1">
-        <f>SUM(V81:V88)</f>
+      <c r="X89" s="1">
+        <f>SUM(X81:X88)</f>
         <v>-120</v>
       </c>
-      <c r="W89" s="1">
-        <f t="shared" ref="W89:Y89" si="51">SUM(W81:W88)</f>
+      <c r="Y89" s="1">
+        <f t="shared" ref="Y89:AA89" si="62">SUM(Y81:Y88)</f>
         <v>-106</v>
       </c>
-      <c r="X89" s="1">
-        <f t="shared" si="51"/>
+      <c r="Z89" s="1">
+        <f t="shared" si="62"/>
         <v>-140</v>
       </c>
-      <c r="Y89" s="1">
-        <f t="shared" si="51"/>
+      <c r="AA89" s="1">
+        <f t="shared" si="62"/>
         <v>-197</v>
       </c>
-      <c r="Z89" s="16">
-        <f>SUM(Z81:Z88)</f>
+      <c r="AB89" s="1">
+        <f>SUM(AB81:AB88)</f>
         <v>-381</v>
       </c>
     </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C91" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" ref="D91:N91" si="52">D66+D79+D89</f>
+        <f t="shared" ref="D91:N91" si="63">D66+D79+D89</f>
         <v>-47</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>-21</v>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>-6</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>-49</v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>16</v>
       </c>
       <c r="J91" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>8</v>
       </c>
       <c r="K91" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>38</v>
       </c>
       <c r="L91" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>-38</v>
       </c>
       <c r="M91" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>-9</v>
       </c>
       <c r="N91" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>-24</v>
       </c>
       <c r="O91" s="2">
         <f>O66+O79+O89</f>
         <v>2</v>
       </c>
-      <c r="P91" s="4">
+      <c r="P91" s="2">
         <f>P66+P79+P89</f>
         <v>3</v>
       </c>
-      <c r="U91" s="2">
-        <f t="shared" ref="U91:V91" si="53">U66+U79+U89</f>
+      <c r="Q91" s="68">
+        <f t="shared" ref="Q91:S91" si="64">Q66+Q79+Q89</f>
+        <v>22</v>
+      </c>
+      <c r="R91" s="4">
+        <f t="shared" si="64"/>
+        <v>96</v>
+      </c>
+      <c r="S91" s="2">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="W91" s="2">
+        <f t="shared" ref="W91:X91" si="65">W66+W79+W89</f>
         <v>15</v>
       </c>
-      <c r="V91" s="2">
-        <f t="shared" si="53"/>
+      <c r="X91" s="2">
+        <f t="shared" si="65"/>
         <v>118</v>
       </c>
-      <c r="W91" s="2">
-        <f t="shared" ref="W91:Y91" si="54">W66+W79+W89</f>
+      <c r="Y91" s="2">
+        <f t="shared" ref="Y91:AA91" si="66">Y66+Y79+Y89</f>
         <v>-38</v>
       </c>
-      <c r="X91" s="2">
-        <f t="shared" si="54"/>
+      <c r="Z91" s="2">
+        <f t="shared" si="66"/>
         <v>-70</v>
       </c>
-      <c r="Y91" s="2">
-        <f t="shared" si="54"/>
+      <c r="AA91" s="2">
+        <f t="shared" si="66"/>
         <v>61</v>
       </c>
-      <c r="Z91" s="4">
-        <f>Z66+Z79+Z89</f>
+      <c r="AB91" s="2">
+        <f>AB66+AB79+AB89</f>
         <v>-69</v>
       </c>
     </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C93" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" ref="D93:N93" si="55">D66+D68+D70+D72</f>
+        <f t="shared" ref="D93:N93" si="67">D66+D68+D70+D72</f>
         <v>-5</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>24</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>13</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>11</v>
       </c>
       <c r="H93" s="2">
@@ -8139,55 +8756,67 @@
         <v>96</v>
       </c>
       <c r="J93" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>58</v>
       </c>
       <c r="K93" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>108</v>
       </c>
       <c r="L93" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="M93" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>106</v>
       </c>
       <c r="N93" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>38</v>
       </c>
       <c r="O93" s="2">
         <f>O66+O68+O70+O72</f>
         <v>165</v>
       </c>
-      <c r="P93" s="4">
+      <c r="P93" s="2">
         <f>P66+P68+P70+P72</f>
         <v>14</v>
       </c>
-      <c r="U93" s="2">
-        <f t="shared" ref="U93:V93" si="56">U66+U68+U70+U72</f>
+      <c r="Q93" s="68">
+        <f t="shared" ref="Q93:S93" si="68">Q66+Q68+Q70+Q72</f>
+        <v>226</v>
+      </c>
+      <c r="R93" s="4">
+        <f t="shared" si="68"/>
+        <v>216</v>
+      </c>
+      <c r="S93" s="2">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="W93" s="2">
+        <f t="shared" ref="W93:X93" si="69">W66+W68+W70+W72</f>
         <v>126</v>
       </c>
-      <c r="V93" s="2">
-        <f t="shared" si="56"/>
+      <c r="X93" s="2">
+        <f t="shared" si="69"/>
         <v>180</v>
       </c>
-      <c r="W93" s="2">
-        <f t="shared" ref="W93:Y93" si="57">W66+W68+W70+W72</f>
+      <c r="Y93" s="2">
+        <f t="shared" ref="Y93:AA93" si="70">Y66+Y68+Y70+Y72</f>
         <v>53</v>
       </c>
-      <c r="X93" s="2">
-        <f t="shared" si="57"/>
+      <c r="Z93" s="2">
+        <f t="shared" si="70"/>
         <v>34</v>
       </c>
-      <c r="Y93" s="2">
-        <f t="shared" si="57"/>
+      <c r="AA93" s="2">
+        <f t="shared" si="70"/>
         <v>271</v>
       </c>
-      <c r="Z93" s="4">
-        <f>Z66+Z68+Z70+Z72</f>
+      <c r="AB93" s="2">
+        <f>AB66+AB68+AB70+AB72</f>
         <v>312</v>
       </c>
     </row>
@@ -8203,19 +8832,17 @@
   <dimension ref="B3:S53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P54" sqref="P54"/>
+      <selection pane="bottomRight" activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="46" style="2" customWidth="1"/>
-    <col min="3" max="15" width="10.83203125" style="2"/>
-    <col min="16" max="16" width="10.83203125" style="4"/>
-    <col min="17" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
@@ -8224,60 +8851,60 @@
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="57" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="56" t="s">
         <v>13</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="R4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="S4" s="7" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="59" t="s">
-        <v>158</v>
+      <c r="B5" s="58" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -8320,13 +8947,20 @@
       <c r="O6" s="1">
         <v>202</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="1">
         <v>213</v>
       </c>
+      <c r="Q6" s="1">
+        <v>214</v>
+      </c>
+      <c r="R6" s="1">
+        <v>222</v>
+      </c>
+      <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
-        <v>170</v>
+      <c r="B7" s="53" t="s">
+        <v>167</v>
       </c>
       <c r="D7" s="11">
         <v>94</v>
@@ -8364,13 +8998,20 @@
       <c r="O7" s="11">
         <v>125</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="11">
         <v>125</v>
       </c>
+      <c r="Q7" s="11">
+        <v>133</v>
+      </c>
+      <c r="R7" s="11">
+        <v>136</v>
+      </c>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="54" t="s">
-        <v>171</v>
+      <c r="B8" s="53" t="s">
+        <v>168</v>
       </c>
       <c r="D8" s="11">
         <v>33</v>
@@ -8408,13 +9049,20 @@
       <c r="O8" s="11">
         <v>43</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="11">
         <v>43</v>
       </c>
+      <c r="Q8" s="11">
+        <v>41</v>
+      </c>
+      <c r="R8" s="11">
+        <v>44</v>
+      </c>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
-        <v>168</v>
+      <c r="B9" s="53" t="s">
+        <v>165</v>
       </c>
       <c r="D9" s="11">
         <v>16</v>
@@ -8452,61 +9100,72 @@
       <c r="O9" s="11">
         <v>30</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="11">
         <v>30</v>
       </c>
+      <c r="Q9" s="11">
+        <v>40</v>
+      </c>
+      <c r="R9" s="11">
+        <v>41</v>
+      </c>
+      <c r="S9" s="11"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="53">
+      <c r="B10" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="52">
         <v>10</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="52">
         <v>5</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="52">
         <v>6</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="52">
         <v>8</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="52">
         <v>7</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="52">
         <v>7</v>
       </c>
-      <c r="J10" s="53">
+      <c r="J10" s="52">
         <v>4</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="52">
         <v>8</v>
       </c>
-      <c r="L10" s="53">
+      <c r="L10" s="52">
         <v>6</v>
       </c>
-      <c r="M10" s="53">
+      <c r="M10" s="52">
         <v>2</v>
       </c>
-      <c r="N10" s="53">
+      <c r="N10" s="52">
         <v>2</v>
       </c>
-      <c r="O10" s="53">
+      <c r="O10" s="52">
         <v>4</v>
       </c>
-      <c r="P10" s="62">
+      <c r="P10" s="52">
         <v>4</v>
       </c>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
+      <c r="Q10" s="52">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="52">
+        <v>1</v>
+      </c>
+      <c r="S10" s="52"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="60" t="s">
-        <v>135</v>
+      <c r="B11" s="59" t="s">
+        <v>134</v>
       </c>
       <c r="D11" s="1">
         <v>20</v>
@@ -8544,61 +9203,72 @@
       <c r="O11" s="1">
         <v>24</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="1">
         <v>32</v>
       </c>
+      <c r="Q11" s="1">
+        <v>28</v>
+      </c>
+      <c r="R11" s="1">
+        <v>24</v>
+      </c>
+      <c r="S11" s="1"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="58">
+      <c r="B12" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="57">
         <v>0.13</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="57">
         <v>0.16</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="57">
         <v>0.15</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="57">
         <v>0.15</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="57">
         <v>0.15</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="57">
         <v>0.16</v>
       </c>
-      <c r="J12" s="58">
+      <c r="J12" s="57">
         <v>0.13</v>
       </c>
-      <c r="K12" s="58">
+      <c r="K12" s="57">
         <v>0.13</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="57">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M12" s="58">
+      <c r="M12" s="57">
         <v>0.15</v>
       </c>
-      <c r="N12" s="58">
+      <c r="N12" s="57">
         <v>0.12</v>
       </c>
-      <c r="O12" s="58">
+      <c r="O12" s="57">
         <v>0.12</v>
       </c>
-      <c r="P12" s="63">
+      <c r="P12" s="57">
         <v>0.15</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
+      <c r="Q12" s="57">
+        <v>0.13</v>
+      </c>
+      <c r="R12" s="57">
+        <v>0.11</v>
+      </c>
+      <c r="S12" s="57"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="60" t="s">
-        <v>161</v>
+      <c r="B13" s="59" t="s">
+        <v>158</v>
       </c>
       <c r="D13" s="1">
         <v>14</v>
@@ -8636,105 +9306,122 @@
       <c r="O13" s="1">
         <v>6</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="1">
         <v>25</v>
       </c>
+      <c r="Q13" s="1">
+        <v>20</v>
+      </c>
+      <c r="R13" s="1">
+        <v>11</v>
+      </c>
+      <c r="S13" s="1"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>0.09</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <v>0.12</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <v>0.12</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <v>0.04</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <v>0.12</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="36">
         <v>0.12</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="36">
         <v>0.09</v>
       </c>
-      <c r="K14" s="58">
+      <c r="K14" s="57">
         <v>0.09</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="36">
         <v>0.11</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="36">
         <v>0.11</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="36">
         <v>0.09</v>
       </c>
-      <c r="O14" s="58">
+      <c r="O14" s="57">
         <v>0.03</v>
       </c>
-      <c r="P14" s="63">
+      <c r="P14" s="57">
         <v>0.12</v>
       </c>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
+      <c r="Q14" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="R14" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="S14" s="57"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52">
+      <c r="B15" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51">
         <v>1</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="51">
         <v>2</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="51">
         <v>2</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="51">
         <v>1</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="51">
         <v>1</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="51">
         <v>1</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J15" s="51">
         <v>2</v>
       </c>
       <c r="K15" s="2">
         <v>2</v>
       </c>
-      <c r="L15" s="52">
-        <v>0</v>
-      </c>
-      <c r="M15" s="52">
+      <c r="L15" s="51">
+        <v>0</v>
+      </c>
+      <c r="M15" s="51">
         <v>1</v>
       </c>
-      <c r="N15" s="52">
+      <c r="N15" s="51">
         <v>2</v>
       </c>
       <c r="O15" s="2">
         <v>-1</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="2">
         <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D16" s="2">
         <v>4</v>
@@ -8772,61 +9459,71 @@
       <c r="O16" s="2">
         <v>-26</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="2">
         <v>18</v>
       </c>
+      <c r="Q16" s="2">
+        <v>19</v>
+      </c>
+      <c r="R16" s="2">
+        <v>-4</v>
+      </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36">
+      <c r="B17" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35">
         <v>-4</v>
       </c>
-      <c r="E17" s="36">
-        <v>0</v>
-      </c>
-      <c r="F17" s="36">
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35">
         <v>1</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="35">
         <v>-12</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="35">
         <v>-3</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="35">
         <v>-5</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="35">
         <v>-3</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="35">
         <v>-9</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="35">
         <v>-2</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="35">
         <v>-5</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="35">
         <v>-5</v>
       </c>
-      <c r="O17" s="36">
+      <c r="O17" s="35">
         <v>1</v>
       </c>
-      <c r="P17" s="65">
+      <c r="P17" s="35">
         <v>-10</v>
       </c>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
+      <c r="Q17" s="35">
+        <v>-8</v>
+      </c>
+      <c r="R17" s="35">
+        <v>-2</v>
+      </c>
+      <c r="S17" s="35"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D18" s="1">
         <v>15</v>
@@ -8864,57 +9561,71 @@
       <c r="O18" s="1">
         <v>-21</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="1">
         <v>35</v>
       </c>
+      <c r="Q18" s="1">
+        <v>31</v>
+      </c>
+      <c r="R18" s="1">
+        <v>6</v>
+      </c>
+      <c r="S18" s="1"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="37">
+      <c r="B19" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="36">
         <v>0.09</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="36">
         <v>-0.01</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="36">
         <v>-0.01</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="36">
         <v>0.1</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <v>0.06</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="36">
         <v>0.1</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="36">
         <v>0.06</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="36">
         <v>0.03</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="36">
         <v>0.04</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="36">
         <v>0.08</v>
       </c>
-      <c r="N19" s="37">
+      <c r="N19" s="36">
         <v>0.09</v>
       </c>
-      <c r="O19" s="37">
+      <c r="O19" s="36">
         <v>-0.1</v>
       </c>
-      <c r="P19" s="64">
+      <c r="P19" s="36">
         <v>0.16</v>
       </c>
+      <c r="Q19" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="R19" s="36">
+        <v>0.03</v>
+      </c>
+      <c r="S19" s="36"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="59" t="s">
-        <v>166</v>
+      <c r="B21" s="58" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
@@ -8957,13 +9668,20 @@
       <c r="O22" s="1">
         <v>75</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="1">
         <v>82</v>
       </c>
+      <c r="Q22" s="1">
+        <v>100</v>
+      </c>
+      <c r="R22" s="1">
+        <v>87</v>
+      </c>
+      <c r="S22" s="1"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="54" t="s">
-        <v>172</v>
+      <c r="B23" s="53" t="s">
+        <v>169</v>
       </c>
       <c r="D23" s="11">
         <v>84</v>
@@ -9001,61 +9719,72 @@
       <c r="O23" s="11">
         <v>75</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="11">
         <v>81</v>
       </c>
+      <c r="Q23" s="11">
+        <v>99</v>
+      </c>
+      <c r="R23" s="11">
+        <v>87</v>
+      </c>
+      <c r="S23" s="11"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="53">
+      <c r="B24" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="52">
         <v>9</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="52">
         <v>11</v>
       </c>
-      <c r="F24" s="53">
+      <c r="F24" s="52">
         <v>11</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="52">
         <v>10</v>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="52">
         <v>5</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="52">
         <v>1</v>
       </c>
-      <c r="J24" s="53">
-        <v>0</v>
-      </c>
-      <c r="K24" s="36">
+      <c r="J24" s="52">
+        <v>0</v>
+      </c>
+      <c r="K24" s="35">
         <v>1</v>
       </c>
-      <c r="L24" s="53">
+      <c r="L24" s="52">
         <v>1</v>
       </c>
-      <c r="M24" s="53">
+      <c r="M24" s="52">
         <v>1</v>
       </c>
-      <c r="N24" s="53">
-        <v>0</v>
-      </c>
-      <c r="O24" s="53">
-        <v>0</v>
-      </c>
-      <c r="P24" s="62">
+      <c r="N24" s="52">
+        <v>0</v>
+      </c>
+      <c r="O24" s="52">
+        <v>0</v>
+      </c>
+      <c r="P24" s="52">
         <v>1</v>
       </c>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
+      <c r="Q24" s="52">
+        <v>1</v>
+      </c>
+      <c r="R24" s="52">
+        <v>1</v>
+      </c>
+      <c r="S24" s="52"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="60" t="s">
-        <v>135</v>
+      <c r="B25" s="59" t="s">
+        <v>134</v>
       </c>
       <c r="D25" s="1">
         <v>31</v>
@@ -9093,61 +9822,72 @@
       <c r="O25" s="1">
         <v>16</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="1">
         <v>15</v>
       </c>
+      <c r="Q25" s="1">
+        <v>21</v>
+      </c>
+      <c r="R25" s="1">
+        <v>21</v>
+      </c>
+      <c r="S25" s="1"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="58">
+      <c r="B26" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="57">
         <v>0.34</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="57">
         <v>0.18</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="57">
         <v>0.17</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G26" s="57">
         <v>0.18</v>
       </c>
-      <c r="H26" s="58">
+      <c r="H26" s="57">
         <v>0.16</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="57">
         <v>0.15</v>
       </c>
-      <c r="J26" s="58">
+      <c r="J26" s="57">
         <v>0.19</v>
       </c>
-      <c r="K26" s="58">
+      <c r="K26" s="57">
         <v>0.19</v>
       </c>
-      <c r="L26" s="58">
+      <c r="L26" s="57">
         <v>0.17</v>
       </c>
-      <c r="M26" s="58">
+      <c r="M26" s="57">
         <v>0.21</v>
       </c>
-      <c r="N26" s="58">
+      <c r="N26" s="57">
         <v>0.19</v>
       </c>
-      <c r="O26" s="58">
+      <c r="O26" s="57">
         <v>0.21</v>
       </c>
-      <c r="P26" s="63">
+      <c r="P26" s="57">
         <v>0.19</v>
       </c>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
+      <c r="Q26" s="57">
+        <v>0.21</v>
+      </c>
+      <c r="R26" s="57">
+        <v>0.24</v>
+      </c>
+      <c r="S26" s="57"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="60" t="s">
-        <v>161</v>
+      <c r="B27" s="59" t="s">
+        <v>158</v>
       </c>
       <c r="D27" s="1">
         <v>22</v>
@@ -9185,105 +9925,122 @@
       <c r="O27" s="1">
         <v>9</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27" s="1">
         <v>9</v>
       </c>
+      <c r="Q27" s="1">
+        <v>11</v>
+      </c>
+      <c r="R27" s="1">
+        <v>12</v>
+      </c>
+      <c r="S27" s="1"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="36">
         <v>0.24</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="36">
         <v>0.12</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="36">
         <v>0.09</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="36">
         <v>0.1</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="36">
         <v>0.08</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="36">
         <v>0.06</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="36">
         <v>0.1</v>
       </c>
-      <c r="K28" s="58">
+      <c r="K28" s="57">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="36">
         <v>0.06</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="36">
         <v>0.11</v>
       </c>
-      <c r="N28" s="37">
+      <c r="N28" s="36">
         <v>0.09</v>
       </c>
-      <c r="O28" s="58">
+      <c r="O28" s="57">
         <v>0.11</v>
       </c>
-      <c r="P28" s="63">
+      <c r="P28" s="57">
         <v>0.11</v>
       </c>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
+      <c r="Q28" s="57">
+        <v>0.11</v>
+      </c>
+      <c r="R28" s="57">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S28" s="57"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52">
+      <c r="B29" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51">
         <v>2</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="51">
         <v>3</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="51">
         <v>3</v>
       </c>
-      <c r="G29" s="52">
+      <c r="G29" s="51">
         <v>1</v>
       </c>
-      <c r="H29" s="52">
+      <c r="H29" s="51">
         <v>2</v>
       </c>
-      <c r="I29" s="52">
+      <c r="I29" s="51">
         <v>1</v>
       </c>
-      <c r="J29" s="52">
+      <c r="J29" s="51">
         <v>4</v>
       </c>
       <c r="K29" s="2">
         <v>3</v>
       </c>
-      <c r="L29" s="52">
+      <c r="L29" s="51">
         <v>3</v>
       </c>
-      <c r="M29" s="52">
+      <c r="M29" s="51">
         <v>3</v>
       </c>
-      <c r="N29" s="52">
+      <c r="N29" s="51">
         <v>1</v>
       </c>
       <c r="O29" s="2">
         <v>-1</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="2">
         <v>4</v>
       </c>
+      <c r="Q29" s="2">
+        <v>10</v>
+      </c>
+      <c r="R29" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="54" t="s">
-        <v>172</v>
+      <c r="B30" s="53" t="s">
+        <v>169</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11">
@@ -9312,13 +10069,18 @@
       <c r="O30" s="11">
         <v>0</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="11">
         <v>2</v>
       </c>
+      <c r="Q30" s="11">
+        <v>2</v>
+      </c>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="54" t="s">
-        <v>159</v>
+      <c r="B31" s="53" t="s">
+        <v>156</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11">
@@ -9347,13 +10109,18 @@
       <c r="O31" s="11">
         <v>-1</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31" s="11">
         <v>2</v>
       </c>
+      <c r="Q31" s="11">
+        <v>8</v>
+      </c>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D32" s="2">
         <v>-4</v>
@@ -9391,61 +10158,71 @@
       <c r="O32" s="2">
         <v>1</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="2">
         <v>-12</v>
       </c>
+      <c r="Q32" s="2">
+        <v>-7</v>
+      </c>
+      <c r="R32" s="2">
+        <v>-4</v>
+      </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36">
+      <c r="B33" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35">
         <v>1</v>
       </c>
-      <c r="E33" s="36">
-        <v>0</v>
-      </c>
-      <c r="F33" s="36">
-        <v>0</v>
-      </c>
-      <c r="G33" s="36">
+      <c r="E33" s="35">
+        <v>0</v>
+      </c>
+      <c r="F33" s="35">
+        <v>0</v>
+      </c>
+      <c r="G33" s="35">
         <v>-3</v>
       </c>
-      <c r="H33" s="36">
-        <v>0</v>
-      </c>
-      <c r="I33" s="36">
-        <v>0</v>
-      </c>
-      <c r="J33" s="36">
+      <c r="H33" s="35">
+        <v>0</v>
+      </c>
+      <c r="I33" s="35">
+        <v>0</v>
+      </c>
+      <c r="J33" s="35">
         <v>-1</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="35">
         <v>-1</v>
       </c>
-      <c r="L33" s="36">
-        <v>0</v>
-      </c>
-      <c r="M33" s="36">
+      <c r="L33" s="35">
+        <v>0</v>
+      </c>
+      <c r="M33" s="35">
         <v>1</v>
       </c>
-      <c r="N33" s="36">
+      <c r="N33" s="35">
         <v>-1</v>
       </c>
-      <c r="O33" s="36">
+      <c r="O33" s="35">
         <v>-2</v>
       </c>
-      <c r="P33" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
+      <c r="P33" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="35">
+        <v>0</v>
+      </c>
+      <c r="R33" s="35">
+        <v>0</v>
+      </c>
+      <c r="S33" s="35"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D34" s="1">
         <v>21</v>
@@ -9483,57 +10260,71 @@
       <c r="O34" s="1">
         <v>7</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="1">
         <v>1</v>
       </c>
+      <c r="Q34" s="1">
+        <v>15</v>
+      </c>
+      <c r="R34" s="1">
+        <v>12</v>
+      </c>
+      <c r="S34" s="1"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="37">
+      <c r="B35" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="36">
         <v>0.23</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="36">
         <v>0.11</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="36">
         <v>0.08</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="36">
         <v>0.02</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="36">
         <v>0.04</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="36">
         <v>0.03</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35" s="36">
         <v>0.11</v>
       </c>
-      <c r="K35" s="24">
+      <c r="K35" s="23">
         <v>-0.01</v>
       </c>
-      <c r="L35" s="37">
+      <c r="L35" s="36">
         <v>0.1</v>
       </c>
-      <c r="M35" s="37">
+      <c r="M35" s="36">
         <v>0.18</v>
       </c>
-      <c r="N35" s="37">
+      <c r="N35" s="36">
         <v>-0.02</v>
       </c>
-      <c r="O35" s="37">
+      <c r="O35" s="36">
         <v>0.1</v>
       </c>
-      <c r="P35" s="64">
+      <c r="P35" s="36">
         <v>0.02</v>
       </c>
+      <c r="Q35" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="R35" s="36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S35" s="36"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="59" t="s">
-        <v>174</v>
+      <c r="B37" s="58" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
@@ -9576,13 +10367,20 @@
       <c r="O38" s="1">
         <v>4</v>
       </c>
-      <c r="P38" s="16">
+      <c r="P38" s="1">
         <v>4</v>
       </c>
+      <c r="Q38" s="1">
+        <v>4</v>
+      </c>
+      <c r="R38" s="1">
+        <v>4</v>
+      </c>
+      <c r="S38" s="1"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="54" t="s">
-        <v>175</v>
+      <c r="B39" s="53" t="s">
+        <v>172</v>
       </c>
       <c r="D39" s="11">
         <v>4</v>
@@ -9620,61 +10418,72 @@
       <c r="O39" s="11">
         <v>4</v>
       </c>
-      <c r="P39" s="17">
+      <c r="P39" s="11">
         <v>4</v>
       </c>
+      <c r="Q39" s="11">
+        <v>4</v>
+      </c>
+      <c r="R39" s="11">
+        <v>4</v>
+      </c>
+      <c r="S39" s="11"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="53">
+      <c r="B40" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="52">
         <v>-7</v>
       </c>
-      <c r="E40" s="53">
+      <c r="E40" s="52">
         <v>-1</v>
       </c>
-      <c r="F40" s="53">
-        <v>0</v>
-      </c>
-      <c r="G40" s="53">
-        <v>0</v>
-      </c>
-      <c r="H40" s="53">
-        <v>0</v>
-      </c>
-      <c r="I40" s="53">
-        <v>0</v>
-      </c>
-      <c r="J40" s="53">
-        <v>0</v>
-      </c>
-      <c r="K40" s="53">
-        <v>0</v>
-      </c>
-      <c r="L40" s="53">
-        <v>0</v>
-      </c>
-      <c r="M40" s="53">
-        <v>0</v>
-      </c>
-      <c r="N40" s="53">
-        <v>0</v>
-      </c>
-      <c r="O40" s="53">
-        <v>0</v>
-      </c>
-      <c r="P40" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
+      <c r="F40" s="52">
+        <v>0</v>
+      </c>
+      <c r="G40" s="52">
+        <v>0</v>
+      </c>
+      <c r="H40" s="52">
+        <v>0</v>
+      </c>
+      <c r="I40" s="52">
+        <v>0</v>
+      </c>
+      <c r="J40" s="52">
+        <v>0</v>
+      </c>
+      <c r="K40" s="52">
+        <v>0</v>
+      </c>
+      <c r="L40" s="52">
+        <v>0</v>
+      </c>
+      <c r="M40" s="52">
+        <v>0</v>
+      </c>
+      <c r="N40" s="52">
+        <v>0</v>
+      </c>
+      <c r="O40" s="52">
+        <v>0</v>
+      </c>
+      <c r="P40" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="52">
+        <v>0</v>
+      </c>
+      <c r="R40" s="52">
+        <v>0</v>
+      </c>
+      <c r="S40" s="52"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B41" s="60" t="s">
-        <v>135</v>
+      <c r="B41" s="59" t="s">
+        <v>134</v>
       </c>
       <c r="D41" s="1">
         <v>-8</v>
@@ -9712,13 +10521,20 @@
       <c r="O41" s="1">
         <v>-3</v>
       </c>
-      <c r="P41" s="16">
+      <c r="P41" s="1">
         <v>-1</v>
       </c>
+      <c r="Q41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R41" s="1">
+        <v>-3</v>
+      </c>
+      <c r="S41" s="1"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="60" t="s">
-        <v>161</v>
+      <c r="B42" s="59" t="s">
+        <v>158</v>
       </c>
       <c r="D42" s="1">
         <v>-9</v>
@@ -9741,7 +10557,7 @@
       <c r="J42" s="1">
         <v>-3</v>
       </c>
-      <c r="K42" s="56">
+      <c r="K42" s="55">
         <v>-4</v>
       </c>
       <c r="L42" s="1">
@@ -9753,64 +10569,75 @@
       <c r="N42" s="1">
         <v>-3</v>
       </c>
-      <c r="O42" s="56">
+      <c r="O42" s="55">
         <v>-4</v>
       </c>
-      <c r="P42" s="68">
+      <c r="P42" s="55">
         <v>-2</v>
       </c>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
+      <c r="Q42" s="55">
+        <v>-2</v>
+      </c>
+      <c r="R42" s="55">
+        <v>-4</v>
+      </c>
+      <c r="S42" s="55"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61">
+      <c r="B43" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60">
         <v>61</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="60">
         <v>41</v>
       </c>
-      <c r="F43" s="61">
+      <c r="F43" s="60">
         <v>100</v>
       </c>
-      <c r="G43" s="61">
+      <c r="G43" s="60">
         <v>98</v>
       </c>
-      <c r="H43" s="61">
+      <c r="H43" s="60">
         <v>56</v>
       </c>
-      <c r="I43" s="61">
+      <c r="I43" s="60">
         <v>139</v>
       </c>
-      <c r="J43" s="61">
+      <c r="J43" s="60">
         <v>132</v>
       </c>
       <c r="K43" s="1">
         <v>63</v>
       </c>
-      <c r="L43" s="61">
+      <c r="L43" s="60">
         <v>88</v>
       </c>
-      <c r="M43" s="61">
+      <c r="M43" s="60">
         <v>142</v>
       </c>
-      <c r="N43" s="61">
+      <c r="N43" s="60">
         <v>115</v>
       </c>
       <c r="O43" s="1">
         <v>117</v>
       </c>
-      <c r="P43" s="16">
+      <c r="P43" s="1">
         <v>116</v>
       </c>
+      <c r="Q43" s="1">
+        <v>197</v>
+      </c>
+      <c r="R43" s="1">
+        <v>128</v>
+      </c>
+      <c r="S43" s="1"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B44" s="54" t="s">
-        <v>177</v>
+      <c r="B44" s="53" t="s">
+        <v>174</v>
       </c>
       <c r="D44" s="11">
         <v>61</v>
@@ -9848,13 +10675,20 @@
       <c r="O44" s="11">
         <v>100</v>
       </c>
-      <c r="P44" s="17">
+      <c r="P44" s="11">
         <v>86</v>
       </c>
+      <c r="Q44" s="11">
+        <v>157</v>
+      </c>
+      <c r="R44" s="11">
+        <v>97</v>
+      </c>
+      <c r="S44" s="11"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="54" t="s">
-        <v>178</v>
+      <c r="B45" s="53" t="s">
+        <v>175</v>
       </c>
       <c r="D45" s="11">
         <v>0</v>
@@ -9892,60 +10726,71 @@
       <c r="O45" s="11">
         <v>18</v>
       </c>
-      <c r="P45" s="17">
+      <c r="P45" s="11">
         <v>30</v>
       </c>
+      <c r="Q45" s="11">
+        <v>40</v>
+      </c>
+      <c r="R45" s="11">
+        <v>31</v>
+      </c>
+      <c r="S45" s="11"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="53">
-        <v>0</v>
-      </c>
-      <c r="E46" s="53">
-        <v>0</v>
-      </c>
-      <c r="F46" s="53">
-        <v>0</v>
-      </c>
-      <c r="G46" s="53">
-        <v>0</v>
-      </c>
-      <c r="H46" s="53">
-        <v>0</v>
-      </c>
-      <c r="I46" s="53">
-        <v>0</v>
-      </c>
-      <c r="J46" s="53">
-        <v>0</v>
-      </c>
-      <c r="K46" s="53">
-        <v>0</v>
-      </c>
-      <c r="L46" s="53">
-        <v>0</v>
-      </c>
-      <c r="M46" s="53">
-        <v>0</v>
-      </c>
-      <c r="N46" s="53">
-        <v>0</v>
-      </c>
-      <c r="O46" s="53">
-        <v>0</v>
-      </c>
-      <c r="P46" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
+      <c r="B46" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="52">
+        <v>0</v>
+      </c>
+      <c r="E46" s="52">
+        <v>0</v>
+      </c>
+      <c r="F46" s="52">
+        <v>0</v>
+      </c>
+      <c r="G46" s="52">
+        <v>0</v>
+      </c>
+      <c r="H46" s="52">
+        <v>0</v>
+      </c>
+      <c r="I46" s="52">
+        <v>0</v>
+      </c>
+      <c r="J46" s="52">
+        <v>0</v>
+      </c>
+      <c r="K46" s="52">
+        <v>0</v>
+      </c>
+      <c r="L46" s="52">
+        <v>0</v>
+      </c>
+      <c r="M46" s="52">
+        <v>0</v>
+      </c>
+      <c r="N46" s="52">
+        <v>0</v>
+      </c>
+      <c r="O46" s="52">
+        <v>0</v>
+      </c>
+      <c r="P46" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="52">
+        <v>0</v>
+      </c>
+      <c r="R46" s="52">
+        <v>0</v>
+      </c>
+      <c r="S46" s="52"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="59" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="1">
@@ -9984,13 +10829,20 @@
       <c r="O47" s="1">
         <v>-1</v>
       </c>
-      <c r="P47" s="16">
+      <c r="P47" s="1">
         <v>-1</v>
       </c>
+      <c r="Q47" s="1">
+        <v>6</v>
+      </c>
+      <c r="R47" s="1">
+        <v>-3</v>
+      </c>
+      <c r="S47" s="1"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D48" s="1">
         <v>4</v>
@@ -10028,13 +10880,20 @@
       <c r="O48" s="1">
         <v>11</v>
       </c>
-      <c r="P48" s="16">
+      <c r="P48" s="1">
         <v>-9</v>
       </c>
+      <c r="Q48" s="1">
+        <v>18</v>
+      </c>
+      <c r="R48" s="1">
+        <v>9</v>
+      </c>
+      <c r="S48" s="1"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="54" t="s">
-        <v>181</v>
+      <c r="B49" s="53" t="s">
+        <v>178</v>
       </c>
       <c r="D49" s="11">
         <v>-8</v>
@@ -10072,13 +10931,20 @@
       <c r="O49" s="11">
         <v>-5</v>
       </c>
-      <c r="P49" s="17">
-        <v>0</v>
-      </c>
+      <c r="P49" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>6</v>
+      </c>
+      <c r="R49" s="11">
+        <v>6</v>
+      </c>
+      <c r="S49" s="11"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B50" s="54" t="s">
-        <v>182</v>
+      <c r="B50" s="53" t="s">
+        <v>179</v>
       </c>
       <c r="D50" s="11">
         <v>13</v>
@@ -10116,61 +10982,72 @@
       <c r="O50" s="11">
         <v>14</v>
       </c>
-      <c r="P50" s="17">
+      <c r="P50" s="11">
         <v>3</v>
       </c>
+      <c r="Q50" s="11">
+        <v>3</v>
+      </c>
+      <c r="R50" s="11">
+        <v>3</v>
+      </c>
+      <c r="S50" s="11"/>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B51" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="53">
+      <c r="B51" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="35"/>
+      <c r="D51" s="52">
         <v>-1</v>
       </c>
-      <c r="E51" s="53">
+      <c r="E51" s="52">
         <v>3</v>
       </c>
-      <c r="F51" s="53">
+      <c r="F51" s="52">
         <v>2</v>
       </c>
-      <c r="G51" s="53">
+      <c r="G51" s="52">
         <v>-2</v>
       </c>
-      <c r="H51" s="53">
+      <c r="H51" s="52">
         <v>11</v>
       </c>
-      <c r="I51" s="53">
+      <c r="I51" s="52">
         <v>-1</v>
       </c>
-      <c r="J51" s="53">
-        <v>0</v>
-      </c>
-      <c r="K51" s="53">
+      <c r="J51" s="52">
+        <v>0</v>
+      </c>
+      <c r="K51" s="52">
         <v>4</v>
       </c>
-      <c r="L51" s="53">
+      <c r="L51" s="52">
         <v>2</v>
       </c>
-      <c r="M51" s="53">
+      <c r="M51" s="52">
         <v>-5</v>
       </c>
-      <c r="N51" s="53">
-        <v>0</v>
-      </c>
-      <c r="O51" s="53">
+      <c r="N51" s="52">
+        <v>0</v>
+      </c>
+      <c r="O51" s="52">
         <v>2</v>
       </c>
-      <c r="P51" s="62">
+      <c r="P51" s="52">
         <v>-12</v>
       </c>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="36"/>
+      <c r="Q51" s="52">
+        <v>8</v>
+      </c>
+      <c r="R51" s="52">
+        <v>0</v>
+      </c>
+      <c r="S51" s="52"/>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D52" s="2">
         <v>-2</v>
@@ -10208,13 +11085,19 @@
       <c r="O52" s="2">
         <v>-5</v>
       </c>
-      <c r="P52" s="4">
+      <c r="P52" s="2">
         <v>-2</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>-2</v>
+      </c>
+      <c r="R52" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D53" s="1">
         <v>124</v>
@@ -10252,9 +11135,16 @@
       <c r="O53" s="1">
         <v>118</v>
       </c>
-      <c r="P53" s="16">
+      <c r="P53" s="1">
         <v>101</v>
       </c>
+      <c r="Q53" s="1">
+        <v>217</v>
+      </c>
+      <c r="R53" s="1">
+        <v>129</v>
+      </c>
+      <c r="S53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10267,7 +11157,7 @@
   <dimension ref="A2:F34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10276,198 +11166,205 @@
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="37">
+        <f>Modell!B4/SOTP!D34</f>
+        <v>0.75643959255694804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="38">
-        <f>Modell!B4/SOTP!D34</f>
-        <v>0.5742999847093847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="B5" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="42">
+        <v>93.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>133</v>
-      </c>
-      <c r="D8" s="43">
-        <v>72.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>134</v>
       </c>
       <c r="D9">
         <v>160.21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="43">
+        <f>D8*D9</f>
+        <v>14971.624500000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="47">
+        <f>D10/D32</f>
+        <v>1467.8063235294121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="44">
-        <f>D8*D9</f>
-        <v>11663.288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="42">
+        <v>39.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="44">
+        <v>204.72266300000001</v>
+      </c>
+      <c r="E15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="48">
-        <f>D10/D32</f>
-        <v>1143.4596078431373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="43">
-        <v>27.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="44">
+      <c r="D16" s="43">
         <f>D14*D15</f>
-        <v>4712.8</v>
+        <v>8086.5451885000002</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="48">
+      <c r="A17" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="47">
         <f>D16/D32</f>
-        <v>462.03921568627459</v>
+        <v>792.79854789215699</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>157</v>
+      <c r="A19" s="34" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="45">
+        <v>153</v>
+      </c>
+      <c r="D20" s="44">
         <f>(3.85*25)/1.58</f>
         <v>60.917721518987342</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D21">
         <f>23*40.1</f>
         <v>922.30000000000007</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="D22">
         <f>7*96.8</f>
         <v>677.6</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F22" s="67"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="49">
+      <c r="A23" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="48">
         <f>D20+((D21+D22)/D32)</f>
         <v>217.77066269545796</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
-        <v>143</v>
+      <c r="A25" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="B25">
         <v>125</v>
       </c>
-      <c r="C25" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="66">
         <f>B25*8</f>
         <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
-        <v>144</v>
+      <c r="A26" s="34" t="s">
+        <v>141</v>
       </c>
       <c r="B26">
         <v>-10</v>
       </c>
-      <c r="C26" s="46" t="s">
-        <v>147</v>
+      <c r="C26" s="45" t="s">
+        <v>144</v>
       </c>
       <c r="D26">
         <v>-60</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
-        <v>145</v>
+      <c r="A27" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="B27">
         <v>60</v>
       </c>
-      <c r="C27" s="46" t="s">
-        <v>148</v>
+      <c r="C27" s="45" t="s">
+        <v>145</v>
       </c>
       <c r="D27">
         <f>60*9</f>
@@ -10475,17 +11372,17 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="44">
+      <c r="A29" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="43">
         <f>D11+D17+D23+D25+D26+D27</f>
-        <v>3303.26948622487</v>
+        <v>3958.3755341170267</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D30">
         <f>Modell!O45+Modell!O50-Modell!O36</f>
@@ -10493,12 +11390,12 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="44">
+      <c r="A31" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="43">
         <f>D29-D30</f>
-        <v>3158.26948622487</v>
+        <v>3813.3755341170267</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -10511,7 +11408,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D33">
         <f>34+10.58</f>
@@ -10519,14 +11416,14 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="51">
+      <c r="A34" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="50">
         <f>(D31*D32)/D33</f>
-        <v>722.61885956692845</v>
+        <v>872.50853405100202</v>
       </c>
     </row>
   </sheetData>
@@ -10549,49 +11446,49 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:6" ht="62" x14ac:dyDescent="0.7">
-      <c r="C4" s="33"/>
-      <c r="D4" s="33">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32">
         <v>2025</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>2026</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>2027</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="62" x14ac:dyDescent="0.7">
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="41">
-        <f>Modell!$B$9/(Modell!AA11*Modell!$B$11)</f>
-        <v>19.290967466731633</v>
-      </c>
-      <c r="E5" s="41">
-        <f>Modell!$B$9/(Modell!AB11*Modell!$B$11)</f>
-        <v>15.263099085848792</v>
-      </c>
-      <c r="F5" s="41">
+      <c r="D5" s="40">
         <f>Modell!$B$9/(Modell!AC11*Modell!$B$11)</f>
-        <v>14.676056813316151</v>
+        <v>28.699111721773725</v>
+      </c>
+      <c r="E5" s="40">
+        <f>Modell!$B$9/(Modell!AD11*Modell!$B$11)</f>
+        <v>27.332487354070242</v>
+      </c>
+      <c r="F5" s="40">
+        <f>Modell!$B$9/(Modell!AE11*Modell!$B$11)</f>
+        <v>26.281237840452114</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="62" x14ac:dyDescent="0.7">
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="41">
-        <f>Modell!$B$4/Modell!AA19</f>
-        <v>3.1141255903232925</v>
-      </c>
-      <c r="E6" s="41">
-        <f>Modell!$B$4/Modell!AB19</f>
-        <v>3.1056880744819129</v>
-      </c>
-      <c r="F6" s="41">
+      <c r="D6" s="40">
         <f>Modell!$B$4/Modell!AC19</f>
-        <v>3.2048727050200951</v>
+        <v>5.1831785958829997</v>
+      </c>
+      <c r="E6" s="40">
+        <f>Modell!$B$4/Modell!AD19</f>
+        <v>5.359906383697453</v>
+      </c>
+      <c r="F6" s="40">
+        <f>Modell!$B$4/Modell!AE19</f>
+        <v>5.5448840080661137</v>
       </c>
     </row>
   </sheetData>

--- a/WWI modell.xlsx
+++ b/WWI modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94892623-9419-7244-8DFC-1092510E718F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE1BCD8-8F82-1D4F-82CA-BB4B9A0E877A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24220" yWindow="500" windowWidth="27740" windowHeight="26740" activeTab="1" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17240" activeTab="3" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,16 @@
     <sheet name="SOTP" sheetId="5" r:id="rId4"/>
     <sheet name="Nøkkeltall" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">SOTP!$A$51:$A$65</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">SOTP!$B$51:$B$65</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">SOTP!$A$51:$A$65</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">SOTP!$B$51:$B$65</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">SOTP!$A$51:$A$65</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">SOTP!$B$51:$B$65</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">SOTP!$A$51:$A$65</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">SOTP!$B$51:$B$65</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,8 +67,37 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={497AD875-116E-CB4F-BEF1-73CEBC085E43}</author>
+    <author>tc={20F1C7FC-3F42-E847-B5D1-93663C07858E}</author>
+  </authors>
+  <commentList>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{497AD875-116E-CB4F-BEF1-73CEBC085E43}">
+      <text>
+        <t xml:space="preserve">[Kommentartråd]
+Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
+    Kjøpt av børs november 25
+</t>
+      </text>
+    </comment>
+    <comment ref="A57" authorId="1" shapeId="0" xr:uid="{20F1C7FC-3F42-E847-B5D1-93663C07858E}">
+      <text>
+        <t xml:space="preserve">[Kommentartråd]
+Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
+    Kjøpt av børs november 25
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="194">
   <si>
     <t>Kapitalstruktur</t>
   </si>
@@ -432,12 +471,6 @@
     <t>P/NAV</t>
   </si>
   <si>
-    <t>WWI Holding SOTP</t>
-  </si>
-  <si>
-    <t>WAWI share</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
@@ -456,75 +489,18 @@
     <t xml:space="preserve">Press releases: </t>
   </si>
   <si>
-    <t>Share price, NOK</t>
-  </si>
-  <si>
-    <t>Nr of shares (37,9%)</t>
-  </si>
-  <si>
     <t>EBITDA</t>
   </si>
   <si>
-    <t>Multiple</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Value USDm</t>
-  </si>
-  <si>
-    <t>Value NOKm</t>
-  </si>
-  <si>
-    <t>Treasure ASA</t>
-  </si>
-  <si>
-    <t>Wilhelmsen maritime services</t>
-  </si>
-  <si>
     <t>Holding</t>
   </si>
   <si>
     <t>New energy</t>
   </si>
   <si>
-    <t>8,0x</t>
-  </si>
-  <si>
-    <t>6,0x</t>
-  </si>
-  <si>
-    <t>9,0x</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>NIBD as of Q424</t>
-  </si>
-  <si>
-    <t>SOTP, USDm</t>
-  </si>
-  <si>
-    <t>Shares</t>
-  </si>
-  <si>
-    <t>SOTP, NOK/Share</t>
-  </si>
-  <si>
-    <t>NOKm</t>
-  </si>
-  <si>
-    <t>USDm</t>
-  </si>
-  <si>
-    <t>Qube (AUD3,85/share, 25,0m shares, 1,58AUDUSD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other assets/associates </t>
-  </si>
-  <si>
     <t>Maritme service</t>
   </si>
   <si>
@@ -627,12 +603,6 @@
     <t>21.08.24: WWI kjøper 875 000 aksjer</t>
   </si>
   <si>
-    <t>Edda wind (NOK23/share, 40,1m shares)</t>
-  </si>
-  <si>
-    <t>kjøpt av børs mai/25</t>
-  </si>
-  <si>
     <t>Investments in JV and associates</t>
   </si>
   <si>
@@ -642,16 +612,73 @@
     <t>Purchase of current financial investmetns</t>
   </si>
   <si>
-    <t>Nr of shares (100%)</t>
-  </si>
-  <si>
-    <t>Treasure har en 11% eierandel i Hyundai Glovis gjennom NAL</t>
-  </si>
-  <si>
-    <t>Reach subsea (NOK7,00/share, 96,8m shares 29,58%)</t>
-  </si>
-  <si>
-    <t>Kjøpte hele selskapet novemeber 25</t>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Stratetic holdings</t>
+  </si>
+  <si>
+    <t>Wallenius wilhelmsen</t>
+  </si>
+  <si>
+    <t>Treasure/Hyundai Glovis</t>
+  </si>
+  <si>
+    <t>Reach Subsea</t>
+  </si>
+  <si>
+    <t>Qube Holdings</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Antall aksjer</t>
+  </si>
+  <si>
+    <t>Aksjer per aksje</t>
+  </si>
+  <si>
+    <t>Valutakurs</t>
+  </si>
+  <si>
+    <t>Aksjekurs</t>
+  </si>
+  <si>
+    <t>Per aksje</t>
+  </si>
+  <si>
+    <t>Multippel</t>
+  </si>
+  <si>
+    <t>Verdi NOK</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Total shares</t>
+  </si>
+  <si>
+    <t>Valuta</t>
+  </si>
+  <si>
+    <t>KRW/NOK</t>
+  </si>
+  <si>
+    <t>AUD/NOK</t>
+  </si>
+  <si>
+    <t>EBITDA 26E USD</t>
+  </si>
+  <si>
+    <t>Balance Q325</t>
+  </si>
+  <si>
+    <t>SUM NOK</t>
+  </si>
+  <si>
+    <t>Maritime services</t>
   </si>
 </sst>
 </file>
@@ -665,7 +692,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0\ %"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -721,14 +748,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -757,8 +776,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,18 +807,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -828,11 +886,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -864,32 +959,18 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -903,31 +984,52 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,6 +1045,745 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>NAV WWI</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>NAV WWI</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{D65D754A-0EC6-7645-B19C-A95AF4F9DB4B}">
+          <cx:dataPt idx="2">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E6E6">
+                  <a:lumMod val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="5"/>
+          <cx:dataPt idx="9">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E6E6">
+                  <a:lumMod val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="11">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="14">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E6E6">
+                  <a:lumMod val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="outEnd">
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:endParaRPr lang="nb-NO" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>NOK/Share</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="2000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nb-NO" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>NOK/Share</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1350,13 +2191,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>77</xdr:col>
+      <xdr:col>80</xdr:col>
       <xdr:colOff>409221</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>82</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>373943</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>5643</xdr:rowOff>
@@ -1394,13 +2235,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>57</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>536221</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>14111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>500943</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>18344</xdr:rowOff>
@@ -1438,13 +2279,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>663222</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>28222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>577144</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>170743</xdr:rowOff>
@@ -1483,9 +2324,92 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10582</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>321733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Diagram 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F09D3B-D706-31D4-75C6-E410E2DB54B9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11969749" y="2015066"/>
+              <a:ext cx="14467418" cy="9245601"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nb-NO" sz="1100"/>
+                <a:t>Diagrammet er ikke tilgjengelig i din versjon av Excel.
+Hvis du redigerer denne figuren eller lagrer denne arbeidsboken i et annet filformat, blir diagrammet ødelagt for godt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="august hodt" id="{5D3E8F5D-13CA-C04A-82AC-CF14A5DC590D}" userId="a530012ce760c12d" providerId="Windows Live"/>
+  <person displayName="August Hodt" id="{5D3E8F5D-13CA-C04A-82AC-CF14A5DC590D}" userId="a530012ce760c12d" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -1792,12 +2716,25 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A15" dT="2026-01-21T20:58:31.92" personId="{5D3E8F5D-13CA-C04A-82AC-CF14A5DC590D}" id="{497AD875-116E-CB4F-BEF1-73CEBC085E43}">
+    <text xml:space="preserve">Kjøpt av børs november 25
+</text>
+  </threadedComment>
+  <threadedComment ref="A57" dT="2026-01-21T20:58:31.92" personId="{5D3E8F5D-13CA-C04A-82AC-CF14A5DC590D}" id="{20F1C7FC-3F42-E847-B5D1-93663C07858E}">
+    <text xml:space="preserve">Kjøpt av børs november 25
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6FABC2-1253-924E-8CB2-F0C03750A097}">
   <dimension ref="A2:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1808,67 +2745,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>166</v>
+      <c r="A2" s="46" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H4" s="2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="H6" s="63" t="s">
-        <v>183</v>
+      <c r="H6" s="51" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="H7" s="63" t="s">
-        <v>184</v>
+      <c r="H7" s="51" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="H8" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H9" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H10" s="2" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H11" s="2" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
-        <v>170</v>
+      <c r="A17" s="46" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
-        <v>171</v>
+      <c r="A26" s="46" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1881,11 +2818,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9D41D6-FA1C-5144-915F-9569A5873643}">
   <dimension ref="A1:EN93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1904,8 +2841,7 @@
     <col min="13" max="13" width="11.1640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="2"/>
-    <col min="17" max="17" width="10.83203125" style="68"/>
+    <col min="16" max="17" width="10.83203125" style="2"/>
     <col min="18" max="18" width="10.83203125" style="4"/>
     <col min="19" max="28" width="10.83203125" style="2"/>
     <col min="29" max="29" width="10.83203125" style="4"/>
@@ -1976,7 +2912,7 @@
       <c r="P3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Q3" s="69" t="s">
+      <c r="Q3" s="7" t="s">
         <v>117</v>
       </c>
       <c r="R3" s="8" t="s">
@@ -2088,7 +3024,7 @@
       <c r="P4" s="2">
         <v>297</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="2">
         <v>316</v>
       </c>
       <c r="R4" s="4">
@@ -2207,7 +3143,7 @@
       <c r="P5" s="2">
         <v>-1</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="2">
         <v>-2</v>
       </c>
       <c r="R5" s="4">
@@ -2328,7 +3264,7 @@
         <f t="shared" si="1"/>
         <v>296</v>
       </c>
-      <c r="Q6" s="70">
+      <c r="Q6" s="18">
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
@@ -2460,7 +3396,7 @@
       <c r="P7" s="2">
         <v>-103</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="2">
         <v>-113</v>
       </c>
       <c r="R7" s="4">
@@ -2578,7 +3514,7 @@
       <c r="P8" s="2">
         <v>-110</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="2">
         <v>-112</v>
       </c>
       <c r="R8" s="4">
@@ -2697,7 +3633,7 @@
       <c r="P9" s="2">
         <v>-38</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="2">
         <v>-41</v>
       </c>
       <c r="R9" s="4">
@@ -2809,7 +3745,7 @@
       <c r="P10" s="2">
         <v>-14</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="2">
         <v>-20</v>
       </c>
       <c r="R10" s="4">
@@ -2940,7 +3876,7 @@
         <f t="shared" si="12"/>
         <v>31</v>
       </c>
-      <c r="Q11" s="70">
+      <c r="Q11" s="18">
         <f t="shared" si="12"/>
         <v>28</v>
       </c>
@@ -3066,7 +4002,7 @@
       <c r="P12" s="2">
         <v>121</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="2">
         <v>208</v>
       </c>
       <c r="R12" s="4">
@@ -3136,7 +4072,13 @@
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="17">
+        <f>SOTP!B4</f>
+        <v>0.61870199100113288</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
@@ -3179,7 +4121,7 @@
       <c r="P13" s="2">
         <v>0</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="2">
         <v>7</v>
       </c>
       <c r="R13" s="4">
@@ -3280,7 +4222,7 @@
       <c r="P14" s="2">
         <v>-7</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="2">
         <v>23</v>
       </c>
       <c r="R14" s="4">
@@ -3381,7 +4323,7 @@
       <c r="P15" s="2">
         <v>4</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="2">
         <v>0</v>
       </c>
       <c r="R15" s="4">
@@ -3495,7 +4437,7 @@
         <f>SUM(P11:P15)</f>
         <v>149</v>
       </c>
-      <c r="Q16" s="71">
+      <c r="Q16" s="13">
         <f t="shared" ref="Q16:S16" si="18">SUM(Q11:Q15)</f>
         <v>266</v>
       </c>
@@ -3621,7 +4563,7 @@
       <c r="P17" s="2">
         <v>-12</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="2">
         <v>-8</v>
       </c>
       <c r="R17" s="4">
@@ -3645,7 +4587,7 @@
       <c r="AB17" s="13">
         <v>-20</v>
       </c>
-      <c r="AC17" s="64">
+      <c r="AC17" s="52">
         <f>AC16*-0.05</f>
         <v>-29.581000000000003</v>
       </c>
@@ -3746,11 +4688,11 @@
         <f t="shared" si="22"/>
         <v>137</v>
       </c>
-      <c r="Q18" s="72">
+      <c r="Q18" s="21">
         <f t="shared" si="22"/>
         <v>258</v>
       </c>
-      <c r="R18" s="65">
+      <c r="R18" s="53">
         <f t="shared" si="22"/>
         <v>149</v>
       </c>
@@ -4298,7 +5240,7 @@
         <f t="shared" si="27"/>
         <v>31.03858232391207</v>
       </c>
-      <c r="Q19" s="73">
+      <c r="Q19" s="22">
         <f t="shared" ref="Q19:S19" si="28">(Q18/Q20)*$B$11</f>
         <v>58.452220726783317</v>
       </c>
@@ -4429,10 +5371,10 @@
       <c r="P20" s="31">
         <v>44.58</v>
       </c>
-      <c r="Q20" s="74">
+      <c r="Q20" s="31">
         <v>44.58</v>
       </c>
-      <c r="R20" s="61">
+      <c r="R20" s="49">
         <v>44.58</v>
       </c>
       <c r="S20" s="31">
@@ -4509,17 +5451,17 @@
         <v>44.58</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP20" s="36">
-        <v>0.1</v>
+        <v>124</v>
+      </c>
+      <c r="AP20" s="34">
+        <v>0.08</v>
       </c>
     </row>
     <row r="21" spans="3:144" x14ac:dyDescent="0.25">
       <c r="AO21" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP21" s="36">
+        <v>125</v>
+      </c>
+      <c r="AP21" s="34">
         <v>-0.01</v>
       </c>
     </row>
@@ -4564,7 +5506,7 @@
         <f>(P6-L6)/L6</f>
         <v>0.12121212121212122</v>
       </c>
-      <c r="Q22" s="75">
+      <c r="Q22" s="26">
         <f t="shared" ref="Q22:S22" si="34">(Q6-M6)/M6</f>
         <v>4.3189368770764118E-2</v>
       </c>
@@ -4642,12 +5584,12 @@
         <f t="shared" si="36"/>
         <v>4.0000000000000029E-2</v>
       </c>
-      <c r="AO22" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP22" s="38">
+      <c r="AO22" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP22" s="35">
         <f>NPV(AP20,AC18:EN18)*B11</f>
-        <v>51910.643724355235</v>
+        <v>63927.422278307989</v>
       </c>
     </row>
     <row r="23" spans="3:144" x14ac:dyDescent="0.25">
@@ -4706,7 +5648,7 @@
         <f>P11/P6</f>
         <v>0.10472972972972973</v>
       </c>
-      <c r="Q23" s="76">
+      <c r="Q23" s="23">
         <f t="shared" ref="Q23:S23" si="39">Q11/Q6</f>
         <v>8.9171974522292988E-2</v>
       </c>
@@ -4798,11 +5740,11 @@
     </row>
     <row r="24" spans="3:144" x14ac:dyDescent="0.25">
       <c r="AO24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP24" s="39">
+        <v>127</v>
+      </c>
+      <c r="AP24" s="36">
         <f>AP22/AP23</f>
-        <v>1164.4379480564207</v>
+        <v>1433.9933216309555</v>
       </c>
     </row>
     <row r="25" spans="3:144" x14ac:dyDescent="0.25">
@@ -4821,7 +5763,7 @@
       <c r="N25" s="13"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="77"/>
+      <c r="Q25" s="1"/>
       <c r="R25" s="16"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -4831,11 +5773,11 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="AO25" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP25" s="41">
+        <v>128</v>
+      </c>
+      <c r="AP25" s="38">
         <f>(AP24-B4)/B4</f>
-        <v>0.76429992129760715</v>
+        <v>1.1727171539862962</v>
       </c>
     </row>
     <row r="26" spans="3:144" x14ac:dyDescent="0.25">
@@ -4881,7 +5823,7 @@
       <c r="P26" s="13">
         <v>45</v>
       </c>
-      <c r="Q26" s="68">
+      <c r="Q26" s="2">
         <v>43</v>
       </c>
       <c r="R26" s="4">
@@ -4931,7 +5873,7 @@
       <c r="P27" s="13">
         <v>126</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="2">
         <v>129</v>
       </c>
       <c r="R27" s="4">
@@ -4982,7 +5924,7 @@
       <c r="P28" s="13">
         <v>602</v>
       </c>
-      <c r="Q28" s="68">
+      <c r="Q28" s="2">
         <v>635</v>
       </c>
       <c r="R28" s="4">
@@ -5032,7 +5974,7 @@
       <c r="P29" s="13">
         <v>134</v>
       </c>
-      <c r="Q29" s="68">
+      <c r="Q29" s="2">
         <v>135</v>
       </c>
       <c r="R29" s="4">
@@ -5041,7 +5983,7 @@
     </row>
     <row r="30" spans="3:144" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D30" s="13">
         <v>1154</v>
@@ -5082,7 +6024,7 @@
       <c r="P30" s="13">
         <v>1965</v>
       </c>
-      <c r="Q30" s="68">
+      <c r="Q30" s="2">
         <v>2233</v>
       </c>
       <c r="R30" s="4">
@@ -5132,7 +6074,7 @@
       <c r="P31" s="13">
         <v>87</v>
       </c>
-      <c r="Q31" s="68">
+      <c r="Q31" s="2">
         <v>97</v>
       </c>
       <c r="R31" s="4">
@@ -5182,7 +6124,7 @@
       <c r="P32" s="13">
         <v>42</v>
       </c>
-      <c r="Q32" s="68">
+      <c r="Q32" s="2">
         <v>45</v>
       </c>
       <c r="R32" s="4">
@@ -5232,7 +6174,7 @@
       <c r="P33" s="13">
         <v>121</v>
       </c>
-      <c r="Q33" s="68">
+      <c r="Q33" s="2">
         <v>128</v>
       </c>
       <c r="R33" s="4">
@@ -5282,7 +6224,7 @@
       <c r="P34" s="13">
         <v>132</v>
       </c>
-      <c r="Q34" s="68">
+      <c r="Q34" s="2">
         <v>221</v>
       </c>
       <c r="R34" s="4">
@@ -5332,7 +6274,7 @@
       <c r="P35" s="13">
         <v>599</v>
       </c>
-      <c r="Q35" s="68">
+      <c r="Q35" s="2">
         <v>419</v>
       </c>
       <c r="R35" s="4">
@@ -5382,7 +6324,7 @@
       <c r="P36" s="13">
         <v>169</v>
       </c>
-      <c r="Q36" s="68">
+      <c r="Q36" s="2">
         <v>209</v>
       </c>
       <c r="R36" s="4">
@@ -5445,7 +6387,7 @@
         <f t="shared" si="43"/>
         <v>4022</v>
       </c>
-      <c r="Q37" s="70">
+      <c r="Q37" s="18">
         <f t="shared" si="43"/>
         <v>4294</v>
       </c>
@@ -5503,7 +6445,7 @@
       <c r="P38" s="13">
         <v>118</v>
       </c>
-      <c r="Q38" s="68">
+      <c r="Q38" s="2">
         <v>118</v>
       </c>
       <c r="R38" s="4">
@@ -5553,7 +6495,7 @@
       <c r="P39" s="13">
         <v>-4</v>
       </c>
-      <c r="Q39" s="68">
+      <c r="Q39" s="2">
         <v>-5</v>
       </c>
       <c r="R39" s="4">
@@ -5603,7 +6545,7 @@
       <c r="P40" s="13">
         <v>2654</v>
       </c>
-      <c r="Q40" s="68">
+      <c r="Q40" s="2">
         <v>2939</v>
       </c>
       <c r="R40" s="4">
@@ -5653,7 +6595,7 @@
       <c r="P41" s="13">
         <v>123</v>
       </c>
-      <c r="Q41" s="68">
+      <c r="Q41" s="2">
         <v>138</v>
       </c>
       <c r="R41" s="4">
@@ -5716,11 +6658,11 @@
         <f t="shared" si="44"/>
         <v>2891</v>
       </c>
-      <c r="Q42" s="78">
+      <c r="Q42" s="15">
         <f t="shared" si="44"/>
         <v>3190</v>
       </c>
-      <c r="R42" s="62">
+      <c r="R42" s="50">
         <f t="shared" si="44"/>
         <v>3335</v>
       </c>
@@ -5774,7 +6716,7 @@
       <c r="P43" s="13">
         <v>22</v>
       </c>
-      <c r="Q43" s="68">
+      <c r="Q43" s="2">
         <v>23</v>
       </c>
       <c r="R43" s="4">
@@ -5824,7 +6766,7 @@
       <c r="P44" s="13">
         <v>10</v>
       </c>
-      <c r="Q44" s="68">
+      <c r="Q44" s="2">
         <v>11</v>
       </c>
       <c r="R44" s="4">
@@ -5874,7 +6816,7 @@
       <c r="P45" s="13">
         <v>287</v>
       </c>
-      <c r="Q45" s="68">
+      <c r="Q45" s="2">
         <v>279</v>
       </c>
       <c r="R45" s="4">
@@ -5924,7 +6866,7 @@
       <c r="P46" s="13">
         <v>116</v>
       </c>
-      <c r="Q46" s="68">
+      <c r="Q46" s="2">
         <v>116</v>
       </c>
       <c r="R46" s="4">
@@ -5974,7 +6916,7 @@
       <c r="P47" s="13">
         <v>8</v>
       </c>
-      <c r="Q47" s="68">
+      <c r="Q47" s="2">
         <v>8</v>
       </c>
       <c r="R47" s="4">
@@ -6024,7 +6966,7 @@
       <c r="P48" s="13">
         <v>10</v>
       </c>
-      <c r="Q48" s="68">
+      <c r="Q48" s="2">
         <v>6</v>
       </c>
       <c r="R48" s="4">
@@ -6074,7 +7016,7 @@
       <c r="P49" s="13">
         <v>19</v>
       </c>
-      <c r="Q49" s="68">
+      <c r="Q49" s="2">
         <v>16</v>
       </c>
       <c r="R49" s="4">
@@ -6124,7 +7066,7 @@
       <c r="P50" s="13">
         <v>48</v>
       </c>
-      <c r="Q50" s="68">
+      <c r="Q50" s="2">
         <v>30</v>
       </c>
       <c r="R50" s="4">
@@ -6174,7 +7116,7 @@
       <c r="P51" s="13">
         <v>29</v>
       </c>
-      <c r="Q51" s="68">
+      <c r="Q51" s="2">
         <v>29</v>
       </c>
       <c r="R51" s="4">
@@ -6224,7 +7166,7 @@
       <c r="P52" s="13">
         <v>582</v>
       </c>
-      <c r="Q52" s="68">
+      <c r="Q52" s="2">
         <v>587</v>
       </c>
       <c r="R52" s="4">
@@ -6287,11 +7229,11 @@
         <f t="shared" si="45"/>
         <v>1131</v>
       </c>
-      <c r="Q53" s="78">
+      <c r="Q53" s="15">
         <f t="shared" ref="Q53:S53" si="46">SUM(Q43:Q52)</f>
         <v>1105</v>
       </c>
-      <c r="R53" s="62">
+      <c r="R53" s="50">
         <f t="shared" si="46"/>
         <v>1105</v>
       </c>
@@ -6358,7 +7300,7 @@
         <f t="shared" si="47"/>
         <v>4022</v>
       </c>
-      <c r="Q54" s="70">
+      <c r="Q54" s="18">
         <f t="shared" ref="Q54:S54" si="48">Q42+Q53</f>
         <v>4295</v>
       </c>
@@ -6459,7 +7401,7 @@
         <f>P16</f>
         <v>149</v>
       </c>
-      <c r="Q57" s="71">
+      <c r="Q57" s="13">
         <f t="shared" ref="Q57:S57" si="50">Q16</f>
         <v>266</v>
       </c>
@@ -6542,7 +7484,7 @@
       <c r="P58" s="2">
         <v>150</v>
       </c>
-      <c r="Q58" s="68">
+      <c r="Q58" s="2">
         <v>266</v>
       </c>
       <c r="R58" s="4">
@@ -6610,7 +7552,7 @@
       <c r="P59" s="2">
         <v>-121</v>
       </c>
-      <c r="Q59" s="68">
+      <c r="Q59" s="2">
         <v>-208</v>
       </c>
       <c r="R59" s="4">
@@ -6678,7 +7620,7 @@
       <c r="P60" s="2">
         <v>7</v>
       </c>
-      <c r="Q60" s="68">
+      <c r="Q60" s="2">
         <v>-7</v>
       </c>
       <c r="R60" s="4">
@@ -6746,7 +7688,7 @@
       <c r="P61" s="2">
         <v>-4</v>
       </c>
-      <c r="Q61" s="68">
+      <c r="Q61" s="2">
         <v>-23</v>
       </c>
       <c r="R61" s="4">
@@ -6814,7 +7756,7 @@
       <c r="P62" s="2">
         <v>14</v>
       </c>
-      <c r="Q62" s="68">
+      <c r="Q62" s="2">
         <v>20</v>
       </c>
       <c r="R62" s="4">
@@ -6882,7 +7824,7 @@
       <c r="P63" s="2">
         <v>1</v>
       </c>
-      <c r="Q63" s="68">
+      <c r="Q63" s="2">
         <v>2</v>
       </c>
       <c r="R63" s="4">
@@ -6963,7 +7905,7 @@
         <f>2-7</f>
         <v>-5</v>
       </c>
-      <c r="Q64" s="68">
+      <c r="Q64" s="2">
         <v>0</v>
       </c>
       <c r="R64" s="4">
@@ -7038,7 +7980,7 @@
       <c r="P65" s="2">
         <v>-5</v>
       </c>
-      <c r="Q65" s="68">
+      <c r="Q65" s="2">
         <v>-8</v>
       </c>
       <c r="R65" s="4">
@@ -7119,7 +8061,7 @@
         <f>SUM(P58:P65)</f>
         <v>37</v>
       </c>
-      <c r="Q66" s="77">
+      <c r="Q66" s="1">
         <f t="shared" ref="Q66:S66" si="53">SUM(Q58:Q65)</f>
         <v>42</v>
       </c>
@@ -7202,7 +8144,7 @@
       <c r="P68" s="2">
         <v>3</v>
       </c>
-      <c r="Q68" s="68">
+      <c r="Q68" s="2">
         <v>229</v>
       </c>
       <c r="R68" s="4">
@@ -7270,7 +8212,7 @@
       <c r="P69" s="2">
         <v>0</v>
       </c>
-      <c r="Q69" s="68">
+      <c r="Q69" s="2">
         <v>0</v>
       </c>
       <c r="R69" s="4">
@@ -7338,7 +8280,7 @@
       <c r="P70" s="2">
         <v>-10</v>
       </c>
-      <c r="Q70" s="68">
+      <c r="Q70" s="2">
         <v>-15</v>
       </c>
       <c r="R70" s="4">
@@ -7403,7 +8345,7 @@
       <c r="P71" s="2">
         <v>0</v>
       </c>
-      <c r="Q71" s="68">
+      <c r="Q71" s="2">
         <v>0</v>
       </c>
       <c r="R71" s="4">
@@ -7471,7 +8413,7 @@
       <c r="P72" s="2">
         <v>-16</v>
       </c>
-      <c r="Q72" s="68">
+      <c r="Q72" s="2">
         <v>-30</v>
       </c>
       <c r="R72" s="4">
@@ -7539,7 +8481,7 @@
       <c r="P73" s="2">
         <v>0</v>
       </c>
-      <c r="Q73" s="68">
+      <c r="Q73" s="2">
         <v>0</v>
       </c>
       <c r="R73" s="4">
@@ -7607,7 +8549,7 @@
       <c r="P74" s="2">
         <v>-1</v>
       </c>
-      <c r="Q74" s="68">
+      <c r="Q74" s="2">
         <v>0</v>
       </c>
       <c r="R74" s="4">
@@ -7675,7 +8617,7 @@
       <c r="P75" s="2">
         <v>8</v>
       </c>
-      <c r="Q75" s="68">
+      <c r="Q75" s="2">
         <v>14</v>
       </c>
       <c r="R75" s="4">
@@ -7702,7 +8644,7 @@
     </row>
     <row r="76" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C76" s="2" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="D76" s="2">
         <v>0</v>
@@ -7743,7 +8685,7 @@
       <c r="P76" s="2">
         <v>-12</v>
       </c>
-      <c r="Q76" s="68">
+      <c r="Q76" s="2">
         <v>-101</v>
       </c>
       <c r="R76" s="4">
@@ -7811,7 +8753,7 @@
       <c r="P77" s="2">
         <v>1</v>
       </c>
-      <c r="Q77" s="68">
+      <c r="Q77" s="2">
         <v>1</v>
       </c>
       <c r="R77" s="4">
@@ -7879,7 +8821,7 @@
       <c r="P78" s="2">
         <v>0</v>
       </c>
-      <c r="Q78" s="68">
+      <c r="Q78" s="2">
         <v>0</v>
       </c>
       <c r="R78" s="4">
@@ -7960,7 +8902,7 @@
         <f>SUM(P68:P78)</f>
         <v>-27</v>
       </c>
-      <c r="Q79" s="77">
+      <c r="Q79" s="1">
         <f t="shared" ref="Q79:S79" si="57">SUM(Q68:Q78)</f>
         <v>98</v>
       </c>
@@ -8043,7 +8985,7 @@
       <c r="P81" s="2">
         <v>24</v>
       </c>
-      <c r="Q81" s="68">
+      <c r="Q81" s="2">
         <v>22</v>
       </c>
       <c r="R81" s="4">
@@ -8111,7 +9053,7 @@
       <c r="P82" s="2">
         <v>-1</v>
       </c>
-      <c r="Q82" s="68">
+      <c r="Q82" s="2">
         <v>-64</v>
       </c>
       <c r="R82" s="4">
@@ -8179,7 +9121,7 @@
       <c r="P83" s="2">
         <v>-9</v>
       </c>
-      <c r="Q83" s="68">
+      <c r="Q83" s="2">
         <v>-10</v>
       </c>
       <c r="R83" s="4">
@@ -8247,7 +9189,7 @@
       <c r="P84" s="2">
         <v>-5</v>
       </c>
-      <c r="Q84" s="68">
+      <c r="Q84" s="2">
         <v>-5</v>
       </c>
       <c r="R84" s="4">
@@ -8312,7 +9254,7 @@
       <c r="P85" s="2">
         <v>6</v>
       </c>
-      <c r="Q85" s="68">
+      <c r="Q85" s="2">
         <v>5</v>
       </c>
       <c r="R85" s="4">
@@ -8380,7 +9322,7 @@
       <c r="P86" s="2">
         <v>0</v>
       </c>
-      <c r="Q86" s="68">
+      <c r="Q86" s="2">
         <v>0</v>
       </c>
       <c r="R86" s="4">
@@ -8448,7 +9390,7 @@
       <c r="P87" s="2">
         <v>-22</v>
       </c>
-      <c r="Q87" s="68">
+      <c r="Q87" s="2">
         <v>-14</v>
       </c>
       <c r="R87" s="4">
@@ -8513,7 +9455,7 @@
       <c r="P88" s="2">
         <v>0</v>
       </c>
-      <c r="Q88" s="68">
+      <c r="Q88" s="2">
         <v>-52</v>
       </c>
       <c r="R88" s="4">
@@ -8594,7 +9536,7 @@
         <f>SUM(P81:P88)</f>
         <v>-7</v>
       </c>
-      <c r="Q89" s="77">
+      <c r="Q89" s="1">
         <f t="shared" ref="Q89:S89" si="60">SUM(Q81:Q88)</f>
         <v>-118</v>
       </c>
@@ -8690,7 +9632,7 @@
         <f>P66+P79+P89</f>
         <v>3</v>
       </c>
-      <c r="Q91" s="68">
+      <c r="Q91" s="2">
         <f t="shared" ref="Q91:S91" si="64">Q66+Q79+Q89</f>
         <v>22</v>
       </c>
@@ -8783,7 +9725,7 @@
         <f>P66+P68+P70+P72</f>
         <v>14</v>
       </c>
-      <c r="Q93" s="68">
+      <c r="Q93" s="2">
         <f t="shared" ref="Q93:S93" si="68">Q66+Q68+Q70+Q72</f>
         <v>226</v>
       </c>
@@ -8821,7 +9763,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -8829,13 +9771,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249058E0-3BA5-6740-BE74-082DF7085DA4}">
-  <dimension ref="B3:S53"/>
+  <dimension ref="B3:V53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="I25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R54" sqref="R54"/>
+      <selection pane="bottomRight" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -8845,83 +9787,102 @@
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="33"/>
+      <c r="C4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="D4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="F4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="64">
+        <v>2022</v>
+      </c>
+      <c r="H4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="64">
+        <v>2023</v>
+      </c>
+      <c r="M4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="56" t="s">
+      <c r="N4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="56" t="s">
+      <c r="O4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="65">
+        <v>2024</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V4" s="55">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="V5" s="54"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C6" s="1">
+        <v>154</v>
+      </c>
       <c r="D6" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E6" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F6" s="1">
-        <v>157</v>
-      </c>
-      <c r="G6" s="1">
         <v>162</v>
+      </c>
+      <c r="G6" s="55">
+        <f t="shared" ref="G6:G11" si="0">SUM(C6:F6)</f>
+        <v>629</v>
       </c>
       <c r="H6" s="1">
         <v>183</v>
@@ -8935,44 +9896,60 @@
       <c r="K6" s="1">
         <v>187</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="55">
+        <f t="shared" ref="L6:L11" si="1">SUM(H6:K6)</f>
+        <v>733</v>
+      </c>
+      <c r="M6" s="1">
         <v>194</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>220</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>216</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>202</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="55">
+        <f t="shared" ref="Q6:Q11" si="2">SUM(M6:P6)</f>
+        <v>832</v>
+      </c>
+      <c r="R6" s="1">
         <v>213</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>214</v>
       </c>
-      <c r="R6" s="1">
+      <c r="T6" s="1">
         <v>222</v>
       </c>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
-        <v>167</v>
+      <c r="U6" s="1"/>
+      <c r="V6" s="55">
+        <f t="shared" ref="V6:V11" si="3">SUM(R6:U6)</f>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="11">
+        <v>94</v>
       </c>
       <c r="D7" s="11">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E7" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" s="11">
-        <v>100</v>
-      </c>
-      <c r="G7" s="11">
         <v>102</v>
+      </c>
+      <c r="G7" s="55">
+        <f t="shared" si="0"/>
+        <v>395</v>
       </c>
       <c r="H7" s="11">
         <v>119</v>
@@ -8986,44 +9963,60 @@
       <c r="K7" s="11">
         <v>115</v>
       </c>
-      <c r="L7" s="11">
-        <v>128</v>
+      <c r="L7" s="55">
+        <f t="shared" si="1"/>
+        <v>468</v>
       </c>
       <c r="M7" s="11">
         <v>128</v>
       </c>
       <c r="N7" s="11">
+        <v>128</v>
+      </c>
+      <c r="O7" s="11">
         <v>127</v>
-      </c>
-      <c r="O7" s="11">
-        <v>125</v>
       </c>
       <c r="P7" s="11">
         <v>125</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="55">
+        <f t="shared" si="2"/>
+        <v>508</v>
+      </c>
+      <c r="R7" s="11">
+        <v>125</v>
+      </c>
+      <c r="S7" s="11">
         <v>133</v>
       </c>
-      <c r="R7" s="11">
+      <c r="T7" s="11">
         <v>136</v>
       </c>
-      <c r="S7" s="11"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
-        <v>168</v>
+      <c r="U7" s="11"/>
+      <c r="V7" s="55">
+        <f t="shared" si="3"/>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="11">
+        <v>33</v>
       </c>
       <c r="D8" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="11">
         <v>34</v>
       </c>
-      <c r="G8" s="11">
-        <v>34</v>
+      <c r="G8" s="55">
+        <f t="shared" si="0"/>
+        <v>136</v>
       </c>
       <c r="H8" s="11">
         <v>37</v>
@@ -9037,44 +10030,60 @@
       <c r="K8" s="11">
         <v>41</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="55">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="M8" s="11">
         <v>40</v>
       </c>
-      <c r="M8" s="11">
+      <c r="N8" s="11">
         <v>41</v>
       </c>
-      <c r="N8" s="11">
+      <c r="O8" s="11">
         <v>39</v>
-      </c>
-      <c r="O8" s="11">
-        <v>43</v>
       </c>
       <c r="P8" s="11">
         <v>43</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="55">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="R8" s="11">
+        <v>43</v>
+      </c>
+      <c r="S8" s="11">
         <v>41</v>
       </c>
-      <c r="R8" s="11">
+      <c r="T8" s="11">
         <v>44</v>
       </c>
-      <c r="S8" s="11"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
-        <v>165</v>
+      <c r="U8" s="11"/>
+      <c r="V8" s="55">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="11">
+        <v>16</v>
       </c>
       <c r="D9" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="11">
         <v>17</v>
       </c>
       <c r="F9" s="11">
-        <v>17</v>
-      </c>
-      <c r="G9" s="11">
         <v>19</v>
+      </c>
+      <c r="G9" s="55">
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
       <c r="H9" s="11">
         <v>20</v>
@@ -9088,96 +10097,127 @@
       <c r="K9" s="11">
         <v>23</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="55">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="M9" s="11">
         <v>21</v>
       </c>
-      <c r="M9" s="11">
+      <c r="N9" s="11">
         <v>49</v>
       </c>
-      <c r="N9" s="11">
+      <c r="O9" s="11">
         <v>47</v>
-      </c>
-      <c r="O9" s="11">
-        <v>30</v>
       </c>
       <c r="P9" s="11">
         <v>30</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="55">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="R9" s="11">
+        <v>30</v>
+      </c>
+      <c r="S9" s="11">
         <v>40</v>
       </c>
-      <c r="R9" s="11">
+      <c r="T9" s="11">
         <v>41</v>
       </c>
-      <c r="S9" s="11"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="52">
+      <c r="U9" s="11"/>
+      <c r="V9" s="55">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="40">
         <v>10</v>
       </c>
-      <c r="E10" s="52">
+      <c r="D10" s="40">
         <v>5</v>
       </c>
-      <c r="F10" s="52">
+      <c r="E10" s="40">
         <v>6</v>
       </c>
-      <c r="G10" s="52">
+      <c r="F10" s="40">
         <v>8</v>
       </c>
-      <c r="H10" s="52">
+      <c r="G10" s="63">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H10" s="40">
         <v>7</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="40">
         <v>7</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="40">
         <v>4</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="40">
         <v>8</v>
       </c>
-      <c r="L10" s="52">
+      <c r="L10" s="63">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="M10" s="40">
         <v>6</v>
       </c>
-      <c r="M10" s="52">
+      <c r="N10" s="40">
         <v>2</v>
       </c>
-      <c r="N10" s="52">
+      <c r="O10" s="40">
         <v>2</v>
       </c>
-      <c r="O10" s="52">
+      <c r="P10" s="40">
         <v>4</v>
       </c>
-      <c r="P10" s="52">
+      <c r="Q10" s="63">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="R10" s="40">
         <v>4</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="S10" s="40">
         <v>-1</v>
       </c>
-      <c r="R10" s="52">
+      <c r="T10" s="40">
         <v>1</v>
       </c>
-      <c r="S10" s="52"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="59" t="s">
-        <v>134</v>
+      <c r="U10" s="40"/>
+      <c r="V10" s="63">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1">
         <v>25</v>
       </c>
-      <c r="F11" s="1">
-        <v>24</v>
-      </c>
-      <c r="G11" s="1">
-        <v>25</v>
+      <c r="G11" s="55">
+        <f t="shared" si="0"/>
+        <v>94</v>
       </c>
       <c r="H11" s="1">
         <v>28</v>
@@ -9191,96 +10231,127 @@
       <c r="K11" s="1">
         <v>24</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="55">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="M11" s="1">
         <v>28</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>32</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>26</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>24</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="55">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="R11" s="1">
         <v>32</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="S11" s="1">
         <v>28</v>
       </c>
-      <c r="R11" s="1">
+      <c r="T11" s="1">
         <v>24</v>
       </c>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="57">
+      <c r="U11" s="1"/>
+      <c r="V11" s="55">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="45">
         <v>0.13</v>
       </c>
-      <c r="E12" s="57">
+      <c r="D12" s="45">
         <v>0.16</v>
       </c>
-      <c r="F12" s="57">
+      <c r="E12" s="45">
         <v>0.15</v>
       </c>
-      <c r="G12" s="57">
+      <c r="F12" s="45">
         <v>0.15</v>
       </c>
-      <c r="H12" s="57">
+      <c r="G12" s="58">
+        <f>G11/G6</f>
+        <v>0.1494435612082671</v>
+      </c>
+      <c r="H12" s="45">
         <v>0.15</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="45">
         <v>0.16</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="45">
         <v>0.13</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="45">
         <v>0.13</v>
       </c>
-      <c r="L12" s="57">
+      <c r="L12" s="58">
+        <f>L11/L6</f>
+        <v>0.14461118690313779</v>
+      </c>
+      <c r="M12" s="45">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M12" s="57">
+      <c r="N12" s="45">
         <v>0.15</v>
       </c>
-      <c r="N12" s="57">
+      <c r="O12" s="45">
         <v>0.12</v>
       </c>
-      <c r="O12" s="57">
+      <c r="P12" s="45">
         <v>0.12</v>
       </c>
-      <c r="P12" s="57">
+      <c r="Q12" s="58">
+        <f>Q11/Q6</f>
+        <v>0.13221153846153846</v>
+      </c>
+      <c r="R12" s="45">
         <v>0.15</v>
       </c>
-      <c r="Q12" s="57">
+      <c r="S12" s="45">
         <v>0.13</v>
       </c>
-      <c r="R12" s="57">
+      <c r="T12" s="45">
         <v>0.11</v>
       </c>
-      <c r="S12" s="57"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="59" t="s">
-        <v>158</v>
+      <c r="U12" s="45"/>
+      <c r="V12" s="58">
+        <f>V11/V6</f>
+        <v>0.12942989214175654</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="1">
+        <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1">
         <v>6</v>
+      </c>
+      <c r="G13" s="55">
+        <f>SUM(C13:F13)</f>
+        <v>57</v>
       </c>
       <c r="H13" s="1">
         <v>21</v>
@@ -9294,146 +10365,193 @@
       <c r="K13" s="1">
         <v>16</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="55">
+        <f>SUM(H13:K13)</f>
+        <v>77</v>
+      </c>
+      <c r="M13" s="1">
         <v>21</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>25</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>18</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>6</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="55">
+        <f>SUM(M13:P13)</f>
+        <v>70</v>
+      </c>
+      <c r="R13" s="1">
         <v>25</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="S13" s="1">
         <v>20</v>
       </c>
-      <c r="R13" s="1">
+      <c r="T13" s="1">
         <v>11</v>
       </c>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="53" t="s">
+      <c r="U13" s="1"/>
+      <c r="V13" s="55">
+        <f>SUM(R13:U13)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="36">
+      <c r="C14" s="34">
         <v>0.09</v>
       </c>
-      <c r="E14" s="36">
+      <c r="D14" s="34">
         <v>0.12</v>
       </c>
-      <c r="F14" s="36">
+      <c r="E14" s="34">
         <v>0.12</v>
       </c>
-      <c r="G14" s="36">
+      <c r="F14" s="34">
         <v>0.04</v>
       </c>
-      <c r="H14" s="36">
+      <c r="G14" s="59">
+        <f>G13/G6</f>
+        <v>9.0620031796502382E-2</v>
+      </c>
+      <c r="H14" s="34">
         <v>0.12</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="34">
         <v>0.12</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="34">
         <v>0.09</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="45">
         <v>0.09</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="59">
+        <f>L13/L6</f>
+        <v>0.10504774897680765</v>
+      </c>
+      <c r="M14" s="34">
         <v>0.11</v>
       </c>
-      <c r="M14" s="36">
+      <c r="N14" s="34">
         <v>0.11</v>
       </c>
-      <c r="N14" s="36">
+      <c r="O14" s="34">
         <v>0.09</v>
       </c>
-      <c r="O14" s="57">
+      <c r="P14" s="45">
         <v>0.03</v>
       </c>
-      <c r="P14" s="57">
+      <c r="Q14" s="59">
+        <f>Q13/Q6</f>
+        <v>8.4134615384615391E-2</v>
+      </c>
+      <c r="R14" s="45">
         <v>0.12</v>
       </c>
-      <c r="Q14" s="57">
+      <c r="S14" s="45">
         <v>0.09</v>
       </c>
-      <c r="R14" s="57">
+      <c r="T14" s="45">
         <v>0.05</v>
       </c>
-      <c r="S14" s="57"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51">
+      <c r="U14" s="45"/>
+      <c r="V14" s="59">
+        <f>V13/V6</f>
+        <v>8.6286594761171037E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="39">
         <v>1</v>
       </c>
-      <c r="E15" s="51">
+      <c r="D15" s="39">
         <v>2</v>
       </c>
-      <c r="F15" s="51">
+      <c r="E15" s="39">
         <v>2</v>
       </c>
-      <c r="G15" s="51">
+      <c r="F15" s="39">
         <v>1</v>
       </c>
-      <c r="H15" s="51">
+      <c r="G15" s="60">
+        <f>SUM(C15:F15)</f>
+        <v>6</v>
+      </c>
+      <c r="H15" s="39">
         <v>1</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="39">
         <v>1</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="39">
         <v>2</v>
       </c>
       <c r="K15" s="2">
         <v>2</v>
       </c>
-      <c r="L15" s="51">
-        <v>0</v>
-      </c>
-      <c r="M15" s="51">
+      <c r="L15" s="60">
+        <f>SUM(H15:K15)</f>
+        <v>6</v>
+      </c>
+      <c r="M15" s="39">
+        <v>0</v>
+      </c>
+      <c r="N15" s="39">
         <v>1</v>
       </c>
-      <c r="N15" s="51">
+      <c r="O15" s="39">
         <v>2</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <v>-1</v>
       </c>
-      <c r="P15" s="2">
+      <c r="Q15" s="60">
+        <f>SUM(M15:P15)</f>
+        <v>2</v>
+      </c>
+      <c r="R15" s="2">
         <v>1</v>
       </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="60">
+        <f>SUM(R15:U15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
       </c>
       <c r="D16" s="2">
-        <v>4</v>
+        <v>-23</v>
       </c>
       <c r="E16" s="2">
         <v>-23</v>
       </c>
       <c r="F16" s="2">
-        <v>-23</v>
-      </c>
-      <c r="G16" s="2">
         <v>22</v>
+      </c>
+      <c r="G16" s="54">
+        <f>SUM(C16:F16)</f>
+        <v>-20</v>
       </c>
       <c r="H16" s="2">
         <v>-9</v>
@@ -9447,95 +10565,126 @@
       <c r="K16" s="2">
         <v>-4</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="54">
+        <f>SUM(H16:K16)</f>
+        <v>-19</v>
+      </c>
+      <c r="M16" s="2">
         <v>-10</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>-4</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>3</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <v>-26</v>
       </c>
-      <c r="P16" s="2">
+      <c r="Q16" s="54">
+        <f>SUM(M16:P16)</f>
+        <v>-37</v>
+      </c>
+      <c r="R16" s="2">
         <v>18</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="S16" s="2">
         <v>19</v>
       </c>
-      <c r="R16" s="2">
+      <c r="T16" s="2">
         <v>-4</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35">
+      <c r="V16" s="54">
+        <f>SUM(R16:U16)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="33">
         <v>-4</v>
       </c>
-      <c r="E17" s="35">
-        <v>0</v>
-      </c>
-      <c r="F17" s="35">
+      <c r="D17" s="33">
+        <v>0</v>
+      </c>
+      <c r="E17" s="33">
         <v>1</v>
       </c>
-      <c r="G17" s="35">
+      <c r="F17" s="33">
         <v>-12</v>
       </c>
-      <c r="H17" s="35">
+      <c r="G17" s="61">
+        <f>SUM(C17:F17)</f>
+        <v>-15</v>
+      </c>
+      <c r="H17" s="33">
         <v>-3</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="33">
         <v>-5</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="33">
         <v>-3</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="33">
         <v>-9</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="61">
+        <f>SUM(H17:K17)</f>
+        <v>-20</v>
+      </c>
+      <c r="M17" s="33">
         <v>-2</v>
       </c>
-      <c r="M17" s="35">
+      <c r="N17" s="33">
         <v>-5</v>
       </c>
-      <c r="N17" s="35">
+      <c r="O17" s="33">
         <v>-5</v>
       </c>
-      <c r="O17" s="35">
+      <c r="P17" s="33">
         <v>1</v>
       </c>
-      <c r="P17" s="35">
+      <c r="Q17" s="61">
+        <f>SUM(M17:P17)</f>
+        <v>-11</v>
+      </c>
+      <c r="R17" s="33">
         <v>-10</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="S17" s="33">
         <v>-8</v>
       </c>
-      <c r="R17" s="35">
+      <c r="T17" s="33">
         <v>-2</v>
       </c>
-      <c r="S17" s="35"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U17" s="33"/>
+      <c r="V17" s="61">
+        <f>SUM(R17:U17)</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>140</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
       </c>
       <c r="D18" s="1">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="E18" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F18" s="1">
-        <v>-2</v>
-      </c>
-      <c r="G18" s="1">
         <v>17</v>
+      </c>
+      <c r="G18" s="55">
+        <f>SUM(C18:F18)</f>
+        <v>29</v>
       </c>
       <c r="H18" s="1">
         <v>11</v>
@@ -9549,100 +10698,142 @@
       <c r="K18" s="1">
         <v>5</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="55">
+        <f>SUM(H18:K18)</f>
+        <v>45</v>
+      </c>
+      <c r="M18" s="1">
         <v>8</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>17</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>19</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>-21</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="55">
+        <f>SUM(M18:P18)</f>
+        <v>23</v>
+      </c>
+      <c r="R18" s="1">
         <v>35</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="S18" s="1">
         <v>31</v>
       </c>
-      <c r="R18" s="1">
+      <c r="T18" s="1">
         <v>6</v>
       </c>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="36">
+      <c r="U18" s="1"/>
+      <c r="V18" s="55">
+        <f>SUM(R18:U18)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="34">
         <v>0.09</v>
       </c>
-      <c r="E19" s="36">
+      <c r="D19" s="34">
         <v>-0.01</v>
       </c>
-      <c r="F19" s="36">
+      <c r="E19" s="34">
         <v>-0.01</v>
       </c>
-      <c r="G19" s="36">
+      <c r="F19" s="34">
         <v>0.1</v>
       </c>
-      <c r="H19" s="36">
+      <c r="G19" s="59">
+        <f>G18/G6</f>
+        <v>4.6104928457869634E-2</v>
+      </c>
+      <c r="H19" s="34">
         <v>0.06</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="34">
         <v>0.1</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="34">
         <v>0.06</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="34">
         <v>0.03</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="59">
+        <f>L18/L6</f>
+        <v>6.1391541609822645E-2</v>
+      </c>
+      <c r="M19" s="34">
         <v>0.04</v>
       </c>
-      <c r="M19" s="36">
+      <c r="N19" s="34">
         <v>0.08</v>
       </c>
-      <c r="N19" s="36">
+      <c r="O19" s="34">
         <v>0.09</v>
       </c>
-      <c r="O19" s="36">
+      <c r="P19" s="34">
         <v>-0.1</v>
       </c>
-      <c r="P19" s="36">
+      <c r="Q19" s="59">
+        <f>Q18/Q6</f>
+        <v>2.7644230769230768E-2</v>
+      </c>
+      <c r="R19" s="34">
         <v>0.16</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="S19" s="34">
         <v>0.15</v>
       </c>
-      <c r="R19" s="36">
+      <c r="T19" s="34">
         <v>0.03</v>
       </c>
-      <c r="S19" s="36"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="58" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U19" s="34"/>
+      <c r="V19" s="59">
+        <f>V18/V6</f>
+        <v>0.11093990755007704</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="V20" s="54"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="V21" s="54"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C22" s="1">
+        <v>93</v>
+      </c>
       <c r="D22" s="1">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E22" s="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F22" s="1">
-        <v>76</v>
-      </c>
-      <c r="G22" s="1">
         <v>83</v>
+      </c>
+      <c r="G22" s="55">
+        <f>SUM(C22:F22)</f>
+        <v>333</v>
       </c>
       <c r="H22" s="1">
         <v>75</v>
@@ -9656,44 +10847,60 @@
       <c r="K22" s="1">
         <v>68</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="55">
+        <f>SUM(H22:K22)</f>
+        <v>291</v>
+      </c>
+      <c r="M22" s="1">
         <v>69</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>80</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>78</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>75</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="55">
+        <f>SUM(M22:P22)</f>
+        <v>302</v>
+      </c>
+      <c r="R22" s="1">
         <v>82</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="S22" s="1">
         <v>100</v>
       </c>
-      <c r="R22" s="1">
+      <c r="T22" s="1">
         <v>87</v>
       </c>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="s">
-        <v>169</v>
+      <c r="U22" s="1"/>
+      <c r="V22" s="55">
+        <f>SUM(R22:U22)</f>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="11">
+        <v>84</v>
       </c>
       <c r="D23" s="11">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E23" s="11">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F23" s="11">
-        <v>64</v>
-      </c>
-      <c r="G23" s="11">
         <v>74</v>
+      </c>
+      <c r="G23" s="55">
+        <f>SUM(C23:F23)</f>
+        <v>292</v>
       </c>
       <c r="H23" s="11">
         <v>69</v>
@@ -9707,96 +10914,127 @@
       <c r="K23" s="2">
         <v>67</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="55">
+        <f>SUM(H23:K23)</f>
+        <v>283</v>
+      </c>
+      <c r="M23" s="11">
         <v>68</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <v>79</v>
       </c>
-      <c r="N23" s="11">
+      <c r="O23" s="11">
         <v>78</v>
       </c>
-      <c r="O23" s="11">
+      <c r="P23" s="11">
         <v>75</v>
       </c>
-      <c r="P23" s="11">
+      <c r="Q23" s="55">
+        <f>SUM(M23:P23)</f>
+        <v>300</v>
+      </c>
+      <c r="R23" s="11">
         <v>81</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="S23" s="11">
         <v>99</v>
       </c>
-      <c r="R23" s="11">
+      <c r="T23" s="11">
         <v>87</v>
       </c>
-      <c r="S23" s="11"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="52">
+      <c r="U23" s="11"/>
+      <c r="V23" s="55">
+        <f>SUM(R23:U23)</f>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="40">
         <v>9</v>
       </c>
-      <c r="E24" s="52">
+      <c r="D24" s="40">
         <v>11</v>
       </c>
-      <c r="F24" s="52">
+      <c r="E24" s="40">
         <v>11</v>
       </c>
-      <c r="G24" s="52">
+      <c r="F24" s="40">
         <v>10</v>
       </c>
-      <c r="H24" s="52">
+      <c r="G24" s="63">
+        <f>SUM(C24:F24)</f>
+        <v>41</v>
+      </c>
+      <c r="H24" s="40">
         <v>5</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="40">
         <v>1</v>
       </c>
-      <c r="J24" s="52">
-        <v>0</v>
-      </c>
-      <c r="K24" s="35">
+      <c r="J24" s="40">
+        <v>0</v>
+      </c>
+      <c r="K24" s="33">
         <v>1</v>
       </c>
-      <c r="L24" s="52">
+      <c r="L24" s="63">
+        <f>SUM(H24:K24)</f>
+        <v>7</v>
+      </c>
+      <c r="M24" s="40">
         <v>1</v>
       </c>
-      <c r="M24" s="52">
+      <c r="N24" s="40">
         <v>1</v>
       </c>
-      <c r="N24" s="52">
-        <v>0</v>
-      </c>
-      <c r="O24" s="52">
-        <v>0</v>
-      </c>
-      <c r="P24" s="52">
+      <c r="O24" s="40">
+        <v>0</v>
+      </c>
+      <c r="P24" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="63">
+        <f>SUM(M24:P24)</f>
+        <v>2</v>
+      </c>
+      <c r="R24" s="40">
         <v>1</v>
       </c>
-      <c r="Q24" s="52">
+      <c r="S24" s="40">
         <v>1</v>
       </c>
-      <c r="R24" s="52">
+      <c r="T24" s="40">
         <v>1</v>
       </c>
-      <c r="S24" s="52"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="59" t="s">
-        <v>134</v>
+      <c r="U24" s="40"/>
+      <c r="V24" s="63">
+        <f>SUM(R24:U24)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="1">
+        <v>31</v>
       </c>
       <c r="D25" s="1">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1">
         <v>15</v>
       </c>
-      <c r="F25" s="1">
-        <v>13</v>
-      </c>
-      <c r="G25" s="1">
-        <v>15</v>
+      <c r="G25" s="55">
+        <f>SUM(C25:F25)</f>
+        <v>74</v>
       </c>
       <c r="H25" s="1">
         <v>12</v>
@@ -9810,96 +11048,127 @@
       <c r="K25" s="1">
         <v>13</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="55">
+        <f>SUM(H25:K25)</f>
+        <v>50</v>
+      </c>
+      <c r="M25" s="1">
         <v>12</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <v>17</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>15</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>16</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="55">
+        <f>SUM(M25:P25)</f>
+        <v>60</v>
+      </c>
+      <c r="R25" s="1">
         <v>15</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="S25" s="1">
         <v>21</v>
       </c>
-      <c r="R25" s="1">
+      <c r="T25" s="1">
         <v>21</v>
       </c>
-      <c r="S25" s="1"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="57">
+      <c r="U25" s="1"/>
+      <c r="V25" s="55">
+        <f>SUM(R25:U25)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="45">
         <v>0.34</v>
       </c>
-      <c r="E26" s="57">
+      <c r="D26" s="45">
         <v>0.18</v>
       </c>
-      <c r="F26" s="57">
+      <c r="E26" s="45">
         <v>0.17</v>
       </c>
-      <c r="G26" s="57">
+      <c r="F26" s="45">
         <v>0.18</v>
       </c>
-      <c r="H26" s="57">
+      <c r="G26" s="58">
+        <f>G25/G22</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H26" s="45">
         <v>0.16</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="45">
         <v>0.15</v>
       </c>
-      <c r="J26" s="57">
+      <c r="J26" s="45">
         <v>0.19</v>
       </c>
-      <c r="K26" s="57">
+      <c r="K26" s="45">
         <v>0.19</v>
       </c>
-      <c r="L26" s="57">
+      <c r="L26" s="58">
+        <f>L25/L22</f>
+        <v>0.1718213058419244</v>
+      </c>
+      <c r="M26" s="45">
         <v>0.17</v>
       </c>
-      <c r="M26" s="57">
+      <c r="N26" s="45">
         <v>0.21</v>
       </c>
-      <c r="N26" s="57">
+      <c r="O26" s="45">
         <v>0.19</v>
       </c>
-      <c r="O26" s="57">
+      <c r="P26" s="45">
         <v>0.21</v>
       </c>
-      <c r="P26" s="57">
+      <c r="Q26" s="58">
+        <f>Q25/Q22</f>
+        <v>0.19867549668874171</v>
+      </c>
+      <c r="R26" s="45">
         <v>0.19</v>
       </c>
-      <c r="Q26" s="57">
+      <c r="S26" s="45">
         <v>0.21</v>
       </c>
-      <c r="R26" s="57">
+      <c r="T26" s="45">
         <v>0.24</v>
       </c>
-      <c r="S26" s="57"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="59" t="s">
-        <v>158</v>
+      <c r="U26" s="45"/>
+      <c r="V26" s="58">
+        <f>V25/V22</f>
+        <v>0.21189591078066913</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="1">
+        <v>22</v>
       </c>
       <c r="D27" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1">
-        <v>7</v>
-      </c>
-      <c r="G27" s="1">
         <v>8</v>
+      </c>
+      <c r="G27" s="55">
+        <f>SUM(C27:F27)</f>
+        <v>47</v>
       </c>
       <c r="H27" s="1">
         <v>6</v>
@@ -9913,140 +11182,187 @@
       <c r="K27" s="1">
         <v>5</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="55">
+        <f>SUM(H27:K27)</f>
+        <v>23</v>
+      </c>
+      <c r="M27" s="1">
         <v>4</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <v>9</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>7</v>
-      </c>
-      <c r="O27" s="1">
-        <v>9</v>
       </c>
       <c r="P27" s="1">
         <v>9</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="55">
+        <f>SUM(M27:P27)</f>
+        <v>29</v>
+      </c>
+      <c r="R27" s="1">
+        <v>9</v>
+      </c>
+      <c r="S27" s="1">
         <v>11</v>
       </c>
-      <c r="R27" s="1">
+      <c r="T27" s="1">
         <v>12</v>
       </c>
-      <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="U27" s="1"/>
+      <c r="V27" s="55">
+        <f>SUM(R27:U27)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="36">
+      <c r="C28" s="34">
         <v>0.24</v>
       </c>
-      <c r="E28" s="36">
+      <c r="D28" s="34">
         <v>0.12</v>
       </c>
-      <c r="F28" s="36">
+      <c r="E28" s="34">
         <v>0.09</v>
       </c>
-      <c r="G28" s="36">
+      <c r="F28" s="34">
         <v>0.1</v>
       </c>
-      <c r="H28" s="36">
+      <c r="G28" s="59">
+        <f>G27/G22</f>
+        <v>0.14114114114114115</v>
+      </c>
+      <c r="H28" s="34">
         <v>0.08</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="34">
         <v>0.06</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="34">
         <v>0.1</v>
       </c>
-      <c r="K28" s="57">
+      <c r="K28" s="45">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="59">
+        <f>L27/L22</f>
+        <v>7.903780068728522E-2</v>
+      </c>
+      <c r="M28" s="34">
         <v>0.06</v>
       </c>
-      <c r="M28" s="36">
+      <c r="N28" s="34">
         <v>0.11</v>
       </c>
-      <c r="N28" s="36">
+      <c r="O28" s="34">
         <v>0.09</v>
       </c>
-      <c r="O28" s="57">
+      <c r="P28" s="45">
         <v>0.11</v>
       </c>
-      <c r="P28" s="57">
+      <c r="Q28" s="59">
+        <f>Q27/Q22</f>
+        <v>9.602649006622517E-2</v>
+      </c>
+      <c r="R28" s="45">
         <v>0.11</v>
       </c>
-      <c r="Q28" s="57">
+      <c r="S28" s="45">
         <v>0.11</v>
       </c>
-      <c r="R28" s="57">
+      <c r="T28" s="45">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S28" s="57"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51">
+      <c r="U28" s="45"/>
+      <c r="V28" s="59">
+        <f>V27/V22</f>
+        <v>0.11895910780669144</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="39">
         <v>2</v>
       </c>
-      <c r="E29" s="51">
+      <c r="D29" s="39">
         <v>3</v>
       </c>
-      <c r="F29" s="51">
+      <c r="E29" s="39">
         <v>3</v>
       </c>
-      <c r="G29" s="51">
+      <c r="F29" s="39">
         <v>1</v>
       </c>
-      <c r="H29" s="51">
+      <c r="G29" s="60">
+        <f>SUM(C29:F29)</f>
+        <v>9</v>
+      </c>
+      <c r="H29" s="39">
         <v>2</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="39">
         <v>1</v>
       </c>
-      <c r="J29" s="51">
+      <c r="J29" s="39">
         <v>4</v>
       </c>
       <c r="K29" s="2">
         <v>3</v>
       </c>
-      <c r="L29" s="51">
+      <c r="L29" s="60">
+        <f>SUM(H29:K29)</f>
+        <v>10</v>
+      </c>
+      <c r="M29" s="39">
         <v>3</v>
       </c>
-      <c r="M29" s="51">
+      <c r="N29" s="39">
         <v>3</v>
       </c>
-      <c r="N29" s="51">
+      <c r="O29" s="39">
         <v>1</v>
       </c>
-      <c r="O29" s="2">
+      <c r="P29" s="2">
         <v>-1</v>
       </c>
-      <c r="P29" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>10</v>
+      <c r="Q29" s="60">
+        <f>SUM(M29:P29)</f>
+        <v>6</v>
       </c>
       <c r="R29" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11">
+      <c r="S29" s="2">
+        <v>10</v>
+      </c>
+      <c r="T29" s="2">
+        <v>4</v>
+      </c>
+      <c r="V29" s="60">
+        <f>SUM(R29:U29)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11">
         <v>2</v>
       </c>
-      <c r="G30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="56">
+        <f>SUM(C30:F30)</f>
+        <v>2</v>
+      </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11">
         <v>1</v>
@@ -10057,36 +11373,52 @@
       <c r="K30" s="11">
         <v>1</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="56">
+        <f>SUM(H30:K30)</f>
+        <v>3</v>
+      </c>
+      <c r="M30" s="11">
         <v>2</v>
       </c>
-      <c r="M30" s="11">
+      <c r="N30" s="11">
         <v>3</v>
       </c>
-      <c r="N30" s="11">
+      <c r="O30" s="11">
         <v>2</v>
       </c>
-      <c r="O30" s="11">
-        <v>0</v>
-      </c>
       <c r="P30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="56">
+        <f>SUM(M30:P30)</f>
+        <v>7</v>
+      </c>
+      <c r="R30" s="11">
         <v>2</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="S30" s="11">
         <v>2</v>
       </c>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11">
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="56">
+        <f>SUM(R30:U30)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11">
         <v>1</v>
       </c>
-      <c r="G31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="56">
+        <f t="shared" ref="G31:G32" si="4">SUM(C31:F31)</f>
+        <v>1</v>
+      </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11">
         <v>0</v>
@@ -10097,42 +11429,58 @@
       <c r="K31" s="11">
         <v>2</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="56">
+        <f t="shared" ref="L31:L32" si="5">SUM(H31:K31)</f>
+        <v>4</v>
+      </c>
+      <c r="M31" s="11">
         <v>1</v>
       </c>
-      <c r="M31" s="11">
-        <v>0</v>
-      </c>
       <c r="N31" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="11">
         <v>-1</v>
       </c>
       <c r="P31" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="56">
+        <f t="shared" ref="Q31:Q32" si="6">SUM(M31:P31)</f>
+        <v>-1</v>
+      </c>
+      <c r="R31" s="11">
         <v>2</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="S31" s="11">
         <v>8</v>
       </c>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="56">
+        <f t="shared" ref="V31:V32" si="7">SUM(R31:U31)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
+      </c>
+      <c r="C32" s="2">
+        <v>-4</v>
       </c>
       <c r="D32" s="2">
+        <v>-3</v>
+      </c>
+      <c r="E32" s="2">
         <v>-4</v>
       </c>
-      <c r="E32" s="2">
-        <v>-3</v>
-      </c>
       <c r="F32" s="2">
-        <v>-4</v>
-      </c>
-      <c r="G32" s="2">
         <v>-6</v>
+      </c>
+      <c r="G32" s="56">
+        <f t="shared" si="4"/>
+        <v>-17</v>
       </c>
       <c r="H32" s="2">
         <v>-4</v>
@@ -10146,95 +11494,126 @@
       <c r="K32" s="2">
         <v>-9</v>
       </c>
-      <c r="L32" s="2">
-        <v>0</v>
+      <c r="L32" s="56">
+        <f t="shared" si="5"/>
+        <v>-19</v>
       </c>
       <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
         <v>1</v>
       </c>
-      <c r="N32" s="2">
+      <c r="O32" s="2">
         <v>-8</v>
       </c>
-      <c r="O32" s="2">
+      <c r="P32" s="2">
         <v>1</v>
       </c>
-      <c r="P32" s="2">
+      <c r="Q32" s="56">
+        <f t="shared" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="R32" s="2">
         <v>-12</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="S32" s="2">
         <v>-7</v>
       </c>
-      <c r="R32" s="2">
+      <c r="T32" s="2">
         <v>-4</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35">
+      <c r="V32" s="56">
+        <f t="shared" si="7"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="33">
         <v>1</v>
       </c>
-      <c r="E33" s="35">
-        <v>0</v>
-      </c>
-      <c r="F33" s="35">
-        <v>0</v>
-      </c>
-      <c r="G33" s="35">
+      <c r="D33" s="33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="33">
         <v>-3</v>
       </c>
-      <c r="H33" s="35">
-        <v>0</v>
-      </c>
-      <c r="I33" s="35">
-        <v>0</v>
-      </c>
-      <c r="J33" s="35">
+      <c r="G33" s="61">
+        <f>SUM(C33:F33)</f>
+        <v>-2</v>
+      </c>
+      <c r="H33" s="33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="33">
         <v>-1</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="33">
         <v>-1</v>
       </c>
-      <c r="L33" s="35">
-        <v>0</v>
-      </c>
-      <c r="M33" s="35">
+      <c r="L33" s="61">
+        <f>SUM(H33:K33)</f>
+        <v>-2</v>
+      </c>
+      <c r="M33" s="33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="33">
         <v>1</v>
       </c>
-      <c r="N33" s="35">
+      <c r="O33" s="33">
         <v>-1</v>
       </c>
-      <c r="O33" s="35">
+      <c r="P33" s="33">
         <v>-2</v>
       </c>
-      <c r="P33" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="35">
-        <v>0</v>
-      </c>
-      <c r="R33" s="35">
-        <v>0</v>
-      </c>
-      <c r="S33" s="35"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q33" s="61">
+        <f>SUM(M33:P33)</f>
+        <v>-2</v>
+      </c>
+      <c r="R33" s="33">
+        <v>0</v>
+      </c>
+      <c r="S33" s="33">
+        <v>0</v>
+      </c>
+      <c r="T33" s="33">
+        <v>0</v>
+      </c>
+      <c r="U33" s="33"/>
+      <c r="V33" s="61">
+        <f>SUM(R33:U33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>161</v>
+        <v>140</v>
+      </c>
+      <c r="C34" s="1">
+        <v>21</v>
       </c>
       <c r="D34" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E34" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F34" s="1">
-        <v>6</v>
-      </c>
-      <c r="G34" s="1">
         <v>2</v>
+      </c>
+      <c r="G34" s="55">
+        <f>SUM(C34:F34)</f>
+        <v>38</v>
       </c>
       <c r="H34" s="1">
         <v>3</v>
@@ -10248,91 +11627,132 @@
       <c r="K34" s="1">
         <v>-1</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="55">
+        <f>SUM(H34:K34)</f>
+        <v>12</v>
+      </c>
+      <c r="M34" s="1">
         <v>7</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <v>14</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <v>-2</v>
       </c>
-      <c r="O34" s="1">
+      <c r="P34" s="1">
         <v>7</v>
       </c>
-      <c r="P34" s="1">
+      <c r="Q34" s="55">
+        <f>SUM(M34:P34)</f>
+        <v>26</v>
+      </c>
+      <c r="R34" s="1">
         <v>1</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="S34" s="1">
         <v>15</v>
       </c>
-      <c r="R34" s="1">
+      <c r="T34" s="1">
         <v>12</v>
       </c>
-      <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" s="36">
+      <c r="U34" s="1"/>
+      <c r="V34" s="55">
+        <f>SUM(R34:U34)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B35" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="34">
         <v>0.23</v>
       </c>
-      <c r="E35" s="36">
+      <c r="D35" s="34">
         <v>0.11</v>
       </c>
-      <c r="F35" s="36">
+      <c r="E35" s="34">
         <v>0.08</v>
       </c>
-      <c r="G35" s="36">
+      <c r="F35" s="34">
         <v>0.02</v>
       </c>
-      <c r="H35" s="36">
+      <c r="G35" s="59">
+        <f>G34/G22</f>
+        <v>0.11411411411411411</v>
+      </c>
+      <c r="H35" s="34">
         <v>0.04</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="34">
         <v>0.03</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="34">
         <v>0.11</v>
       </c>
       <c r="K35" s="23">
         <v>-0.01</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="59">
+        <f>L34/L22</f>
+        <v>4.1237113402061855E-2</v>
+      </c>
+      <c r="M35" s="34">
         <v>0.1</v>
       </c>
-      <c r="M35" s="36">
+      <c r="N35" s="34">
         <v>0.18</v>
       </c>
-      <c r="N35" s="36">
+      <c r="O35" s="34">
         <v>-0.02</v>
       </c>
-      <c r="O35" s="36">
+      <c r="P35" s="34">
         <v>0.1</v>
       </c>
-      <c r="P35" s="36">
+      <c r="Q35" s="59">
+        <f>Q34/Q22</f>
+        <v>8.6092715231788075E-2</v>
+      </c>
+      <c r="R35" s="34">
         <v>0.02</v>
       </c>
-      <c r="Q35" s="36">
+      <c r="S35" s="34">
         <v>0.15</v>
       </c>
-      <c r="R35" s="36">
+      <c r="T35" s="34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S35" s="36"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U35" s="34"/>
+      <c r="V35" s="59">
+        <f>V34/V22</f>
+        <v>0.10408921933085502</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="V36" s="54"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B37" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="V37" s="54"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C38" s="1">
+        <v>-2</v>
+      </c>
       <c r="D38" s="1">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1">
         <v>4</v>
@@ -10340,8 +11760,9 @@
       <c r="F38" s="1">
         <v>4</v>
       </c>
-      <c r="G38" s="1">
-        <v>4</v>
+      <c r="G38" s="55">
+        <f>SUM(C38:F38)</f>
+        <v>10</v>
       </c>
       <c r="H38" s="1">
         <v>5</v>
@@ -10355,11 +11776,12 @@
       <c r="K38" s="1">
         <v>3</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="55">
+        <f>SUM(H38:K38)</f>
+        <v>15</v>
+      </c>
+      <c r="M38" s="1">
         <v>5</v>
-      </c>
-      <c r="M38" s="1">
-        <v>4</v>
       </c>
       <c r="N38" s="1">
         <v>4</v>
@@ -10370,29 +11792,44 @@
       <c r="P38" s="1">
         <v>4</v>
       </c>
-      <c r="Q38" s="1">
-        <v>4</v>
+      <c r="Q38" s="55">
+        <f>SUM(M38:P38)</f>
+        <v>17</v>
       </c>
       <c r="R38" s="1">
         <v>4</v>
       </c>
-      <c r="S38" s="1"/>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="53" t="s">
-        <v>172</v>
+      <c r="S38" s="1">
+        <v>4</v>
+      </c>
+      <c r="T38" s="1">
+        <v>4</v>
+      </c>
+      <c r="U38" s="1"/>
+      <c r="V38" s="55">
+        <f>SUM(R38:U38)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="11">
+        <v>4</v>
       </c>
       <c r="D39" s="11">
+        <v>5</v>
+      </c>
+      <c r="E39" s="11">
         <v>4</v>
-      </c>
-      <c r="E39" s="11">
-        <v>5</v>
       </c>
       <c r="F39" s="11">
         <v>4</v>
       </c>
-      <c r="G39" s="11">
-        <v>4</v>
+      <c r="G39" s="55">
+        <f>SUM(C39:F39)</f>
+        <v>17</v>
       </c>
       <c r="H39" s="11">
         <v>5</v>
@@ -10406,11 +11843,12 @@
       <c r="K39" s="11">
         <v>3</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="55">
+        <f>SUM(H39:K39)</f>
+        <v>15</v>
+      </c>
+      <c r="M39" s="11">
         <v>5</v>
-      </c>
-      <c r="M39" s="11">
-        <v>4</v>
       </c>
       <c r="N39" s="11">
         <v>4</v>
@@ -10421,81 +11859,111 @@
       <c r="P39" s="11">
         <v>4</v>
       </c>
-      <c r="Q39" s="11">
-        <v>4</v>
+      <c r="Q39" s="55">
+        <f>SUM(M39:P39)</f>
+        <v>17</v>
       </c>
       <c r="R39" s="11">
         <v>4</v>
       </c>
-      <c r="S39" s="11"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="52">
+      <c r="S39" s="11">
+        <v>4</v>
+      </c>
+      <c r="T39" s="11">
+        <v>4</v>
+      </c>
+      <c r="U39" s="11"/>
+      <c r="V39" s="55">
+        <f>SUM(R39:U39)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B40" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="40">
         <v>-7</v>
       </c>
-      <c r="E40" s="52">
+      <c r="D40" s="40">
         <v>-1</v>
       </c>
-      <c r="F40" s="52">
-        <v>0</v>
-      </c>
-      <c r="G40" s="52">
-        <v>0</v>
-      </c>
-      <c r="H40" s="52">
-        <v>0</v>
-      </c>
-      <c r="I40" s="52">
-        <v>0</v>
-      </c>
-      <c r="J40" s="52">
-        <v>0</v>
-      </c>
-      <c r="K40" s="52">
-        <v>0</v>
-      </c>
-      <c r="L40" s="52">
-        <v>0</v>
-      </c>
-      <c r="M40" s="52">
-        <v>0</v>
-      </c>
-      <c r="N40" s="52">
-        <v>0</v>
-      </c>
-      <c r="O40" s="52">
-        <v>0</v>
-      </c>
-      <c r="P40" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="52">
-        <v>0</v>
-      </c>
-      <c r="R40" s="52">
-        <v>0</v>
-      </c>
-      <c r="S40" s="52"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B41" s="59" t="s">
-        <v>134</v>
+      <c r="E40" s="40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="57">
+        <f>SUM(C40:F40)</f>
+        <v>-8</v>
+      </c>
+      <c r="H40" s="40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="40">
+        <v>0</v>
+      </c>
+      <c r="J40" s="40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="57">
+        <f>SUM(H40:K40)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="40">
+        <v>0</v>
+      </c>
+      <c r="N40" s="40">
+        <v>0</v>
+      </c>
+      <c r="O40" s="40">
+        <v>0</v>
+      </c>
+      <c r="P40" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="57">
+        <f>SUM(M40:P40)</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="40">
+        <v>0</v>
+      </c>
+      <c r="S40" s="40">
+        <v>0</v>
+      </c>
+      <c r="T40" s="40">
+        <v>0</v>
+      </c>
+      <c r="U40" s="40"/>
+      <c r="V40" s="57">
+        <f>SUM(R40:U40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B41" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-8</v>
       </c>
       <c r="D41" s="1">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E41" s="1">
         <v>-1</v>
       </c>
       <c r="F41" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G41" s="1">
         <v>-6</v>
+      </c>
+      <c r="G41" s="55">
+        <f ca="1">SUM(C41:G41)</f>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -10509,44 +11977,60 @@
       <c r="K41" s="1">
         <v>-3</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="55">
+        <f ca="1">SUM(H41:L41)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
         <v>-1</v>
-      </c>
-      <c r="M41" s="1">
-        <v>-2</v>
       </c>
       <c r="N41" s="1">
         <v>-2</v>
       </c>
       <c r="O41" s="1">
+        <v>-2</v>
+      </c>
+      <c r="P41" s="1">
         <v>-3</v>
       </c>
-      <c r="P41" s="1">
+      <c r="Q41" s="55">
+        <f ca="1">SUM(M41:Q41)</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
         <v>-1</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="S41" s="1">
         <v>-1</v>
       </c>
-      <c r="R41" s="1">
+      <c r="T41" s="1">
         <v>-3</v>
       </c>
-      <c r="S41" s="1"/>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="59" t="s">
-        <v>158</v>
+      <c r="U41" s="1"/>
+      <c r="V41" s="55">
+        <f ca="1">SUM(R41:V41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B42" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-9</v>
       </c>
       <c r="D42" s="1">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="E42" s="1">
         <v>-2</v>
       </c>
       <c r="F42" s="1">
-        <v>-2</v>
-      </c>
-      <c r="G42" s="1">
         <v>-7</v>
+      </c>
+      <c r="G42" s="55">
+        <f>SUM(C42:F42)</f>
+        <v>-20</v>
       </c>
       <c r="H42" s="1">
         <v>-1</v>
@@ -10557,99 +12041,130 @@
       <c r="J42" s="1">
         <v>-3</v>
       </c>
-      <c r="K42" s="55">
+      <c r="K42" s="43">
         <v>-4</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="55">
+        <f>SUM(H42:K42)</f>
+        <v>-11</v>
+      </c>
+      <c r="M42" s="1">
         <v>-2</v>
       </c>
-      <c r="M42" s="1">
+      <c r="N42" s="1">
         <v>-4</v>
       </c>
-      <c r="N42" s="1">
+      <c r="O42" s="1">
         <v>-3</v>
       </c>
-      <c r="O42" s="55">
+      <c r="P42" s="43">
         <v>-4</v>
       </c>
-      <c r="P42" s="55">
+      <c r="Q42" s="55">
+        <f>SUM(M42:P42)</f>
+        <v>-13</v>
+      </c>
+      <c r="R42" s="43">
         <v>-2</v>
       </c>
-      <c r="Q42" s="55">
+      <c r="S42" s="43">
         <v>-2</v>
       </c>
-      <c r="R42" s="55">
+      <c r="T42" s="43">
         <v>-4</v>
       </c>
-      <c r="S42" s="55"/>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60">
+      <c r="U42" s="43"/>
+      <c r="V42" s="55">
+        <f>SUM(R42:U42)</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="48">
         <v>61</v>
       </c>
-      <c r="E43" s="60">
+      <c r="D43" s="48">
         <v>41</v>
       </c>
-      <c r="F43" s="60">
+      <c r="E43" s="48">
         <v>100</v>
       </c>
-      <c r="G43" s="60">
+      <c r="F43" s="48">
         <v>98</v>
       </c>
-      <c r="H43" s="60">
+      <c r="G43" s="62">
+        <f>SUM(C43:F43)</f>
+        <v>300</v>
+      </c>
+      <c r="H43" s="48">
         <v>56</v>
       </c>
-      <c r="I43" s="60">
+      <c r="I43" s="48">
         <v>139</v>
       </c>
-      <c r="J43" s="60">
+      <c r="J43" s="48">
         <v>132</v>
       </c>
       <c r="K43" s="1">
         <v>63</v>
       </c>
-      <c r="L43" s="60">
+      <c r="L43" s="62">
+        <f>SUM(H43:K43)</f>
+        <v>390</v>
+      </c>
+      <c r="M43" s="48">
         <v>88</v>
       </c>
-      <c r="M43" s="60">
+      <c r="N43" s="48">
         <v>142</v>
       </c>
-      <c r="N43" s="60">
+      <c r="O43" s="48">
         <v>115</v>
       </c>
-      <c r="O43" s="1">
+      <c r="P43" s="1">
         <v>117</v>
       </c>
-      <c r="P43" s="1">
+      <c r="Q43" s="62">
+        <f>SUM(M43:P43)</f>
+        <v>462</v>
+      </c>
+      <c r="R43" s="1">
         <v>116</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="S43" s="1">
         <v>197</v>
       </c>
-      <c r="R43" s="1">
+      <c r="T43" s="1">
         <v>128</v>
       </c>
-      <c r="S43" s="1"/>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B44" s="53" t="s">
-        <v>174</v>
+      <c r="U43" s="1"/>
+      <c r="V43" s="62">
+        <f>SUM(R43:U43)</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B44" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="11">
+        <v>61</v>
       </c>
       <c r="D44" s="11">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E44" s="11">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="F44" s="11">
-        <v>81</v>
-      </c>
-      <c r="G44" s="11">
         <v>98</v>
+      </c>
+      <c r="G44" s="56">
+        <f>SUM(C43:F44)</f>
+        <v>581</v>
       </c>
       <c r="H44" s="11">
         <v>56</v>
@@ -10663,44 +12178,60 @@
       <c r="K44" s="11">
         <v>42</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="56">
+        <f>SUM(H43:K44)</f>
+        <v>715</v>
+      </c>
+      <c r="M44" s="11">
         <v>63</v>
       </c>
-      <c r="M44" s="11">
+      <c r="N44" s="11">
         <v>118</v>
       </c>
-      <c r="N44" s="11">
+      <c r="O44" s="11">
         <v>91</v>
       </c>
-      <c r="O44" s="11">
+      <c r="P44" s="11">
         <v>100</v>
       </c>
-      <c r="P44" s="11">
+      <c r="Q44" s="56">
+        <f>SUM(M43:P44)</f>
+        <v>834</v>
+      </c>
+      <c r="R44" s="11">
         <v>86</v>
       </c>
-      <c r="Q44" s="11">
+      <c r="S44" s="11">
         <v>157</v>
       </c>
-      <c r="R44" s="11">
+      <c r="T44" s="11">
         <v>97</v>
       </c>
-      <c r="S44" s="11"/>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="53" t="s">
-        <v>175</v>
+      <c r="U44" s="11"/>
+      <c r="V44" s="56">
+        <f>SUM(R43:U44)</f>
+        <v>781</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B45" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
       </c>
       <c r="D45" s="11">
         <v>0</v>
       </c>
       <c r="E45" s="11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F45" s="11">
-        <v>19</v>
-      </c>
-      <c r="G45" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G45" s="56">
+        <f>SUM(C44:F45)</f>
+        <v>300</v>
       </c>
       <c r="H45" s="11">
         <v>0</v>
@@ -10714,96 +12245,127 @@
       <c r="K45" s="11">
         <v>21</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="56">
+        <f>SUM(H44:K45)</f>
+        <v>391</v>
+      </c>
+      <c r="M45" s="11">
         <v>25</v>
       </c>
-      <c r="M45" s="11">
+      <c r="N45" s="11">
         <v>24</v>
       </c>
-      <c r="N45" s="11">
+      <c r="O45" s="11">
         <v>23</v>
       </c>
-      <c r="O45" s="11">
+      <c r="P45" s="11">
         <v>18</v>
       </c>
-      <c r="P45" s="11">
+      <c r="Q45" s="56">
+        <f>SUM(M44:P45)</f>
+        <v>462</v>
+      </c>
+      <c r="R45" s="11">
         <v>30</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="S45" s="11">
         <v>40</v>
       </c>
-      <c r="R45" s="11">
+      <c r="T45" s="11">
         <v>31</v>
       </c>
-      <c r="S45" s="11"/>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="52">
-        <v>0</v>
-      </c>
-      <c r="E46" s="52">
-        <v>0</v>
-      </c>
-      <c r="F46" s="52">
-        <v>0</v>
-      </c>
-      <c r="G46" s="52">
-        <v>0</v>
-      </c>
-      <c r="H46" s="52">
-        <v>0</v>
-      </c>
-      <c r="I46" s="52">
-        <v>0</v>
-      </c>
-      <c r="J46" s="52">
-        <v>0</v>
-      </c>
-      <c r="K46" s="52">
-        <v>0</v>
-      </c>
-      <c r="L46" s="52">
-        <v>0</v>
-      </c>
-      <c r="M46" s="52">
-        <v>0</v>
-      </c>
-      <c r="N46" s="52">
-        <v>0</v>
-      </c>
-      <c r="O46" s="52">
-        <v>0</v>
-      </c>
-      <c r="P46" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="52">
-        <v>0</v>
-      </c>
-      <c r="R46" s="52">
-        <v>0</v>
-      </c>
-      <c r="S46" s="52"/>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="59" t="s">
+      <c r="U45" s="11"/>
+      <c r="V45" s="56">
+        <f>SUM(R44:U45)</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B46" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="40">
+        <v>0</v>
+      </c>
+      <c r="D46" s="40">
+        <v>0</v>
+      </c>
+      <c r="E46" s="40">
+        <v>0</v>
+      </c>
+      <c r="F46" s="40">
+        <v>0</v>
+      </c>
+      <c r="G46" s="57">
+        <f>SUM(C46:F46)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="40">
+        <v>0</v>
+      </c>
+      <c r="I46" s="40">
+        <v>0</v>
+      </c>
+      <c r="J46" s="40">
+        <v>0</v>
+      </c>
+      <c r="K46" s="40">
+        <v>0</v>
+      </c>
+      <c r="L46" s="57">
+        <f>SUM(H46:K46)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="40">
+        <v>0</v>
+      </c>
+      <c r="N46" s="40">
+        <v>0</v>
+      </c>
+      <c r="O46" s="40">
+        <v>0</v>
+      </c>
+      <c r="P46" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="57">
+        <f>SUM(M46:P46)</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="40">
+        <v>0</v>
+      </c>
+      <c r="S46" s="40">
+        <v>0</v>
+      </c>
+      <c r="T46" s="40">
+        <v>0</v>
+      </c>
+      <c r="U46" s="40"/>
+      <c r="V46" s="57">
+        <f>SUM(R46:U46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B47" s="47" t="s">
         <v>61</v>
       </c>
+      <c r="C47" s="1">
+        <v>70</v>
+      </c>
       <c r="D47" s="1">
-        <v>70</v>
+        <v>-92</v>
       </c>
       <c r="E47" s="1">
-        <v>-92</v>
+        <v>-3</v>
       </c>
       <c r="F47" s="1">
-        <v>-3</v>
-      </c>
-      <c r="G47" s="1">
         <v>76</v>
+      </c>
+      <c r="G47" s="55">
+        <f>SUM(C47:F47)</f>
+        <v>51</v>
       </c>
       <c r="H47" s="1">
         <v>-35</v>
@@ -10817,44 +12379,60 @@
       <c r="K47" s="1">
         <v>5</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="55">
+        <f>SUM(H47:K47)</f>
+        <v>-30</v>
+      </c>
+      <c r="M47" s="1">
         <v>2</v>
       </c>
-      <c r="M47" s="1">
+      <c r="N47" s="1">
         <v>4</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O47" s="1">
         <v>5</v>
-      </c>
-      <c r="O47" s="1">
-        <v>-1</v>
       </c>
       <c r="P47" s="1">
         <v>-1</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="55">
+        <f>SUM(M47:P47)</f>
+        <v>10</v>
+      </c>
+      <c r="R47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S47" s="1">
         <v>6</v>
       </c>
-      <c r="R47" s="1">
+      <c r="T47" s="1">
         <v>-3</v>
       </c>
-      <c r="S47" s="1"/>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U47" s="1"/>
+      <c r="V47" s="55">
+        <f>SUM(R47:U47)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>177</v>
+        <v>156</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
       </c>
       <c r="D48" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="F48" s="1">
-        <v>-3</v>
-      </c>
-      <c r="G48" s="1">
         <v>11</v>
+      </c>
+      <c r="G48" s="55">
+        <f>SUM(C48:F48)</f>
+        <v>13</v>
       </c>
       <c r="H48" s="1">
         <v>37</v>
@@ -10868,44 +12446,60 @@
       <c r="K48" s="1">
         <v>19</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48" s="55">
+        <f>SUM(H48:K48)</f>
+        <v>84</v>
+      </c>
+      <c r="M48" s="1">
         <v>10</v>
       </c>
-      <c r="M48" s="1">
+      <c r="N48" s="1">
         <v>3</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="1">
         <v>4</v>
       </c>
-      <c r="O48" s="1">
+      <c r="P48" s="1">
         <v>11</v>
       </c>
-      <c r="P48" s="1">
+      <c r="Q48" s="55">
+        <f>SUM(M48:P48)</f>
+        <v>28</v>
+      </c>
+      <c r="R48" s="1">
         <v>-9</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="S48" s="1">
         <v>18</v>
       </c>
-      <c r="R48" s="1">
+      <c r="T48" s="1">
         <v>9</v>
       </c>
-      <c r="S48" s="1"/>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="53" t="s">
-        <v>178</v>
+      <c r="U48" s="1"/>
+      <c r="V48" s="55">
+        <f>SUM(R48:U48)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B49" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="11">
+        <v>-8</v>
       </c>
       <c r="D49" s="11">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="E49" s="11">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F49" s="11">
-        <v>-5</v>
-      </c>
-      <c r="G49" s="11">
         <v>12</v>
+      </c>
+      <c r="G49" s="55">
+        <f t="shared" ref="G49:G50" si="8">SUM(C49:F49)</f>
+        <v>-3</v>
       </c>
       <c r="H49" s="11">
         <v>7</v>
@@ -10919,44 +12513,60 @@
       <c r="K49" s="11">
         <v>6</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="55">
+        <f t="shared" ref="L49:L50" si="9">SUM(H49:K49)</f>
+        <v>16</v>
+      </c>
+      <c r="M49" s="11">
         <v>7</v>
       </c>
-      <c r="M49" s="11">
+      <c r="N49" s="11">
         <v>6</v>
       </c>
-      <c r="N49" s="11">
+      <c r="O49" s="11">
         <v>3</v>
       </c>
-      <c r="O49" s="11">
+      <c r="P49" s="11">
         <v>-5</v>
       </c>
-      <c r="P49" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="11">
+      <c r="Q49" s="55">
+        <f t="shared" ref="Q49:Q50" si="10">SUM(M49:P49)</f>
+        <v>11</v>
+      </c>
+      <c r="R49" s="11">
+        <v>0</v>
+      </c>
+      <c r="S49" s="11">
         <v>6</v>
       </c>
-      <c r="R49" s="11">
+      <c r="T49" s="11">
         <v>6</v>
       </c>
-      <c r="S49" s="11"/>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B50" s="53" t="s">
-        <v>179</v>
+      <c r="U49" s="11"/>
+      <c r="V49" s="55">
+        <f t="shared" ref="V49:V50" si="11">SUM(R49:U49)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B50" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="11">
+        <v>13</v>
       </c>
       <c r="D50" s="11">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="E50" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="11">
         <v>0</v>
       </c>
-      <c r="G50" s="11">
-        <v>0</v>
+      <c r="G50" s="55">
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="H50" s="11">
         <v>19</v>
@@ -10970,96 +12580,127 @@
       <c r="K50" s="11">
         <v>9</v>
       </c>
-      <c r="L50" s="11">
-        <v>1</v>
+      <c r="L50" s="55">
+        <f t="shared" si="9"/>
+        <v>54</v>
       </c>
       <c r="M50" s="11">
         <v>1</v>
       </c>
       <c r="N50" s="11">
+        <v>1</v>
+      </c>
+      <c r="O50" s="11">
         <v>2</v>
       </c>
-      <c r="O50" s="11">
+      <c r="P50" s="11">
         <v>14</v>
       </c>
-      <c r="P50" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q50" s="11">
-        <v>3</v>
+      <c r="Q50" s="55">
+        <f t="shared" si="10"/>
+        <v>18</v>
       </c>
       <c r="R50" s="11">
         <v>3</v>
       </c>
-      <c r="S50" s="11"/>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B51" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="52">
+      <c r="S50" s="11">
+        <v>3</v>
+      </c>
+      <c r="T50" s="11">
+        <v>3</v>
+      </c>
+      <c r="U50" s="11"/>
+      <c r="V50" s="55">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B51" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="40">
         <v>-1</v>
       </c>
-      <c r="E51" s="52">
+      <c r="D51" s="40">
         <v>3</v>
       </c>
-      <c r="F51" s="52">
+      <c r="E51" s="40">
         <v>2</v>
       </c>
-      <c r="G51" s="52">
+      <c r="F51" s="40">
         <v>-2</v>
       </c>
-      <c r="H51" s="52">
+      <c r="G51" s="57">
+        <f>SUM(C51:F51)</f>
+        <v>2</v>
+      </c>
+      <c r="H51" s="40">
         <v>11</v>
       </c>
-      <c r="I51" s="52">
+      <c r="I51" s="40">
         <v>-1</v>
       </c>
-      <c r="J51" s="52">
-        <v>0</v>
-      </c>
-      <c r="K51" s="52">
+      <c r="J51" s="40">
+        <v>0</v>
+      </c>
+      <c r="K51" s="40">
         <v>4</v>
       </c>
-      <c r="L51" s="52">
+      <c r="L51" s="57">
+        <f>SUM(H51:K51)</f>
+        <v>14</v>
+      </c>
+      <c r="M51" s="40">
         <v>2</v>
       </c>
-      <c r="M51" s="52">
+      <c r="N51" s="40">
         <v>-5</v>
       </c>
-      <c r="N51" s="52">
-        <v>0</v>
-      </c>
-      <c r="O51" s="52">
+      <c r="O51" s="40">
+        <v>0</v>
+      </c>
+      <c r="P51" s="40">
         <v>2</v>
       </c>
-      <c r="P51" s="52">
+      <c r="Q51" s="57">
+        <f>SUM(M51:P51)</f>
+        <v>-1</v>
+      </c>
+      <c r="R51" s="40">
         <v>-12</v>
       </c>
-      <c r="Q51" s="52">
+      <c r="S51" s="40">
         <v>8</v>
       </c>
-      <c r="R51" s="52">
-        <v>0</v>
-      </c>
-      <c r="S51" s="52"/>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="40">
+        <v>0</v>
+      </c>
+      <c r="U51" s="40"/>
+      <c r="V51" s="57">
+        <f>SUM(R51:U51)</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
+      </c>
+      <c r="C52" s="2">
+        <v>-2</v>
       </c>
       <c r="D52" s="2">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="E52" s="2">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="F52" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G52" s="2">
         <v>1</v>
+      </c>
+      <c r="G52" s="54">
+        <f>SUM(C52:F52)</f>
+        <v>4</v>
       </c>
       <c r="H52" s="2">
         <v>-3</v>
@@ -11073,43 +12714,59 @@
       <c r="K52" s="2">
         <v>-2</v>
       </c>
-      <c r="L52" s="2">
-        <v>0</v>
+      <c r="L52" s="54">
+        <f>SUM(H52:K52)</f>
+        <v>-6</v>
       </c>
       <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2">
         <v>-2</v>
       </c>
-      <c r="N52" s="2">
+      <c r="O52" s="2">
         <v>-1</v>
       </c>
-      <c r="O52" s="2">
+      <c r="P52" s="2">
         <v>-5</v>
       </c>
-      <c r="P52" s="2">
+      <c r="Q52" s="54">
+        <f>SUM(M52:P52)</f>
+        <v>-8</v>
+      </c>
+      <c r="R52" s="2">
         <v>-2</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="S52" s="2">
         <v>-2</v>
       </c>
-      <c r="R52" s="2">
+      <c r="T52" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V52" s="54">
+        <f>SUM(R52:U52)</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
+      </c>
+      <c r="C53" s="1">
+        <v>124</v>
       </c>
       <c r="D53" s="1">
-        <v>124</v>
+        <v>-46</v>
       </c>
       <c r="E53" s="1">
-        <v>-46</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1">
-        <v>91</v>
-      </c>
-      <c r="G53" s="1">
         <v>180</v>
+      </c>
+      <c r="G53" s="55">
+        <f>SUM(C53:F53)</f>
+        <v>349</v>
       </c>
       <c r="H53" s="1">
         <v>54</v>
@@ -11123,28 +12780,40 @@
       <c r="K53" s="1">
         <v>81</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53" s="55">
+        <f>SUM(H53:K53)</f>
+        <v>427</v>
+      </c>
+      <c r="M53" s="1">
         <v>98</v>
       </c>
-      <c r="M53" s="1">
+      <c r="N53" s="1">
         <v>143</v>
       </c>
-      <c r="N53" s="1">
+      <c r="O53" s="1">
         <v>119</v>
       </c>
-      <c r="O53" s="1">
+      <c r="P53" s="1">
         <v>118</v>
       </c>
-      <c r="P53" s="1">
+      <c r="Q53" s="55">
+        <f>SUM(M53:P53)</f>
+        <v>478</v>
+      </c>
+      <c r="R53" s="1">
         <v>101</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="S53" s="1">
         <v>217</v>
       </c>
-      <c r="R53" s="1">
+      <c r="T53" s="1">
         <v>129</v>
       </c>
-      <c r="S53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="55">
+        <f>SUM(R53:U53)</f>
+        <v>447</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11153,281 +12822,527 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D96005A-D926-0A4A-83BB-6287EB4C1EBD}">
-  <dimension ref="A2:F34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D96005A-D926-0A4A-83BB-6287EB4C1EBD}">
+  <dimension ref="A2:G65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="68" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" style="68" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="68" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="68"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="67"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="37">
-        <f>Modell!B4/SOTP!D34</f>
-        <v>0.75643959255694804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B4" s="67">
+        <f>Modell!B4/SOTP!G27</f>
+        <v>0.61870199100113288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="70">
+        <v>125000000</v>
+      </c>
+      <c r="D8" s="68">
+        <v>8</v>
+      </c>
+      <c r="E8" s="68">
+        <f>B30</f>
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F8" s="70">
+        <f>(B8*E8)*D8</f>
+        <v>9970000000</v>
+      </c>
+      <c r="G8" s="71">
+        <f>F8/$B$27</f>
+        <v>223.64288918797666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="42">
-        <v>93.45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" s="70">
+        <v>60000000</v>
+      </c>
+      <c r="D9" s="68">
+        <v>9</v>
+      </c>
+      <c r="E9" s="68">
+        <f>B30</f>
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F9" s="70">
+        <f>(B9*E9)*D9</f>
+        <v>5383800000</v>
+      </c>
+      <c r="G9" s="71">
+        <f>F9/$B$27</f>
+        <v>120.76716016150741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="83">
+        <v>-10000000</v>
+      </c>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82">
+        <v>6</v>
+      </c>
+      <c r="E10" s="82">
+        <f>B30</f>
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F10" s="83">
+        <f t="shared" ref="F10" si="0">(B10*E10)*D10</f>
+        <v>-598200000</v>
+      </c>
+      <c r="G10" s="84">
+        <f>F10/$B$27</f>
+        <v>-13.418573351278599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="D9">
-        <v>160.21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="43">
-        <f>D8*D9</f>
-        <v>14971.624500000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="47">
-        <f>D10/D32</f>
-        <v>1467.8063235294121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="72">
+        <f>SUM(G8:G10)</f>
+        <v>330.99147599820549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="71"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="70">
+        <v>160210000</v>
+      </c>
+      <c r="D14" s="68">
+        <v>102.5</v>
+      </c>
+      <c r="E14" s="68">
+        <v>1</v>
+      </c>
+      <c r="F14" s="70">
+        <f>B14*D14</f>
+        <v>16421525000</v>
+      </c>
+      <c r="G14" s="71">
+        <f>F14/$B$27</f>
+        <v>368.36081202332883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="70">
+        <v>8250000</v>
+      </c>
+      <c r="D15" s="70">
+        <v>262000</v>
+      </c>
+      <c r="E15" s="68">
+        <f>B31</f>
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="F15" s="70">
+        <f>(B15*D15)*E15</f>
+        <v>14698200000</v>
+      </c>
+      <c r="G15" s="71">
+        <f>F15/$B$27</f>
+        <v>329.70390309555853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="70">
+        <v>96844009</v>
+      </c>
+      <c r="D16" s="68">
+        <v>6.7</v>
+      </c>
+      <c r="E16" s="68">
+        <v>1</v>
+      </c>
+      <c r="F16" s="70">
+        <f>(B16*D16)</f>
+        <v>648854860.30000007</v>
+      </c>
+      <c r="G16" s="71">
+        <f>F16/$B$27</f>
+        <v>14.554842088380441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="83">
+        <v>25000000</v>
+      </c>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82">
+        <v>4.82</v>
+      </c>
+      <c r="E17" s="82">
+        <f>B32</f>
+        <v>6.74</v>
+      </c>
+      <c r="F17" s="83">
+        <f>(B17*D17)*E17</f>
+        <v>812170000</v>
+      </c>
+      <c r="G17" s="84">
+        <f>F17/$B$27</f>
+        <v>18.218259309107221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="72">
+        <f>SUM(G14:G17)</f>
+        <v>730.83781651637503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="70">
+        <f>(Modell!R45+Modell!R50)*1000000</f>
+        <v>281000000</v>
+      </c>
+      <c r="E21" s="68">
+        <f>B30</f>
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F21" s="70">
+        <f>D21*E21</f>
+        <v>2801570000</v>
+      </c>
+      <c r="G21" s="72">
+        <f>F21/B27</f>
+        <v>62.843651861821442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="76" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="70">
+        <f>Modell!R36*1000000</f>
+        <v>303000000</v>
+      </c>
+      <c r="E24" s="68">
+        <f>B30</f>
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F24" s="70">
+        <f>D24*E24</f>
+        <v>3020910000</v>
+      </c>
+      <c r="G24" s="72">
+        <f>F24/B27</f>
+        <v>67.763795423956935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="78"/>
+      <c r="B27" s="79">
+        <v>44580000</v>
+      </c>
+      <c r="F27" s="70">
+        <f>SUM(F8:F10)+SUM(F14:F17)-F21+F24</f>
+        <v>47555689860.300003</v>
+      </c>
+      <c r="G27" s="80">
+        <f>F27/B27</f>
+        <v>1066.7494360767162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="78"/>
+      <c r="B28" s="78"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="78"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="78">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="78">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="78">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="71">
+        <f>G8</f>
+        <v>223.64288918797666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="42">
-        <v>39.5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="44">
-        <v>204.72266300000001</v>
-      </c>
-      <c r="E15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="43">
-        <f>D14*D15</f>
-        <v>8086.5451885000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="47">
-        <f>D16/D32</f>
-        <v>792.79854789215699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="44">
-        <f>(3.85*25)/1.58</f>
-        <v>60.917721518987342</v>
-      </c>
-      <c r="E20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21">
-        <f>23*40.1</f>
-        <v>922.30000000000007</v>
-      </c>
-      <c r="E21" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22">
-        <f>7*96.8</f>
-        <v>677.6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" s="67"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="48">
-        <f>D20+((D21+D22)/D32)</f>
-        <v>217.77066269545796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25">
-        <v>125</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="66">
-        <f>B25*8</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26">
-        <v>-10</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27">
-        <v>60</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27">
-        <f>60*9</f>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="43">
-        <f>D11+D17+D23+D25+D26+D27</f>
-        <v>3958.3755341170267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30">
-        <f>Modell!O45+Modell!O50-Modell!O36</f>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="43">
-        <f>D29-D30</f>
-        <v>3813.3755341170267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33">
-        <f>34+10.58</f>
-        <v>44.58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50">
-        <f>(D31*D32)/D33</f>
-        <v>872.50853405100202</v>
+      <c r="B52" s="71">
+        <f>G9</f>
+        <v>120.76716016150741</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="84">
+        <f>G10</f>
+        <v>-13.418573351278599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="72">
+        <f>SUM(B51:B53)</f>
+        <v>330.99147599820549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" s="71">
+        <f>G14</f>
+        <v>368.36081202332883</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="71">
+        <f>G15</f>
+        <v>329.70390309555853</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="71">
+        <f>G16</f>
+        <v>14.554842088380441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="84">
+        <f>G17</f>
+        <v>18.218259309107221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="85" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="72">
+        <f>SUM(B56:B59)</f>
+        <v>730.83781651637503</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="71">
+        <f>-G21</f>
+        <v>-62.843651861821442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="71">
+        <f>G24</f>
+        <v>67.763795423956935</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="71">
+        <f>B54+B60+B62+B63</f>
+        <v>1066.7494360767162</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11461,15 +13376,15 @@
       <c r="C5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="37">
         <f>Modell!$B$9/(Modell!AC11*Modell!$B$11)</f>
         <v>28.699111721773725</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="37">
         <f>Modell!$B$9/(Modell!AD11*Modell!$B$11)</f>
         <v>27.332487354070242</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="37">
         <f>Modell!$B$9/(Modell!AE11*Modell!$B$11)</f>
         <v>26.281237840452114</v>
       </c>
@@ -11478,15 +13393,15 @@
       <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="37">
         <f>Modell!$B$4/Modell!AC19</f>
         <v>5.1831785958829997</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="37">
         <f>Modell!$B$4/Modell!AD19</f>
         <v>5.359906383697453</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="37">
         <f>Modell!$B$4/Modell!AE19</f>
         <v>5.5448840080661137</v>
       </c>
